--- a/progress-report/110121209_DuongVanHiep_BaoCaoTienDo.xlsx
+++ b/progress-report/110121209_DuongVanHiep_BaoCaoTienDo.xlsx
@@ -11,9 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Tuần 1 (từ ngày 6/11/2023 đến 12/11/2023)</t>
+  </si>
+  <si>
+    <t>STT</t>
   </si>
   <si>
     <t>Mục tiêu</t>
@@ -31,25 +34,28 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>1. Tìm hiểu Laravel Freamwork</t>
+    <t>Hoàn thành đề cương chi tiết</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>2. Tạo Github Repository</t>
+    <t>Tìm hiểu Laravel Freamwork</t>
   </si>
   <si>
-    <t>3. Cài các công cụ để làm dự án</t>
+    <t>Tạo Github Repository</t>
+  </si>
+  <si>
+    <t>Cài các công cụ để làm dự án</t>
   </si>
   <si>
     <t>laragon (webserver), VS Code (code editor), Git</t>
   </si>
   <si>
-    <t>4. Khởi tạo dự án bằng TVUSMC với Laravel Freamwork</t>
+    <t>Khởi tạo dự án bằng TVUSMC với Laravel Freamwork</t>
   </si>
   <si>
-    <t>5. Thiết kế Database</t>
+    <t>Thiết kế Database</t>
   </si>
 </sst>
 </file>
@@ -148,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -166,6 +172,12 @@
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -386,11 +398,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="63.38"/>
-    <col customWidth="1" min="2" max="2" width="19.75"/>
-    <col customWidth="1" min="3" max="3" width="21.13"/>
-    <col customWidth="1" min="4" max="4" width="18.0"/>
-    <col customWidth="1" min="5" max="5" width="34.25"/>
+    <col customWidth="1" min="1" max="1" width="5.38"/>
+    <col customWidth="1" min="2" max="2" width="63.38"/>
+    <col customWidth="1" min="3" max="3" width="19.75"/>
+    <col customWidth="1" min="4" max="4" width="21.13"/>
+    <col customWidth="1" min="5" max="5" width="18.0"/>
+    <col customWidth="1" min="6" max="6" width="34.25"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1">
@@ -400,8 +413,8 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -422,6 +435,7 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
@@ -439,7 +453,9 @@
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -460,18 +476,21 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>6</v>
+      <c r="A3" s="7">
+        <v>1.0</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="4"/>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -492,18 +511,21 @@
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -524,20 +546,21 @@
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>9</v>
+      <c r="A5" s="7">
+        <v>3.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="C5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -558,18 +581,23 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -590,18 +618,21 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
+      <c r="A7" s="7">
+        <v>5.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="4"/>
+      <c r="C7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -622,14 +653,21 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="A8" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -650,6 +688,7 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="4"/>
@@ -678,6 +717,7 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" s="4"/>
@@ -706,6 +746,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" s="4"/>
@@ -734,6 +775,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
     </row>
     <row r="12">
       <c r="A12" s="4"/>
@@ -762,6 +804,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
     </row>
     <row r="13">
       <c r="A13" s="4"/>
@@ -790,6 +833,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
     </row>
     <row r="14">
       <c r="A14" s="4"/>
@@ -818,6 +862,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" s="4"/>
@@ -846,6 +891,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" s="4"/>
@@ -874,6 +920,7 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" s="4"/>
@@ -902,6 +949,7 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
     </row>
     <row r="18">
       <c r="A18" s="4"/>
@@ -930,6 +978,7 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
     </row>
     <row r="19">
       <c r="A19" s="4"/>
@@ -958,6 +1007,7 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
     </row>
     <row r="20">
       <c r="A20" s="4"/>
@@ -986,6 +1036,7 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
     </row>
     <row r="21">
       <c r="A21" s="4"/>
@@ -1014,6 +1065,7 @@
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
     </row>
     <row r="22">
       <c r="A22" s="4"/>
@@ -1042,6 +1094,7 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
     </row>
     <row r="23">
       <c r="A23" s="4"/>
@@ -1070,6 +1123,7 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
     </row>
     <row r="24">
       <c r="A24" s="4"/>
@@ -1098,6 +1152,7 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
     </row>
     <row r="25">
       <c r="A25" s="4"/>
@@ -1126,6 +1181,7 @@
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
     </row>
     <row r="26">
       <c r="A26" s="4"/>
@@ -1154,6 +1210,7 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
     </row>
     <row r="27">
       <c r="A27" s="4"/>
@@ -1182,6 +1239,7 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
     </row>
     <row r="28">
       <c r="A28" s="4"/>
@@ -1210,6 +1268,7 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
     </row>
     <row r="29">
       <c r="A29" s="4"/>
@@ -1238,6 +1297,7 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
     </row>
     <row r="30">
       <c r="A30" s="4"/>
@@ -1266,6 +1326,7 @@
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
     </row>
     <row r="31">
       <c r="A31" s="4"/>
@@ -1294,6 +1355,7 @@
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
     </row>
     <row r="32">
       <c r="A32" s="4"/>
@@ -1322,6 +1384,7 @@
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
     </row>
     <row r="33">
       <c r="A33" s="4"/>
@@ -1350,6 +1413,7 @@
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
     </row>
     <row r="34">
       <c r="A34" s="4"/>
@@ -1378,6 +1442,7 @@
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
     </row>
     <row r="35">
       <c r="A35" s="4"/>
@@ -1406,6 +1471,7 @@
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
     </row>
     <row r="36">
       <c r="A36" s="4"/>
@@ -1434,6 +1500,7 @@
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
     </row>
     <row r="37">
       <c r="A37" s="4"/>
@@ -1462,6 +1529,7 @@
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
     </row>
     <row r="38">
       <c r="A38" s="4"/>
@@ -1490,6 +1558,7 @@
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
     </row>
     <row r="39">
       <c r="A39" s="4"/>
@@ -1518,6 +1587,7 @@
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
     </row>
     <row r="40">
       <c r="A40" s="4"/>
@@ -1546,6 +1616,7 @@
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
     </row>
     <row r="41">
       <c r="A41" s="4"/>
@@ -1574,6 +1645,7 @@
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
     </row>
     <row r="42">
       <c r="A42" s="4"/>
@@ -1602,6 +1674,7 @@
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
     </row>
     <row r="43">
       <c r="A43" s="4"/>
@@ -1630,6 +1703,7 @@
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
     </row>
     <row r="44">
       <c r="A44" s="4"/>
@@ -1658,6 +1732,7 @@
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
     </row>
     <row r="45">
       <c r="A45" s="4"/>
@@ -1686,6 +1761,7 @@
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
     </row>
     <row r="46">
       <c r="A46" s="4"/>
@@ -1714,6 +1790,7 @@
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
     </row>
     <row r="47">
       <c r="A47" s="4"/>
@@ -1742,6 +1819,7 @@
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
     </row>
     <row r="48">
       <c r="A48" s="4"/>
@@ -1770,6 +1848,7 @@
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
     </row>
     <row r="49">
       <c r="A49" s="4"/>
@@ -1798,6 +1877,7 @@
       <c r="X49" s="4"/>
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
     </row>
     <row r="50">
       <c r="A50" s="4"/>
@@ -1826,6 +1906,7 @@
       <c r="X50" s="4"/>
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
+      <c r="AA50" s="4"/>
     </row>
     <row r="51">
       <c r="A51" s="4"/>
@@ -1854,6 +1935,7 @@
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
     </row>
     <row r="52">
       <c r="A52" s="4"/>
@@ -1882,6 +1964,7 @@
       <c r="X52" s="4"/>
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
     </row>
     <row r="53">
       <c r="A53" s="4"/>
@@ -1910,6 +1993,7 @@
       <c r="X53" s="4"/>
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
     </row>
     <row r="54">
       <c r="A54" s="4"/>
@@ -1938,6 +2022,7 @@
       <c r="X54" s="4"/>
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
+      <c r="AA54" s="4"/>
     </row>
     <row r="55">
       <c r="A55" s="4"/>
@@ -1966,6 +2051,7 @@
       <c r="X55" s="4"/>
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
+      <c r="AA55" s="4"/>
     </row>
     <row r="56">
       <c r="A56" s="4"/>
@@ -1994,6 +2080,7 @@
       <c r="X56" s="4"/>
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
+      <c r="AA56" s="4"/>
     </row>
     <row r="57">
       <c r="A57" s="4"/>
@@ -2022,6 +2109,7 @@
       <c r="X57" s="4"/>
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
+      <c r="AA57" s="4"/>
     </row>
     <row r="58">
       <c r="A58" s="4"/>
@@ -2050,6 +2138,7 @@
       <c r="X58" s="4"/>
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
+      <c r="AA58" s="4"/>
     </row>
     <row r="59">
       <c r="A59" s="4"/>
@@ -2078,6 +2167,7 @@
       <c r="X59" s="4"/>
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
+      <c r="AA59" s="4"/>
     </row>
     <row r="60">
       <c r="A60" s="4"/>
@@ -2106,6 +2196,7 @@
       <c r="X60" s="4"/>
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
+      <c r="AA60" s="4"/>
     </row>
     <row r="61">
       <c r="A61" s="4"/>
@@ -2134,6 +2225,7 @@
       <c r="X61" s="4"/>
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
+      <c r="AA61" s="4"/>
     </row>
     <row r="62">
       <c r="A62" s="4"/>
@@ -2162,6 +2254,7 @@
       <c r="X62" s="4"/>
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
+      <c r="AA62" s="4"/>
     </row>
     <row r="63">
       <c r="A63" s="4"/>
@@ -2190,6 +2283,7 @@
       <c r="X63" s="4"/>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
+      <c r="AA63" s="4"/>
     </row>
     <row r="64">
       <c r="A64" s="4"/>
@@ -2218,6 +2312,7 @@
       <c r="X64" s="4"/>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
+      <c r="AA64" s="4"/>
     </row>
     <row r="65">
       <c r="A65" s="4"/>
@@ -2246,6 +2341,7 @@
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
+      <c r="AA65" s="4"/>
     </row>
     <row r="66">
       <c r="A66" s="4"/>
@@ -2274,6 +2370,7 @@
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
+      <c r="AA66" s="4"/>
     </row>
     <row r="67">
       <c r="A67" s="4"/>
@@ -2302,6 +2399,7 @@
       <c r="X67" s="4"/>
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
+      <c r="AA67" s="4"/>
     </row>
     <row r="68">
       <c r="A68" s="4"/>
@@ -2330,6 +2428,7 @@
       <c r="X68" s="4"/>
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
+      <c r="AA68" s="4"/>
     </row>
     <row r="69">
       <c r="A69" s="4"/>
@@ -2358,6 +2457,7 @@
       <c r="X69" s="4"/>
       <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
+      <c r="AA69" s="4"/>
     </row>
     <row r="70">
       <c r="A70" s="4"/>
@@ -2386,6 +2486,7 @@
       <c r="X70" s="4"/>
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
+      <c r="AA70" s="4"/>
     </row>
     <row r="71">
       <c r="A71" s="4"/>
@@ -2414,6 +2515,7 @@
       <c r="X71" s="4"/>
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
+      <c r="AA71" s="4"/>
     </row>
     <row r="72">
       <c r="A72" s="4"/>
@@ -2442,6 +2544,7 @@
       <c r="X72" s="4"/>
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
+      <c r="AA72" s="4"/>
     </row>
     <row r="73">
       <c r="A73" s="4"/>
@@ -2470,6 +2573,7 @@
       <c r="X73" s="4"/>
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
+      <c r="AA73" s="4"/>
     </row>
     <row r="74">
       <c r="A74" s="4"/>
@@ -2498,6 +2602,7 @@
       <c r="X74" s="4"/>
       <c r="Y74" s="4"/>
       <c r="Z74" s="4"/>
+      <c r="AA74" s="4"/>
     </row>
     <row r="75">
       <c r="A75" s="4"/>
@@ -2526,6 +2631,7 @@
       <c r="X75" s="4"/>
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
+      <c r="AA75" s="4"/>
     </row>
     <row r="76">
       <c r="A76" s="4"/>
@@ -2554,6 +2660,7 @@
       <c r="X76" s="4"/>
       <c r="Y76" s="4"/>
       <c r="Z76" s="4"/>
+      <c r="AA76" s="4"/>
     </row>
     <row r="77">
       <c r="A77" s="4"/>
@@ -2582,6 +2689,7 @@
       <c r="X77" s="4"/>
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
+      <c r="AA77" s="4"/>
     </row>
     <row r="78">
       <c r="A78" s="4"/>
@@ -2610,6 +2718,7 @@
       <c r="X78" s="4"/>
       <c r="Y78" s="4"/>
       <c r="Z78" s="4"/>
+      <c r="AA78" s="4"/>
     </row>
     <row r="79">
       <c r="A79" s="4"/>
@@ -2638,6 +2747,7 @@
       <c r="X79" s="4"/>
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
+      <c r="AA79" s="4"/>
     </row>
     <row r="80">
       <c r="A80" s="4"/>
@@ -2666,6 +2776,7 @@
       <c r="X80" s="4"/>
       <c r="Y80" s="4"/>
       <c r="Z80" s="4"/>
+      <c r="AA80" s="4"/>
     </row>
     <row r="81">
       <c r="A81" s="4"/>
@@ -2694,6 +2805,7 @@
       <c r="X81" s="4"/>
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
+      <c r="AA81" s="4"/>
     </row>
     <row r="82">
       <c r="A82" s="4"/>
@@ -2722,6 +2834,7 @@
       <c r="X82" s="4"/>
       <c r="Y82" s="4"/>
       <c r="Z82" s="4"/>
+      <c r="AA82" s="4"/>
     </row>
     <row r="83">
       <c r="A83" s="4"/>
@@ -2750,6 +2863,7 @@
       <c r="X83" s="4"/>
       <c r="Y83" s="4"/>
       <c r="Z83" s="4"/>
+      <c r="AA83" s="4"/>
     </row>
     <row r="84">
       <c r="A84" s="4"/>
@@ -2778,6 +2892,7 @@
       <c r="X84" s="4"/>
       <c r="Y84" s="4"/>
       <c r="Z84" s="4"/>
+      <c r="AA84" s="4"/>
     </row>
     <row r="85">
       <c r="A85" s="4"/>
@@ -2806,6 +2921,7 @@
       <c r="X85" s="4"/>
       <c r="Y85" s="4"/>
       <c r="Z85" s="4"/>
+      <c r="AA85" s="4"/>
     </row>
     <row r="86">
       <c r="A86" s="4"/>
@@ -2834,6 +2950,7 @@
       <c r="X86" s="4"/>
       <c r="Y86" s="4"/>
       <c r="Z86" s="4"/>
+      <c r="AA86" s="4"/>
     </row>
     <row r="87">
       <c r="A87" s="4"/>
@@ -2862,6 +2979,7 @@
       <c r="X87" s="4"/>
       <c r="Y87" s="4"/>
       <c r="Z87" s="4"/>
+      <c r="AA87" s="4"/>
     </row>
     <row r="88">
       <c r="A88" s="4"/>
@@ -2890,6 +3008,7 @@
       <c r="X88" s="4"/>
       <c r="Y88" s="4"/>
       <c r="Z88" s="4"/>
+      <c r="AA88" s="4"/>
     </row>
     <row r="89">
       <c r="A89" s="4"/>
@@ -2918,6 +3037,7 @@
       <c r="X89" s="4"/>
       <c r="Y89" s="4"/>
       <c r="Z89" s="4"/>
+      <c r="AA89" s="4"/>
     </row>
     <row r="90">
       <c r="A90" s="4"/>
@@ -2946,6 +3066,7 @@
       <c r="X90" s="4"/>
       <c r="Y90" s="4"/>
       <c r="Z90" s="4"/>
+      <c r="AA90" s="4"/>
     </row>
     <row r="91">
       <c r="A91" s="4"/>
@@ -2974,6 +3095,7 @@
       <c r="X91" s="4"/>
       <c r="Y91" s="4"/>
       <c r="Z91" s="4"/>
+      <c r="AA91" s="4"/>
     </row>
     <row r="92">
       <c r="A92" s="4"/>
@@ -3002,6 +3124,7 @@
       <c r="X92" s="4"/>
       <c r="Y92" s="4"/>
       <c r="Z92" s="4"/>
+      <c r="AA92" s="4"/>
     </row>
     <row r="93">
       <c r="A93" s="4"/>
@@ -3030,6 +3153,7 @@
       <c r="X93" s="4"/>
       <c r="Y93" s="4"/>
       <c r="Z93" s="4"/>
+      <c r="AA93" s="4"/>
     </row>
     <row r="94">
       <c r="A94" s="4"/>
@@ -3058,6 +3182,7 @@
       <c r="X94" s="4"/>
       <c r="Y94" s="4"/>
       <c r="Z94" s="4"/>
+      <c r="AA94" s="4"/>
     </row>
     <row r="95">
       <c r="A95" s="4"/>
@@ -3086,6 +3211,7 @@
       <c r="X95" s="4"/>
       <c r="Y95" s="4"/>
       <c r="Z95" s="4"/>
+      <c r="AA95" s="4"/>
     </row>
     <row r="96">
       <c r="A96" s="4"/>
@@ -3114,6 +3240,7 @@
       <c r="X96" s="4"/>
       <c r="Y96" s="4"/>
       <c r="Z96" s="4"/>
+      <c r="AA96" s="4"/>
     </row>
     <row r="97">
       <c r="A97" s="4"/>
@@ -3142,6 +3269,7 @@
       <c r="X97" s="4"/>
       <c r="Y97" s="4"/>
       <c r="Z97" s="4"/>
+      <c r="AA97" s="4"/>
     </row>
     <row r="98">
       <c r="A98" s="4"/>
@@ -3170,6 +3298,7 @@
       <c r="X98" s="4"/>
       <c r="Y98" s="4"/>
       <c r="Z98" s="4"/>
+      <c r="AA98" s="4"/>
     </row>
     <row r="99">
       <c r="A99" s="4"/>
@@ -3198,6 +3327,7 @@
       <c r="X99" s="4"/>
       <c r="Y99" s="4"/>
       <c r="Z99" s="4"/>
+      <c r="AA99" s="4"/>
     </row>
     <row r="100">
       <c r="A100" s="4"/>
@@ -3226,6 +3356,7 @@
       <c r="X100" s="4"/>
       <c r="Y100" s="4"/>
       <c r="Z100" s="4"/>
+      <c r="AA100" s="4"/>
     </row>
     <row r="101">
       <c r="A101" s="4"/>
@@ -3254,6 +3385,7 @@
       <c r="X101" s="4"/>
       <c r="Y101" s="4"/>
       <c r="Z101" s="4"/>
+      <c r="AA101" s="4"/>
     </row>
     <row r="102">
       <c r="A102" s="4"/>
@@ -3282,6 +3414,7 @@
       <c r="X102" s="4"/>
       <c r="Y102" s="4"/>
       <c r="Z102" s="4"/>
+      <c r="AA102" s="4"/>
     </row>
     <row r="103">
       <c r="A103" s="4"/>
@@ -3310,6 +3443,7 @@
       <c r="X103" s="4"/>
       <c r="Y103" s="4"/>
       <c r="Z103" s="4"/>
+      <c r="AA103" s="4"/>
     </row>
     <row r="104">
       <c r="A104" s="4"/>
@@ -3338,6 +3472,7 @@
       <c r="X104" s="4"/>
       <c r="Y104" s="4"/>
       <c r="Z104" s="4"/>
+      <c r="AA104" s="4"/>
     </row>
     <row r="105">
       <c r="A105" s="4"/>
@@ -3366,6 +3501,7 @@
       <c r="X105" s="4"/>
       <c r="Y105" s="4"/>
       <c r="Z105" s="4"/>
+      <c r="AA105" s="4"/>
     </row>
     <row r="106">
       <c r="A106" s="4"/>
@@ -3394,6 +3530,7 @@
       <c r="X106" s="4"/>
       <c r="Y106" s="4"/>
       <c r="Z106" s="4"/>
+      <c r="AA106" s="4"/>
     </row>
     <row r="107">
       <c r="A107" s="4"/>
@@ -3422,6 +3559,7 @@
       <c r="X107" s="4"/>
       <c r="Y107" s="4"/>
       <c r="Z107" s="4"/>
+      <c r="AA107" s="4"/>
     </row>
     <row r="108">
       <c r="A108" s="4"/>
@@ -3450,6 +3588,7 @@
       <c r="X108" s="4"/>
       <c r="Y108" s="4"/>
       <c r="Z108" s="4"/>
+      <c r="AA108" s="4"/>
     </row>
     <row r="109">
       <c r="A109" s="4"/>
@@ -3478,6 +3617,7 @@
       <c r="X109" s="4"/>
       <c r="Y109" s="4"/>
       <c r="Z109" s="4"/>
+      <c r="AA109" s="4"/>
     </row>
     <row r="110">
       <c r="A110" s="4"/>
@@ -3506,6 +3646,7 @@
       <c r="X110" s="4"/>
       <c r="Y110" s="4"/>
       <c r="Z110" s="4"/>
+      <c r="AA110" s="4"/>
     </row>
     <row r="111">
       <c r="A111" s="4"/>
@@ -3534,6 +3675,7 @@
       <c r="X111" s="4"/>
       <c r="Y111" s="4"/>
       <c r="Z111" s="4"/>
+      <c r="AA111" s="4"/>
     </row>
     <row r="112">
       <c r="A112" s="4"/>
@@ -3562,6 +3704,7 @@
       <c r="X112" s="4"/>
       <c r="Y112" s="4"/>
       <c r="Z112" s="4"/>
+      <c r="AA112" s="4"/>
     </row>
     <row r="113">
       <c r="A113" s="4"/>
@@ -3590,6 +3733,7 @@
       <c r="X113" s="4"/>
       <c r="Y113" s="4"/>
       <c r="Z113" s="4"/>
+      <c r="AA113" s="4"/>
     </row>
     <row r="114">
       <c r="A114" s="4"/>
@@ -3618,6 +3762,7 @@
       <c r="X114" s="4"/>
       <c r="Y114" s="4"/>
       <c r="Z114" s="4"/>
+      <c r="AA114" s="4"/>
     </row>
     <row r="115">
       <c r="A115" s="4"/>
@@ -3646,6 +3791,7 @@
       <c r="X115" s="4"/>
       <c r="Y115" s="4"/>
       <c r="Z115" s="4"/>
+      <c r="AA115" s="4"/>
     </row>
     <row r="116">
       <c r="A116" s="4"/>
@@ -3674,6 +3820,7 @@
       <c r="X116" s="4"/>
       <c r="Y116" s="4"/>
       <c r="Z116" s="4"/>
+      <c r="AA116" s="4"/>
     </row>
     <row r="117">
       <c r="A117" s="4"/>
@@ -3702,6 +3849,7 @@
       <c r="X117" s="4"/>
       <c r="Y117" s="4"/>
       <c r="Z117" s="4"/>
+      <c r="AA117" s="4"/>
     </row>
     <row r="118">
       <c r="A118" s="4"/>
@@ -3730,6 +3878,7 @@
       <c r="X118" s="4"/>
       <c r="Y118" s="4"/>
       <c r="Z118" s="4"/>
+      <c r="AA118" s="4"/>
     </row>
     <row r="119">
       <c r="A119" s="4"/>
@@ -3758,6 +3907,7 @@
       <c r="X119" s="4"/>
       <c r="Y119" s="4"/>
       <c r="Z119" s="4"/>
+      <c r="AA119" s="4"/>
     </row>
     <row r="120">
       <c r="A120" s="4"/>
@@ -3786,6 +3936,7 @@
       <c r="X120" s="4"/>
       <c r="Y120" s="4"/>
       <c r="Z120" s="4"/>
+      <c r="AA120" s="4"/>
     </row>
     <row r="121">
       <c r="A121" s="4"/>
@@ -3814,6 +3965,7 @@
       <c r="X121" s="4"/>
       <c r="Y121" s="4"/>
       <c r="Z121" s="4"/>
+      <c r="AA121" s="4"/>
     </row>
     <row r="122">
       <c r="A122" s="4"/>
@@ -3842,6 +3994,7 @@
       <c r="X122" s="4"/>
       <c r="Y122" s="4"/>
       <c r="Z122" s="4"/>
+      <c r="AA122" s="4"/>
     </row>
     <row r="123">
       <c r="A123" s="4"/>
@@ -3870,6 +4023,7 @@
       <c r="X123" s="4"/>
       <c r="Y123" s="4"/>
       <c r="Z123" s="4"/>
+      <c r="AA123" s="4"/>
     </row>
     <row r="124">
       <c r="A124" s="4"/>
@@ -3898,6 +4052,7 @@
       <c r="X124" s="4"/>
       <c r="Y124" s="4"/>
       <c r="Z124" s="4"/>
+      <c r="AA124" s="4"/>
     </row>
     <row r="125">
       <c r="A125" s="4"/>
@@ -3926,6 +4081,7 @@
       <c r="X125" s="4"/>
       <c r="Y125" s="4"/>
       <c r="Z125" s="4"/>
+      <c r="AA125" s="4"/>
     </row>
     <row r="126">
       <c r="A126" s="4"/>
@@ -3954,6 +4110,7 @@
       <c r="X126" s="4"/>
       <c r="Y126" s="4"/>
       <c r="Z126" s="4"/>
+      <c r="AA126" s="4"/>
     </row>
     <row r="127">
       <c r="A127" s="4"/>
@@ -3982,6 +4139,7 @@
       <c r="X127" s="4"/>
       <c r="Y127" s="4"/>
       <c r="Z127" s="4"/>
+      <c r="AA127" s="4"/>
     </row>
     <row r="128">
       <c r="A128" s="4"/>
@@ -4010,6 +4168,7 @@
       <c r="X128" s="4"/>
       <c r="Y128" s="4"/>
       <c r="Z128" s="4"/>
+      <c r="AA128" s="4"/>
     </row>
     <row r="129">
       <c r="A129" s="4"/>
@@ -4038,6 +4197,7 @@
       <c r="X129" s="4"/>
       <c r="Y129" s="4"/>
       <c r="Z129" s="4"/>
+      <c r="AA129" s="4"/>
     </row>
     <row r="130">
       <c r="A130" s="4"/>
@@ -4066,6 +4226,7 @@
       <c r="X130" s="4"/>
       <c r="Y130" s="4"/>
       <c r="Z130" s="4"/>
+      <c r="AA130" s="4"/>
     </row>
     <row r="131">
       <c r="A131" s="4"/>
@@ -4094,6 +4255,7 @@
       <c r="X131" s="4"/>
       <c r="Y131" s="4"/>
       <c r="Z131" s="4"/>
+      <c r="AA131" s="4"/>
     </row>
     <row r="132">
       <c r="A132" s="4"/>
@@ -4122,6 +4284,7 @@
       <c r="X132" s="4"/>
       <c r="Y132" s="4"/>
       <c r="Z132" s="4"/>
+      <c r="AA132" s="4"/>
     </row>
     <row r="133">
       <c r="A133" s="4"/>
@@ -4150,6 +4313,7 @@
       <c r="X133" s="4"/>
       <c r="Y133" s="4"/>
       <c r="Z133" s="4"/>
+      <c r="AA133" s="4"/>
     </row>
     <row r="134">
       <c r="A134" s="4"/>
@@ -4178,6 +4342,7 @@
       <c r="X134" s="4"/>
       <c r="Y134" s="4"/>
       <c r="Z134" s="4"/>
+      <c r="AA134" s="4"/>
     </row>
     <row r="135">
       <c r="A135" s="4"/>
@@ -4206,6 +4371,7 @@
       <c r="X135" s="4"/>
       <c r="Y135" s="4"/>
       <c r="Z135" s="4"/>
+      <c r="AA135" s="4"/>
     </row>
     <row r="136">
       <c r="A136" s="4"/>
@@ -4234,6 +4400,7 @@
       <c r="X136" s="4"/>
       <c r="Y136" s="4"/>
       <c r="Z136" s="4"/>
+      <c r="AA136" s="4"/>
     </row>
     <row r="137">
       <c r="A137" s="4"/>
@@ -4262,6 +4429,7 @@
       <c r="X137" s="4"/>
       <c r="Y137" s="4"/>
       <c r="Z137" s="4"/>
+      <c r="AA137" s="4"/>
     </row>
     <row r="138">
       <c r="A138" s="4"/>
@@ -4290,6 +4458,7 @@
       <c r="X138" s="4"/>
       <c r="Y138" s="4"/>
       <c r="Z138" s="4"/>
+      <c r="AA138" s="4"/>
     </row>
     <row r="139">
       <c r="A139" s="4"/>
@@ -4318,6 +4487,7 @@
       <c r="X139" s="4"/>
       <c r="Y139" s="4"/>
       <c r="Z139" s="4"/>
+      <c r="AA139" s="4"/>
     </row>
     <row r="140">
       <c r="A140" s="4"/>
@@ -4346,6 +4516,7 @@
       <c r="X140" s="4"/>
       <c r="Y140" s="4"/>
       <c r="Z140" s="4"/>
+      <c r="AA140" s="4"/>
     </row>
     <row r="141">
       <c r="A141" s="4"/>
@@ -4374,6 +4545,7 @@
       <c r="X141" s="4"/>
       <c r="Y141" s="4"/>
       <c r="Z141" s="4"/>
+      <c r="AA141" s="4"/>
     </row>
     <row r="142">
       <c r="A142" s="4"/>
@@ -4402,6 +4574,7 @@
       <c r="X142" s="4"/>
       <c r="Y142" s="4"/>
       <c r="Z142" s="4"/>
+      <c r="AA142" s="4"/>
     </row>
     <row r="143">
       <c r="A143" s="4"/>
@@ -4430,6 +4603,7 @@
       <c r="X143" s="4"/>
       <c r="Y143" s="4"/>
       <c r="Z143" s="4"/>
+      <c r="AA143" s="4"/>
     </row>
     <row r="144">
       <c r="A144" s="4"/>
@@ -4458,6 +4632,7 @@
       <c r="X144" s="4"/>
       <c r="Y144" s="4"/>
       <c r="Z144" s="4"/>
+      <c r="AA144" s="4"/>
     </row>
     <row r="145">
       <c r="A145" s="4"/>
@@ -4486,6 +4661,7 @@
       <c r="X145" s="4"/>
       <c r="Y145" s="4"/>
       <c r="Z145" s="4"/>
+      <c r="AA145" s="4"/>
     </row>
     <row r="146">
       <c r="A146" s="4"/>
@@ -4514,6 +4690,7 @@
       <c r="X146" s="4"/>
       <c r="Y146" s="4"/>
       <c r="Z146" s="4"/>
+      <c r="AA146" s="4"/>
     </row>
     <row r="147">
       <c r="A147" s="4"/>
@@ -4542,6 +4719,7 @@
       <c r="X147" s="4"/>
       <c r="Y147" s="4"/>
       <c r="Z147" s="4"/>
+      <c r="AA147" s="4"/>
     </row>
     <row r="148">
       <c r="A148" s="4"/>
@@ -4570,6 +4748,7 @@
       <c r="X148" s="4"/>
       <c r="Y148" s="4"/>
       <c r="Z148" s="4"/>
+      <c r="AA148" s="4"/>
     </row>
     <row r="149">
       <c r="A149" s="4"/>
@@ -4598,6 +4777,7 @@
       <c r="X149" s="4"/>
       <c r="Y149" s="4"/>
       <c r="Z149" s="4"/>
+      <c r="AA149" s="4"/>
     </row>
     <row r="150">
       <c r="A150" s="4"/>
@@ -4626,6 +4806,7 @@
       <c r="X150" s="4"/>
       <c r="Y150" s="4"/>
       <c r="Z150" s="4"/>
+      <c r="AA150" s="4"/>
     </row>
     <row r="151">
       <c r="A151" s="4"/>
@@ -4654,6 +4835,7 @@
       <c r="X151" s="4"/>
       <c r="Y151" s="4"/>
       <c r="Z151" s="4"/>
+      <c r="AA151" s="4"/>
     </row>
     <row r="152">
       <c r="A152" s="4"/>
@@ -4682,6 +4864,7 @@
       <c r="X152" s="4"/>
       <c r="Y152" s="4"/>
       <c r="Z152" s="4"/>
+      <c r="AA152" s="4"/>
     </row>
     <row r="153">
       <c r="A153" s="4"/>
@@ -4710,6 +4893,7 @@
       <c r="X153" s="4"/>
       <c r="Y153" s="4"/>
       <c r="Z153" s="4"/>
+      <c r="AA153" s="4"/>
     </row>
     <row r="154">
       <c r="A154" s="4"/>
@@ -4738,6 +4922,7 @@
       <c r="X154" s="4"/>
       <c r="Y154" s="4"/>
       <c r="Z154" s="4"/>
+      <c r="AA154" s="4"/>
     </row>
     <row r="155">
       <c r="A155" s="4"/>
@@ -4766,6 +4951,7 @@
       <c r="X155" s="4"/>
       <c r="Y155" s="4"/>
       <c r="Z155" s="4"/>
+      <c r="AA155" s="4"/>
     </row>
     <row r="156">
       <c r="A156" s="4"/>
@@ -4794,6 +4980,7 @@
       <c r="X156" s="4"/>
       <c r="Y156" s="4"/>
       <c r="Z156" s="4"/>
+      <c r="AA156" s="4"/>
     </row>
     <row r="157">
       <c r="A157" s="4"/>
@@ -4822,6 +5009,7 @@
       <c r="X157" s="4"/>
       <c r="Y157" s="4"/>
       <c r="Z157" s="4"/>
+      <c r="AA157" s="4"/>
     </row>
     <row r="158">
       <c r="A158" s="4"/>
@@ -4850,6 +5038,7 @@
       <c r="X158" s="4"/>
       <c r="Y158" s="4"/>
       <c r="Z158" s="4"/>
+      <c r="AA158" s="4"/>
     </row>
     <row r="159">
       <c r="A159" s="4"/>
@@ -4878,6 +5067,7 @@
       <c r="X159" s="4"/>
       <c r="Y159" s="4"/>
       <c r="Z159" s="4"/>
+      <c r="AA159" s="4"/>
     </row>
     <row r="160">
       <c r="A160" s="4"/>
@@ -4906,6 +5096,7 @@
       <c r="X160" s="4"/>
       <c r="Y160" s="4"/>
       <c r="Z160" s="4"/>
+      <c r="AA160" s="4"/>
     </row>
     <row r="161">
       <c r="A161" s="4"/>
@@ -4934,6 +5125,7 @@
       <c r="X161" s="4"/>
       <c r="Y161" s="4"/>
       <c r="Z161" s="4"/>
+      <c r="AA161" s="4"/>
     </row>
     <row r="162">
       <c r="A162" s="4"/>
@@ -4962,6 +5154,7 @@
       <c r="X162" s="4"/>
       <c r="Y162" s="4"/>
       <c r="Z162" s="4"/>
+      <c r="AA162" s="4"/>
     </row>
     <row r="163">
       <c r="A163" s="4"/>
@@ -4990,6 +5183,7 @@
       <c r="X163" s="4"/>
       <c r="Y163" s="4"/>
       <c r="Z163" s="4"/>
+      <c r="AA163" s="4"/>
     </row>
     <row r="164">
       <c r="A164" s="4"/>
@@ -5018,6 +5212,7 @@
       <c r="X164" s="4"/>
       <c r="Y164" s="4"/>
       <c r="Z164" s="4"/>
+      <c r="AA164" s="4"/>
     </row>
     <row r="165">
       <c r="A165" s="4"/>
@@ -5046,6 +5241,7 @@
       <c r="X165" s="4"/>
       <c r="Y165" s="4"/>
       <c r="Z165" s="4"/>
+      <c r="AA165" s="4"/>
     </row>
     <row r="166">
       <c r="A166" s="4"/>
@@ -5074,6 +5270,7 @@
       <c r="X166" s="4"/>
       <c r="Y166" s="4"/>
       <c r="Z166" s="4"/>
+      <c r="AA166" s="4"/>
     </row>
     <row r="167">
       <c r="A167" s="4"/>
@@ -5102,6 +5299,7 @@
       <c r="X167" s="4"/>
       <c r="Y167" s="4"/>
       <c r="Z167" s="4"/>
+      <c r="AA167" s="4"/>
     </row>
     <row r="168">
       <c r="A168" s="4"/>
@@ -5130,6 +5328,7 @@
       <c r="X168" s="4"/>
       <c r="Y168" s="4"/>
       <c r="Z168" s="4"/>
+      <c r="AA168" s="4"/>
     </row>
     <row r="169">
       <c r="A169" s="4"/>
@@ -5158,6 +5357,7 @@
       <c r="X169" s="4"/>
       <c r="Y169" s="4"/>
       <c r="Z169" s="4"/>
+      <c r="AA169" s="4"/>
     </row>
     <row r="170">
       <c r="A170" s="4"/>
@@ -5186,6 +5386,7 @@
       <c r="X170" s="4"/>
       <c r="Y170" s="4"/>
       <c r="Z170" s="4"/>
+      <c r="AA170" s="4"/>
     </row>
     <row r="171">
       <c r="A171" s="4"/>
@@ -5214,6 +5415,7 @@
       <c r="X171" s="4"/>
       <c r="Y171" s="4"/>
       <c r="Z171" s="4"/>
+      <c r="AA171" s="4"/>
     </row>
     <row r="172">
       <c r="A172" s="4"/>
@@ -5242,6 +5444,7 @@
       <c r="X172" s="4"/>
       <c r="Y172" s="4"/>
       <c r="Z172" s="4"/>
+      <c r="AA172" s="4"/>
     </row>
     <row r="173">
       <c r="A173" s="4"/>
@@ -5270,6 +5473,7 @@
       <c r="X173" s="4"/>
       <c r="Y173" s="4"/>
       <c r="Z173" s="4"/>
+      <c r="AA173" s="4"/>
     </row>
     <row r="174">
       <c r="A174" s="4"/>
@@ -5298,6 +5502,7 @@
       <c r="X174" s="4"/>
       <c r="Y174" s="4"/>
       <c r="Z174" s="4"/>
+      <c r="AA174" s="4"/>
     </row>
     <row r="175">
       <c r="A175" s="4"/>
@@ -5326,6 +5531,7 @@
       <c r="X175" s="4"/>
       <c r="Y175" s="4"/>
       <c r="Z175" s="4"/>
+      <c r="AA175" s="4"/>
     </row>
     <row r="176">
       <c r="A176" s="4"/>
@@ -5354,6 +5560,7 @@
       <c r="X176" s="4"/>
       <c r="Y176" s="4"/>
       <c r="Z176" s="4"/>
+      <c r="AA176" s="4"/>
     </row>
     <row r="177">
       <c r="A177" s="4"/>
@@ -5382,6 +5589,7 @@
       <c r="X177" s="4"/>
       <c r="Y177" s="4"/>
       <c r="Z177" s="4"/>
+      <c r="AA177" s="4"/>
     </row>
     <row r="178">
       <c r="A178" s="4"/>
@@ -5410,6 +5618,7 @@
       <c r="X178" s="4"/>
       <c r="Y178" s="4"/>
       <c r="Z178" s="4"/>
+      <c r="AA178" s="4"/>
     </row>
     <row r="179">
       <c r="A179" s="4"/>
@@ -5438,6 +5647,7 @@
       <c r="X179" s="4"/>
       <c r="Y179" s="4"/>
       <c r="Z179" s="4"/>
+      <c r="AA179" s="4"/>
     </row>
     <row r="180">
       <c r="A180" s="4"/>
@@ -5466,6 +5676,7 @@
       <c r="X180" s="4"/>
       <c r="Y180" s="4"/>
       <c r="Z180" s="4"/>
+      <c r="AA180" s="4"/>
     </row>
     <row r="181">
       <c r="A181" s="4"/>
@@ -5494,6 +5705,7 @@
       <c r="X181" s="4"/>
       <c r="Y181" s="4"/>
       <c r="Z181" s="4"/>
+      <c r="AA181" s="4"/>
     </row>
     <row r="182">
       <c r="A182" s="4"/>
@@ -5522,6 +5734,7 @@
       <c r="X182" s="4"/>
       <c r="Y182" s="4"/>
       <c r="Z182" s="4"/>
+      <c r="AA182" s="4"/>
     </row>
     <row r="183">
       <c r="A183" s="4"/>
@@ -5550,6 +5763,7 @@
       <c r="X183" s="4"/>
       <c r="Y183" s="4"/>
       <c r="Z183" s="4"/>
+      <c r="AA183" s="4"/>
     </row>
     <row r="184">
       <c r="A184" s="4"/>
@@ -5578,6 +5792,7 @@
       <c r="X184" s="4"/>
       <c r="Y184" s="4"/>
       <c r="Z184" s="4"/>
+      <c r="AA184" s="4"/>
     </row>
     <row r="185">
       <c r="A185" s="4"/>
@@ -5606,6 +5821,7 @@
       <c r="X185" s="4"/>
       <c r="Y185" s="4"/>
       <c r="Z185" s="4"/>
+      <c r="AA185" s="4"/>
     </row>
     <row r="186">
       <c r="A186" s="4"/>
@@ -5634,6 +5850,7 @@
       <c r="X186" s="4"/>
       <c r="Y186" s="4"/>
       <c r="Z186" s="4"/>
+      <c r="AA186" s="4"/>
     </row>
     <row r="187">
       <c r="A187" s="4"/>
@@ -5662,6 +5879,7 @@
       <c r="X187" s="4"/>
       <c r="Y187" s="4"/>
       <c r="Z187" s="4"/>
+      <c r="AA187" s="4"/>
     </row>
     <row r="188">
       <c r="A188" s="4"/>
@@ -5690,6 +5908,7 @@
       <c r="X188" s="4"/>
       <c r="Y188" s="4"/>
       <c r="Z188" s="4"/>
+      <c r="AA188" s="4"/>
     </row>
     <row r="189">
       <c r="A189" s="4"/>
@@ -5718,6 +5937,7 @@
       <c r="X189" s="4"/>
       <c r="Y189" s="4"/>
       <c r="Z189" s="4"/>
+      <c r="AA189" s="4"/>
     </row>
     <row r="190">
       <c r="A190" s="4"/>
@@ -5746,6 +5966,7 @@
       <c r="X190" s="4"/>
       <c r="Y190" s="4"/>
       <c r="Z190" s="4"/>
+      <c r="AA190" s="4"/>
     </row>
     <row r="191">
       <c r="A191" s="4"/>
@@ -5774,6 +5995,7 @@
       <c r="X191" s="4"/>
       <c r="Y191" s="4"/>
       <c r="Z191" s="4"/>
+      <c r="AA191" s="4"/>
     </row>
     <row r="192">
       <c r="A192" s="4"/>
@@ -5802,6 +6024,7 @@
       <c r="X192" s="4"/>
       <c r="Y192" s="4"/>
       <c r="Z192" s="4"/>
+      <c r="AA192" s="4"/>
     </row>
     <row r="193">
       <c r="A193" s="4"/>
@@ -5830,6 +6053,7 @@
       <c r="X193" s="4"/>
       <c r="Y193" s="4"/>
       <c r="Z193" s="4"/>
+      <c r="AA193" s="4"/>
     </row>
     <row r="194">
       <c r="A194" s="4"/>
@@ -5858,6 +6082,7 @@
       <c r="X194" s="4"/>
       <c r="Y194" s="4"/>
       <c r="Z194" s="4"/>
+      <c r="AA194" s="4"/>
     </row>
     <row r="195">
       <c r="A195" s="4"/>
@@ -5886,6 +6111,7 @@
       <c r="X195" s="4"/>
       <c r="Y195" s="4"/>
       <c r="Z195" s="4"/>
+      <c r="AA195" s="4"/>
     </row>
     <row r="196">
       <c r="A196" s="4"/>
@@ -5914,6 +6140,7 @@
       <c r="X196" s="4"/>
       <c r="Y196" s="4"/>
       <c r="Z196" s="4"/>
+      <c r="AA196" s="4"/>
     </row>
     <row r="197">
       <c r="A197" s="4"/>
@@ -5942,6 +6169,7 @@
       <c r="X197" s="4"/>
       <c r="Y197" s="4"/>
       <c r="Z197" s="4"/>
+      <c r="AA197" s="4"/>
     </row>
     <row r="198">
       <c r="A198" s="4"/>
@@ -5970,6 +6198,7 @@
       <c r="X198" s="4"/>
       <c r="Y198" s="4"/>
       <c r="Z198" s="4"/>
+      <c r="AA198" s="4"/>
     </row>
     <row r="199">
       <c r="A199" s="4"/>
@@ -5998,6 +6227,7 @@
       <c r="X199" s="4"/>
       <c r="Y199" s="4"/>
       <c r="Z199" s="4"/>
+      <c r="AA199" s="4"/>
     </row>
     <row r="200">
       <c r="A200" s="4"/>
@@ -6026,6 +6256,7 @@
       <c r="X200" s="4"/>
       <c r="Y200" s="4"/>
       <c r="Z200" s="4"/>
+      <c r="AA200" s="4"/>
     </row>
     <row r="201">
       <c r="A201" s="4"/>
@@ -6054,6 +6285,7 @@
       <c r="X201" s="4"/>
       <c r="Y201" s="4"/>
       <c r="Z201" s="4"/>
+      <c r="AA201" s="4"/>
     </row>
     <row r="202">
       <c r="A202" s="4"/>
@@ -6082,6 +6314,7 @@
       <c r="X202" s="4"/>
       <c r="Y202" s="4"/>
       <c r="Z202" s="4"/>
+      <c r="AA202" s="4"/>
     </row>
     <row r="203">
       <c r="A203" s="4"/>
@@ -6110,6 +6343,7 @@
       <c r="X203" s="4"/>
       <c r="Y203" s="4"/>
       <c r="Z203" s="4"/>
+      <c r="AA203" s="4"/>
     </row>
     <row r="204">
       <c r="A204" s="4"/>
@@ -6138,6 +6372,7 @@
       <c r="X204" s="4"/>
       <c r="Y204" s="4"/>
       <c r="Z204" s="4"/>
+      <c r="AA204" s="4"/>
     </row>
     <row r="205">
       <c r="A205" s="4"/>
@@ -6166,6 +6401,7 @@
       <c r="X205" s="4"/>
       <c r="Y205" s="4"/>
       <c r="Z205" s="4"/>
+      <c r="AA205" s="4"/>
     </row>
     <row r="206">
       <c r="A206" s="4"/>
@@ -6194,6 +6430,7 @@
       <c r="X206" s="4"/>
       <c r="Y206" s="4"/>
       <c r="Z206" s="4"/>
+      <c r="AA206" s="4"/>
     </row>
     <row r="207">
       <c r="A207" s="4"/>
@@ -6222,6 +6459,7 @@
       <c r="X207" s="4"/>
       <c r="Y207" s="4"/>
       <c r="Z207" s="4"/>
+      <c r="AA207" s="4"/>
     </row>
     <row r="208">
       <c r="A208" s="4"/>
@@ -6250,6 +6488,7 @@
       <c r="X208" s="4"/>
       <c r="Y208" s="4"/>
       <c r="Z208" s="4"/>
+      <c r="AA208" s="4"/>
     </row>
     <row r="209">
       <c r="A209" s="4"/>
@@ -6278,6 +6517,7 @@
       <c r="X209" s="4"/>
       <c r="Y209" s="4"/>
       <c r="Z209" s="4"/>
+      <c r="AA209" s="4"/>
     </row>
     <row r="210">
       <c r="A210" s="4"/>
@@ -6306,6 +6546,7 @@
       <c r="X210" s="4"/>
       <c r="Y210" s="4"/>
       <c r="Z210" s="4"/>
+      <c r="AA210" s="4"/>
     </row>
     <row r="211">
       <c r="A211" s="4"/>
@@ -6334,6 +6575,7 @@
       <c r="X211" s="4"/>
       <c r="Y211" s="4"/>
       <c r="Z211" s="4"/>
+      <c r="AA211" s="4"/>
     </row>
     <row r="212">
       <c r="A212" s="4"/>
@@ -6362,6 +6604,7 @@
       <c r="X212" s="4"/>
       <c r="Y212" s="4"/>
       <c r="Z212" s="4"/>
+      <c r="AA212" s="4"/>
     </row>
     <row r="213">
       <c r="A213" s="4"/>
@@ -6390,6 +6633,7 @@
       <c r="X213" s="4"/>
       <c r="Y213" s="4"/>
       <c r="Z213" s="4"/>
+      <c r="AA213" s="4"/>
     </row>
     <row r="214">
       <c r="A214" s="4"/>
@@ -6418,6 +6662,7 @@
       <c r="X214" s="4"/>
       <c r="Y214" s="4"/>
       <c r="Z214" s="4"/>
+      <c r="AA214" s="4"/>
     </row>
     <row r="215">
       <c r="A215" s="4"/>
@@ -6446,6 +6691,7 @@
       <c r="X215" s="4"/>
       <c r="Y215" s="4"/>
       <c r="Z215" s="4"/>
+      <c r="AA215" s="4"/>
     </row>
     <row r="216">
       <c r="A216" s="4"/>
@@ -6474,6 +6720,7 @@
       <c r="X216" s="4"/>
       <c r="Y216" s="4"/>
       <c r="Z216" s="4"/>
+      <c r="AA216" s="4"/>
     </row>
     <row r="217">
       <c r="A217" s="4"/>
@@ -6502,6 +6749,7 @@
       <c r="X217" s="4"/>
       <c r="Y217" s="4"/>
       <c r="Z217" s="4"/>
+      <c r="AA217" s="4"/>
     </row>
     <row r="218">
       <c r="A218" s="4"/>
@@ -6530,6 +6778,7 @@
       <c r="X218" s="4"/>
       <c r="Y218" s="4"/>
       <c r="Z218" s="4"/>
+      <c r="AA218" s="4"/>
     </row>
     <row r="219">
       <c r="A219" s="4"/>
@@ -6558,6 +6807,7 @@
       <c r="X219" s="4"/>
       <c r="Y219" s="4"/>
       <c r="Z219" s="4"/>
+      <c r="AA219" s="4"/>
     </row>
     <row r="220">
       <c r="A220" s="4"/>
@@ -6586,6 +6836,7 @@
       <c r="X220" s="4"/>
       <c r="Y220" s="4"/>
       <c r="Z220" s="4"/>
+      <c r="AA220" s="4"/>
     </row>
     <row r="221">
       <c r="A221" s="4"/>
@@ -6614,6 +6865,7 @@
       <c r="X221" s="4"/>
       <c r="Y221" s="4"/>
       <c r="Z221" s="4"/>
+      <c r="AA221" s="4"/>
     </row>
     <row r="222">
       <c r="A222" s="4"/>
@@ -6642,6 +6894,7 @@
       <c r="X222" s="4"/>
       <c r="Y222" s="4"/>
       <c r="Z222" s="4"/>
+      <c r="AA222" s="4"/>
     </row>
     <row r="223">
       <c r="A223" s="4"/>
@@ -6670,6 +6923,7 @@
       <c r="X223" s="4"/>
       <c r="Y223" s="4"/>
       <c r="Z223" s="4"/>
+      <c r="AA223" s="4"/>
     </row>
     <row r="224">
       <c r="A224" s="4"/>
@@ -6698,6 +6952,7 @@
       <c r="X224" s="4"/>
       <c r="Y224" s="4"/>
       <c r="Z224" s="4"/>
+      <c r="AA224" s="4"/>
     </row>
     <row r="225">
       <c r="A225" s="4"/>
@@ -6726,6 +6981,7 @@
       <c r="X225" s="4"/>
       <c r="Y225" s="4"/>
       <c r="Z225" s="4"/>
+      <c r="AA225" s="4"/>
     </row>
     <row r="226">
       <c r="A226" s="4"/>
@@ -6754,6 +7010,7 @@
       <c r="X226" s="4"/>
       <c r="Y226" s="4"/>
       <c r="Z226" s="4"/>
+      <c r="AA226" s="4"/>
     </row>
     <row r="227">
       <c r="A227" s="4"/>
@@ -6782,6 +7039,7 @@
       <c r="X227" s="4"/>
       <c r="Y227" s="4"/>
       <c r="Z227" s="4"/>
+      <c r="AA227" s="4"/>
     </row>
     <row r="228">
       <c r="A228" s="4"/>
@@ -6810,6 +7068,7 @@
       <c r="X228" s="4"/>
       <c r="Y228" s="4"/>
       <c r="Z228" s="4"/>
+      <c r="AA228" s="4"/>
     </row>
     <row r="229">
       <c r="A229" s="4"/>
@@ -6838,6 +7097,7 @@
       <c r="X229" s="4"/>
       <c r="Y229" s="4"/>
       <c r="Z229" s="4"/>
+      <c r="AA229" s="4"/>
     </row>
     <row r="230">
       <c r="A230" s="4"/>
@@ -6866,6 +7126,7 @@
       <c r="X230" s="4"/>
       <c r="Y230" s="4"/>
       <c r="Z230" s="4"/>
+      <c r="AA230" s="4"/>
     </row>
     <row r="231">
       <c r="A231" s="4"/>
@@ -6894,6 +7155,7 @@
       <c r="X231" s="4"/>
       <c r="Y231" s="4"/>
       <c r="Z231" s="4"/>
+      <c r="AA231" s="4"/>
     </row>
     <row r="232">
       <c r="A232" s="4"/>
@@ -6922,6 +7184,7 @@
       <c r="X232" s="4"/>
       <c r="Y232" s="4"/>
       <c r="Z232" s="4"/>
+      <c r="AA232" s="4"/>
     </row>
     <row r="233">
       <c r="A233" s="4"/>
@@ -6950,6 +7213,7 @@
       <c r="X233" s="4"/>
       <c r="Y233" s="4"/>
       <c r="Z233" s="4"/>
+      <c r="AA233" s="4"/>
     </row>
     <row r="234">
       <c r="A234" s="4"/>
@@ -6978,6 +7242,7 @@
       <c r="X234" s="4"/>
       <c r="Y234" s="4"/>
       <c r="Z234" s="4"/>
+      <c r="AA234" s="4"/>
     </row>
     <row r="235">
       <c r="A235" s="4"/>
@@ -7006,6 +7271,7 @@
       <c r="X235" s="4"/>
       <c r="Y235" s="4"/>
       <c r="Z235" s="4"/>
+      <c r="AA235" s="4"/>
     </row>
     <row r="236">
       <c r="A236" s="4"/>
@@ -7034,6 +7300,7 @@
       <c r="X236" s="4"/>
       <c r="Y236" s="4"/>
       <c r="Z236" s="4"/>
+      <c r="AA236" s="4"/>
     </row>
     <row r="237">
       <c r="A237" s="4"/>
@@ -7062,6 +7329,7 @@
       <c r="X237" s="4"/>
       <c r="Y237" s="4"/>
       <c r="Z237" s="4"/>
+      <c r="AA237" s="4"/>
     </row>
     <row r="238">
       <c r="A238" s="4"/>
@@ -7090,6 +7358,7 @@
       <c r="X238" s="4"/>
       <c r="Y238" s="4"/>
       <c r="Z238" s="4"/>
+      <c r="AA238" s="4"/>
     </row>
     <row r="239">
       <c r="A239" s="4"/>
@@ -7118,6 +7387,7 @@
       <c r="X239" s="4"/>
       <c r="Y239" s="4"/>
       <c r="Z239" s="4"/>
+      <c r="AA239" s="4"/>
     </row>
     <row r="240">
       <c r="A240" s="4"/>
@@ -7146,6 +7416,7 @@
       <c r="X240" s="4"/>
       <c r="Y240" s="4"/>
       <c r="Z240" s="4"/>
+      <c r="AA240" s="4"/>
     </row>
     <row r="241">
       <c r="A241" s="4"/>
@@ -7174,6 +7445,7 @@
       <c r="X241" s="4"/>
       <c r="Y241" s="4"/>
       <c r="Z241" s="4"/>
+      <c r="AA241" s="4"/>
     </row>
     <row r="242">
       <c r="A242" s="4"/>
@@ -7202,6 +7474,7 @@
       <c r="X242" s="4"/>
       <c r="Y242" s="4"/>
       <c r="Z242" s="4"/>
+      <c r="AA242" s="4"/>
     </row>
     <row r="243">
       <c r="A243" s="4"/>
@@ -7230,6 +7503,7 @@
       <c r="X243" s="4"/>
       <c r="Y243" s="4"/>
       <c r="Z243" s="4"/>
+      <c r="AA243" s="4"/>
     </row>
     <row r="244">
       <c r="A244" s="4"/>
@@ -7258,6 +7532,7 @@
       <c r="X244" s="4"/>
       <c r="Y244" s="4"/>
       <c r="Z244" s="4"/>
+      <c r="AA244" s="4"/>
     </row>
     <row r="245">
       <c r="A245" s="4"/>
@@ -7286,6 +7561,7 @@
       <c r="X245" s="4"/>
       <c r="Y245" s="4"/>
       <c r="Z245" s="4"/>
+      <c r="AA245" s="4"/>
     </row>
     <row r="246">
       <c r="A246" s="4"/>
@@ -7314,6 +7590,7 @@
       <c r="X246" s="4"/>
       <c r="Y246" s="4"/>
       <c r="Z246" s="4"/>
+      <c r="AA246" s="4"/>
     </row>
     <row r="247">
       <c r="A247" s="4"/>
@@ -7342,6 +7619,7 @@
       <c r="X247" s="4"/>
       <c r="Y247" s="4"/>
       <c r="Z247" s="4"/>
+      <c r="AA247" s="4"/>
     </row>
     <row r="248">
       <c r="A248" s="4"/>
@@ -7370,6 +7648,7 @@
       <c r="X248" s="4"/>
       <c r="Y248" s="4"/>
       <c r="Z248" s="4"/>
+      <c r="AA248" s="4"/>
     </row>
     <row r="249">
       <c r="A249" s="4"/>
@@ -7398,6 +7677,7 @@
       <c r="X249" s="4"/>
       <c r="Y249" s="4"/>
       <c r="Z249" s="4"/>
+      <c r="AA249" s="4"/>
     </row>
     <row r="250">
       <c r="A250" s="4"/>
@@ -7426,6 +7706,7 @@
       <c r="X250" s="4"/>
       <c r="Y250" s="4"/>
       <c r="Z250" s="4"/>
+      <c r="AA250" s="4"/>
     </row>
     <row r="251">
       <c r="A251" s="4"/>
@@ -7454,6 +7735,7 @@
       <c r="X251" s="4"/>
       <c r="Y251" s="4"/>
       <c r="Z251" s="4"/>
+      <c r="AA251" s="4"/>
     </row>
     <row r="252">
       <c r="A252" s="4"/>
@@ -7482,6 +7764,7 @@
       <c r="X252" s="4"/>
       <c r="Y252" s="4"/>
       <c r="Z252" s="4"/>
+      <c r="AA252" s="4"/>
     </row>
     <row r="253">
       <c r="A253" s="4"/>
@@ -7510,6 +7793,7 @@
       <c r="X253" s="4"/>
       <c r="Y253" s="4"/>
       <c r="Z253" s="4"/>
+      <c r="AA253" s="4"/>
     </row>
     <row r="254">
       <c r="A254" s="4"/>
@@ -7538,6 +7822,7 @@
       <c r="X254" s="4"/>
       <c r="Y254" s="4"/>
       <c r="Z254" s="4"/>
+      <c r="AA254" s="4"/>
     </row>
     <row r="255">
       <c r="A255" s="4"/>
@@ -7566,6 +7851,7 @@
       <c r="X255" s="4"/>
       <c r="Y255" s="4"/>
       <c r="Z255" s="4"/>
+      <c r="AA255" s="4"/>
     </row>
     <row r="256">
       <c r="A256" s="4"/>
@@ -7594,6 +7880,7 @@
       <c r="X256" s="4"/>
       <c r="Y256" s="4"/>
       <c r="Z256" s="4"/>
+      <c r="AA256" s="4"/>
     </row>
     <row r="257">
       <c r="A257" s="4"/>
@@ -7622,6 +7909,7 @@
       <c r="X257" s="4"/>
       <c r="Y257" s="4"/>
       <c r="Z257" s="4"/>
+      <c r="AA257" s="4"/>
     </row>
     <row r="258">
       <c r="A258" s="4"/>
@@ -7650,6 +7938,7 @@
       <c r="X258" s="4"/>
       <c r="Y258" s="4"/>
       <c r="Z258" s="4"/>
+      <c r="AA258" s="4"/>
     </row>
     <row r="259">
       <c r="A259" s="4"/>
@@ -7678,6 +7967,7 @@
       <c r="X259" s="4"/>
       <c r="Y259" s="4"/>
       <c r="Z259" s="4"/>
+      <c r="AA259" s="4"/>
     </row>
     <row r="260">
       <c r="A260" s="4"/>
@@ -7706,6 +7996,7 @@
       <c r="X260" s="4"/>
       <c r="Y260" s="4"/>
       <c r="Z260" s="4"/>
+      <c r="AA260" s="4"/>
     </row>
     <row r="261">
       <c r="A261" s="4"/>
@@ -7734,6 +8025,7 @@
       <c r="X261" s="4"/>
       <c r="Y261" s="4"/>
       <c r="Z261" s="4"/>
+      <c r="AA261" s="4"/>
     </row>
     <row r="262">
       <c r="A262" s="4"/>
@@ -7762,6 +8054,7 @@
       <c r="X262" s="4"/>
       <c r="Y262" s="4"/>
       <c r="Z262" s="4"/>
+      <c r="AA262" s="4"/>
     </row>
     <row r="263">
       <c r="A263" s="4"/>
@@ -7790,6 +8083,7 @@
       <c r="X263" s="4"/>
       <c r="Y263" s="4"/>
       <c r="Z263" s="4"/>
+      <c r="AA263" s="4"/>
     </row>
     <row r="264">
       <c r="A264" s="4"/>
@@ -7818,6 +8112,7 @@
       <c r="X264" s="4"/>
       <c r="Y264" s="4"/>
       <c r="Z264" s="4"/>
+      <c r="AA264" s="4"/>
     </row>
     <row r="265">
       <c r="A265" s="4"/>
@@ -7846,6 +8141,7 @@
       <c r="X265" s="4"/>
       <c r="Y265" s="4"/>
       <c r="Z265" s="4"/>
+      <c r="AA265" s="4"/>
     </row>
     <row r="266">
       <c r="A266" s="4"/>
@@ -7874,6 +8170,7 @@
       <c r="X266" s="4"/>
       <c r="Y266" s="4"/>
       <c r="Z266" s="4"/>
+      <c r="AA266" s="4"/>
     </row>
     <row r="267">
       <c r="A267" s="4"/>
@@ -7902,6 +8199,7 @@
       <c r="X267" s="4"/>
       <c r="Y267" s="4"/>
       <c r="Z267" s="4"/>
+      <c r="AA267" s="4"/>
     </row>
     <row r="268">
       <c r="A268" s="4"/>
@@ -7930,6 +8228,7 @@
       <c r="X268" s="4"/>
       <c r="Y268" s="4"/>
       <c r="Z268" s="4"/>
+      <c r="AA268" s="4"/>
     </row>
     <row r="269">
       <c r="A269" s="4"/>
@@ -7958,6 +8257,7 @@
       <c r="X269" s="4"/>
       <c r="Y269" s="4"/>
       <c r="Z269" s="4"/>
+      <c r="AA269" s="4"/>
     </row>
     <row r="270">
       <c r="A270" s="4"/>
@@ -7986,6 +8286,7 @@
       <c r="X270" s="4"/>
       <c r="Y270" s="4"/>
       <c r="Z270" s="4"/>
+      <c r="AA270" s="4"/>
     </row>
     <row r="271">
       <c r="A271" s="4"/>
@@ -8014,6 +8315,7 @@
       <c r="X271" s="4"/>
       <c r="Y271" s="4"/>
       <c r="Z271" s="4"/>
+      <c r="AA271" s="4"/>
     </row>
     <row r="272">
       <c r="A272" s="4"/>
@@ -8042,6 +8344,7 @@
       <c r="X272" s="4"/>
       <c r="Y272" s="4"/>
       <c r="Z272" s="4"/>
+      <c r="AA272" s="4"/>
     </row>
     <row r="273">
       <c r="A273" s="4"/>
@@ -8070,6 +8373,7 @@
       <c r="X273" s="4"/>
       <c r="Y273" s="4"/>
       <c r="Z273" s="4"/>
+      <c r="AA273" s="4"/>
     </row>
     <row r="274">
       <c r="A274" s="4"/>
@@ -8098,6 +8402,7 @@
       <c r="X274" s="4"/>
       <c r="Y274" s="4"/>
       <c r="Z274" s="4"/>
+      <c r="AA274" s="4"/>
     </row>
     <row r="275">
       <c r="A275" s="4"/>
@@ -8126,6 +8431,7 @@
       <c r="X275" s="4"/>
       <c r="Y275" s="4"/>
       <c r="Z275" s="4"/>
+      <c r="AA275" s="4"/>
     </row>
     <row r="276">
       <c r="A276" s="4"/>
@@ -8154,6 +8460,7 @@
       <c r="X276" s="4"/>
       <c r="Y276" s="4"/>
       <c r="Z276" s="4"/>
+      <c r="AA276" s="4"/>
     </row>
     <row r="277">
       <c r="A277" s="4"/>
@@ -8182,6 +8489,7 @@
       <c r="X277" s="4"/>
       <c r="Y277" s="4"/>
       <c r="Z277" s="4"/>
+      <c r="AA277" s="4"/>
     </row>
     <row r="278">
       <c r="A278" s="4"/>
@@ -8210,6 +8518,7 @@
       <c r="X278" s="4"/>
       <c r="Y278" s="4"/>
       <c r="Z278" s="4"/>
+      <c r="AA278" s="4"/>
     </row>
     <row r="279">
       <c r="A279" s="4"/>
@@ -8238,6 +8547,7 @@
       <c r="X279" s="4"/>
       <c r="Y279" s="4"/>
       <c r="Z279" s="4"/>
+      <c r="AA279" s="4"/>
     </row>
     <row r="280">
       <c r="A280" s="4"/>
@@ -8266,6 +8576,7 @@
       <c r="X280" s="4"/>
       <c r="Y280" s="4"/>
       <c r="Z280" s="4"/>
+      <c r="AA280" s="4"/>
     </row>
     <row r="281">
       <c r="A281" s="4"/>
@@ -8294,6 +8605,7 @@
       <c r="X281" s="4"/>
       <c r="Y281" s="4"/>
       <c r="Z281" s="4"/>
+      <c r="AA281" s="4"/>
     </row>
     <row r="282">
       <c r="A282" s="4"/>
@@ -8322,6 +8634,7 @@
       <c r="X282" s="4"/>
       <c r="Y282" s="4"/>
       <c r="Z282" s="4"/>
+      <c r="AA282" s="4"/>
     </row>
     <row r="283">
       <c r="A283" s="4"/>
@@ -8350,6 +8663,7 @@
       <c r="X283" s="4"/>
       <c r="Y283" s="4"/>
       <c r="Z283" s="4"/>
+      <c r="AA283" s="4"/>
     </row>
     <row r="284">
       <c r="A284" s="4"/>
@@ -8378,6 +8692,7 @@
       <c r="X284" s="4"/>
       <c r="Y284" s="4"/>
       <c r="Z284" s="4"/>
+      <c r="AA284" s="4"/>
     </row>
     <row r="285">
       <c r="A285" s="4"/>
@@ -8406,6 +8721,7 @@
       <c r="X285" s="4"/>
       <c r="Y285" s="4"/>
       <c r="Z285" s="4"/>
+      <c r="AA285" s="4"/>
     </row>
     <row r="286">
       <c r="A286" s="4"/>
@@ -8434,6 +8750,7 @@
       <c r="X286" s="4"/>
       <c r="Y286" s="4"/>
       <c r="Z286" s="4"/>
+      <c r="AA286" s="4"/>
     </row>
     <row r="287">
       <c r="A287" s="4"/>
@@ -8462,6 +8779,7 @@
       <c r="X287" s="4"/>
       <c r="Y287" s="4"/>
       <c r="Z287" s="4"/>
+      <c r="AA287" s="4"/>
     </row>
     <row r="288">
       <c r="A288" s="4"/>
@@ -8490,6 +8808,7 @@
       <c r="X288" s="4"/>
       <c r="Y288" s="4"/>
       <c r="Z288" s="4"/>
+      <c r="AA288" s="4"/>
     </row>
     <row r="289">
       <c r="A289" s="4"/>
@@ -8518,6 +8837,7 @@
       <c r="X289" s="4"/>
       <c r="Y289" s="4"/>
       <c r="Z289" s="4"/>
+      <c r="AA289" s="4"/>
     </row>
     <row r="290">
       <c r="A290" s="4"/>
@@ -8546,6 +8866,7 @@
       <c r="X290" s="4"/>
       <c r="Y290" s="4"/>
       <c r="Z290" s="4"/>
+      <c r="AA290" s="4"/>
     </row>
     <row r="291">
       <c r="A291" s="4"/>
@@ -8574,6 +8895,7 @@
       <c r="X291" s="4"/>
       <c r="Y291" s="4"/>
       <c r="Z291" s="4"/>
+      <c r="AA291" s="4"/>
     </row>
     <row r="292">
       <c r="A292" s="4"/>
@@ -8602,6 +8924,7 @@
       <c r="X292" s="4"/>
       <c r="Y292" s="4"/>
       <c r="Z292" s="4"/>
+      <c r="AA292" s="4"/>
     </row>
     <row r="293">
       <c r="A293" s="4"/>
@@ -8630,6 +8953,7 @@
       <c r="X293" s="4"/>
       <c r="Y293" s="4"/>
       <c r="Z293" s="4"/>
+      <c r="AA293" s="4"/>
     </row>
     <row r="294">
       <c r="A294" s="4"/>
@@ -8658,6 +8982,7 @@
       <c r="X294" s="4"/>
       <c r="Y294" s="4"/>
       <c r="Z294" s="4"/>
+      <c r="AA294" s="4"/>
     </row>
     <row r="295">
       <c r="A295" s="4"/>
@@ -8686,6 +9011,7 @@
       <c r="X295" s="4"/>
       <c r="Y295" s="4"/>
       <c r="Z295" s="4"/>
+      <c r="AA295" s="4"/>
     </row>
     <row r="296">
       <c r="A296" s="4"/>
@@ -8714,6 +9040,7 @@
       <c r="X296" s="4"/>
       <c r="Y296" s="4"/>
       <c r="Z296" s="4"/>
+      <c r="AA296" s="4"/>
     </row>
     <row r="297">
       <c r="A297" s="4"/>
@@ -8742,6 +9069,7 @@
       <c r="X297" s="4"/>
       <c r="Y297" s="4"/>
       <c r="Z297" s="4"/>
+      <c r="AA297" s="4"/>
     </row>
     <row r="298">
       <c r="A298" s="4"/>
@@ -8770,6 +9098,7 @@
       <c r="X298" s="4"/>
       <c r="Y298" s="4"/>
       <c r="Z298" s="4"/>
+      <c r="AA298" s="4"/>
     </row>
     <row r="299">
       <c r="A299" s="4"/>
@@ -8798,6 +9127,7 @@
       <c r="X299" s="4"/>
       <c r="Y299" s="4"/>
       <c r="Z299" s="4"/>
+      <c r="AA299" s="4"/>
     </row>
     <row r="300">
       <c r="A300" s="4"/>
@@ -8826,6 +9156,7 @@
       <c r="X300" s="4"/>
       <c r="Y300" s="4"/>
       <c r="Z300" s="4"/>
+      <c r="AA300" s="4"/>
     </row>
     <row r="301">
       <c r="A301" s="4"/>
@@ -8854,6 +9185,7 @@
       <c r="X301" s="4"/>
       <c r="Y301" s="4"/>
       <c r="Z301" s="4"/>
+      <c r="AA301" s="4"/>
     </row>
     <row r="302">
       <c r="A302" s="4"/>
@@ -8882,6 +9214,7 @@
       <c r="X302" s="4"/>
       <c r="Y302" s="4"/>
       <c r="Z302" s="4"/>
+      <c r="AA302" s="4"/>
     </row>
     <row r="303">
       <c r="A303" s="4"/>
@@ -8910,6 +9243,7 @@
       <c r="X303" s="4"/>
       <c r="Y303" s="4"/>
       <c r="Z303" s="4"/>
+      <c r="AA303" s="4"/>
     </row>
     <row r="304">
       <c r="A304" s="4"/>
@@ -8938,6 +9272,7 @@
       <c r="X304" s="4"/>
       <c r="Y304" s="4"/>
       <c r="Z304" s="4"/>
+      <c r="AA304" s="4"/>
     </row>
     <row r="305">
       <c r="A305" s="4"/>
@@ -8966,6 +9301,7 @@
       <c r="X305" s="4"/>
       <c r="Y305" s="4"/>
       <c r="Z305" s="4"/>
+      <c r="AA305" s="4"/>
     </row>
     <row r="306">
       <c r="A306" s="4"/>
@@ -8994,6 +9330,7 @@
       <c r="X306" s="4"/>
       <c r="Y306" s="4"/>
       <c r="Z306" s="4"/>
+      <c r="AA306" s="4"/>
     </row>
     <row r="307">
       <c r="A307" s="4"/>
@@ -9022,6 +9359,7 @@
       <c r="X307" s="4"/>
       <c r="Y307" s="4"/>
       <c r="Z307" s="4"/>
+      <c r="AA307" s="4"/>
     </row>
     <row r="308">
       <c r="A308" s="4"/>
@@ -9050,6 +9388,7 @@
       <c r="X308" s="4"/>
       <c r="Y308" s="4"/>
       <c r="Z308" s="4"/>
+      <c r="AA308" s="4"/>
     </row>
     <row r="309">
       <c r="A309" s="4"/>
@@ -9078,6 +9417,7 @@
       <c r="X309" s="4"/>
       <c r="Y309" s="4"/>
       <c r="Z309" s="4"/>
+      <c r="AA309" s="4"/>
     </row>
     <row r="310">
       <c r="A310" s="4"/>
@@ -9106,6 +9446,7 @@
       <c r="X310" s="4"/>
       <c r="Y310" s="4"/>
       <c r="Z310" s="4"/>
+      <c r="AA310" s="4"/>
     </row>
     <row r="311">
       <c r="A311" s="4"/>
@@ -9134,6 +9475,7 @@
       <c r="X311" s="4"/>
       <c r="Y311" s="4"/>
       <c r="Z311" s="4"/>
+      <c r="AA311" s="4"/>
     </row>
     <row r="312">
       <c r="A312" s="4"/>
@@ -9162,6 +9504,7 @@
       <c r="X312" s="4"/>
       <c r="Y312" s="4"/>
       <c r="Z312" s="4"/>
+      <c r="AA312" s="4"/>
     </row>
     <row r="313">
       <c r="A313" s="4"/>
@@ -9190,6 +9533,7 @@
       <c r="X313" s="4"/>
       <c r="Y313" s="4"/>
       <c r="Z313" s="4"/>
+      <c r="AA313" s="4"/>
     </row>
     <row r="314">
       <c r="A314" s="4"/>
@@ -9218,6 +9562,7 @@
       <c r="X314" s="4"/>
       <c r="Y314" s="4"/>
       <c r="Z314" s="4"/>
+      <c r="AA314" s="4"/>
     </row>
     <row r="315">
       <c r="A315" s="4"/>
@@ -9246,6 +9591,7 @@
       <c r="X315" s="4"/>
       <c r="Y315" s="4"/>
       <c r="Z315" s="4"/>
+      <c r="AA315" s="4"/>
     </row>
     <row r="316">
       <c r="A316" s="4"/>
@@ -9274,6 +9620,7 @@
       <c r="X316" s="4"/>
       <c r="Y316" s="4"/>
       <c r="Z316" s="4"/>
+      <c r="AA316" s="4"/>
     </row>
     <row r="317">
       <c r="A317" s="4"/>
@@ -9302,6 +9649,7 @@
       <c r="X317" s="4"/>
       <c r="Y317" s="4"/>
       <c r="Z317" s="4"/>
+      <c r="AA317" s="4"/>
     </row>
     <row r="318">
       <c r="A318" s="4"/>
@@ -9330,6 +9678,7 @@
       <c r="X318" s="4"/>
       <c r="Y318" s="4"/>
       <c r="Z318" s="4"/>
+      <c r="AA318" s="4"/>
     </row>
     <row r="319">
       <c r="A319" s="4"/>
@@ -9358,6 +9707,7 @@
       <c r="X319" s="4"/>
       <c r="Y319" s="4"/>
       <c r="Z319" s="4"/>
+      <c r="AA319" s="4"/>
     </row>
     <row r="320">
       <c r="A320" s="4"/>
@@ -9386,6 +9736,7 @@
       <c r="X320" s="4"/>
       <c r="Y320" s="4"/>
       <c r="Z320" s="4"/>
+      <c r="AA320" s="4"/>
     </row>
     <row r="321">
       <c r="A321" s="4"/>
@@ -9414,6 +9765,7 @@
       <c r="X321" s="4"/>
       <c r="Y321" s="4"/>
       <c r="Z321" s="4"/>
+      <c r="AA321" s="4"/>
     </row>
     <row r="322">
       <c r="A322" s="4"/>
@@ -9442,6 +9794,7 @@
       <c r="X322" s="4"/>
       <c r="Y322" s="4"/>
       <c r="Z322" s="4"/>
+      <c r="AA322" s="4"/>
     </row>
     <row r="323">
       <c r="A323" s="4"/>
@@ -9470,6 +9823,7 @@
       <c r="X323" s="4"/>
       <c r="Y323" s="4"/>
       <c r="Z323" s="4"/>
+      <c r="AA323" s="4"/>
     </row>
     <row r="324">
       <c r="A324" s="4"/>
@@ -9498,6 +9852,7 @@
       <c r="X324" s="4"/>
       <c r="Y324" s="4"/>
       <c r="Z324" s="4"/>
+      <c r="AA324" s="4"/>
     </row>
     <row r="325">
       <c r="A325" s="4"/>
@@ -9526,6 +9881,7 @@
       <c r="X325" s="4"/>
       <c r="Y325" s="4"/>
       <c r="Z325" s="4"/>
+      <c r="AA325" s="4"/>
     </row>
     <row r="326">
       <c r="A326" s="4"/>
@@ -9554,6 +9910,7 @@
       <c r="X326" s="4"/>
       <c r="Y326" s="4"/>
       <c r="Z326" s="4"/>
+      <c r="AA326" s="4"/>
     </row>
     <row r="327">
       <c r="A327" s="4"/>
@@ -9582,6 +9939,7 @@
       <c r="X327" s="4"/>
       <c r="Y327" s="4"/>
       <c r="Z327" s="4"/>
+      <c r="AA327" s="4"/>
     </row>
     <row r="328">
       <c r="A328" s="4"/>
@@ -9610,6 +9968,7 @@
       <c r="X328" s="4"/>
       <c r="Y328" s="4"/>
       <c r="Z328" s="4"/>
+      <c r="AA328" s="4"/>
     </row>
     <row r="329">
       <c r="A329" s="4"/>
@@ -9638,6 +9997,7 @@
       <c r="X329" s="4"/>
       <c r="Y329" s="4"/>
       <c r="Z329" s="4"/>
+      <c r="AA329" s="4"/>
     </row>
     <row r="330">
       <c r="A330" s="4"/>
@@ -9666,6 +10026,7 @@
       <c r="X330" s="4"/>
       <c r="Y330" s="4"/>
       <c r="Z330" s="4"/>
+      <c r="AA330" s="4"/>
     </row>
     <row r="331">
       <c r="A331" s="4"/>
@@ -9694,6 +10055,7 @@
       <c r="X331" s="4"/>
       <c r="Y331" s="4"/>
       <c r="Z331" s="4"/>
+      <c r="AA331" s="4"/>
     </row>
     <row r="332">
       <c r="A332" s="4"/>
@@ -9722,6 +10084,7 @@
       <c r="X332" s="4"/>
       <c r="Y332" s="4"/>
       <c r="Z332" s="4"/>
+      <c r="AA332" s="4"/>
     </row>
     <row r="333">
       <c r="A333" s="4"/>
@@ -9750,6 +10113,7 @@
       <c r="X333" s="4"/>
       <c r="Y333" s="4"/>
       <c r="Z333" s="4"/>
+      <c r="AA333" s="4"/>
     </row>
     <row r="334">
       <c r="A334" s="4"/>
@@ -9778,6 +10142,7 @@
       <c r="X334" s="4"/>
       <c r="Y334" s="4"/>
       <c r="Z334" s="4"/>
+      <c r="AA334" s="4"/>
     </row>
     <row r="335">
       <c r="A335" s="4"/>
@@ -9806,6 +10171,7 @@
       <c r="X335" s="4"/>
       <c r="Y335" s="4"/>
       <c r="Z335" s="4"/>
+      <c r="AA335" s="4"/>
     </row>
     <row r="336">
       <c r="A336" s="4"/>
@@ -9834,6 +10200,7 @@
       <c r="X336" s="4"/>
       <c r="Y336" s="4"/>
       <c r="Z336" s="4"/>
+      <c r="AA336" s="4"/>
     </row>
     <row r="337">
       <c r="A337" s="4"/>
@@ -9862,6 +10229,7 @@
       <c r="X337" s="4"/>
       <c r="Y337" s="4"/>
       <c r="Z337" s="4"/>
+      <c r="AA337" s="4"/>
     </row>
     <row r="338">
       <c r="A338" s="4"/>
@@ -9890,6 +10258,7 @@
       <c r="X338" s="4"/>
       <c r="Y338" s="4"/>
       <c r="Z338" s="4"/>
+      <c r="AA338" s="4"/>
     </row>
     <row r="339">
       <c r="A339" s="4"/>
@@ -9918,6 +10287,7 @@
       <c r="X339" s="4"/>
       <c r="Y339" s="4"/>
       <c r="Z339" s="4"/>
+      <c r="AA339" s="4"/>
     </row>
     <row r="340">
       <c r="A340" s="4"/>
@@ -9946,6 +10316,7 @@
       <c r="X340" s="4"/>
       <c r="Y340" s="4"/>
       <c r="Z340" s="4"/>
+      <c r="AA340" s="4"/>
     </row>
     <row r="341">
       <c r="A341" s="4"/>
@@ -9974,6 +10345,7 @@
       <c r="X341" s="4"/>
       <c r="Y341" s="4"/>
       <c r="Z341" s="4"/>
+      <c r="AA341" s="4"/>
     </row>
     <row r="342">
       <c r="A342" s="4"/>
@@ -10002,6 +10374,7 @@
       <c r="X342" s="4"/>
       <c r="Y342" s="4"/>
       <c r="Z342" s="4"/>
+      <c r="AA342" s="4"/>
     </row>
     <row r="343">
       <c r="A343" s="4"/>
@@ -10030,6 +10403,7 @@
       <c r="X343" s="4"/>
       <c r="Y343" s="4"/>
       <c r="Z343" s="4"/>
+      <c r="AA343" s="4"/>
     </row>
     <row r="344">
       <c r="A344" s="4"/>
@@ -10058,6 +10432,7 @@
       <c r="X344" s="4"/>
       <c r="Y344" s="4"/>
       <c r="Z344" s="4"/>
+      <c r="AA344" s="4"/>
     </row>
     <row r="345">
       <c r="A345" s="4"/>
@@ -10086,6 +10461,7 @@
       <c r="X345" s="4"/>
       <c r="Y345" s="4"/>
       <c r="Z345" s="4"/>
+      <c r="AA345" s="4"/>
     </row>
     <row r="346">
       <c r="A346" s="4"/>
@@ -10114,6 +10490,7 @@
       <c r="X346" s="4"/>
       <c r="Y346" s="4"/>
       <c r="Z346" s="4"/>
+      <c r="AA346" s="4"/>
     </row>
     <row r="347">
       <c r="A347" s="4"/>
@@ -10142,6 +10519,7 @@
       <c r="X347" s="4"/>
       <c r="Y347" s="4"/>
       <c r="Z347" s="4"/>
+      <c r="AA347" s="4"/>
     </row>
     <row r="348">
       <c r="A348" s="4"/>
@@ -10170,6 +10548,7 @@
       <c r="X348" s="4"/>
       <c r="Y348" s="4"/>
       <c r="Z348" s="4"/>
+      <c r="AA348" s="4"/>
     </row>
     <row r="349">
       <c r="A349" s="4"/>
@@ -10198,6 +10577,7 @@
       <c r="X349" s="4"/>
       <c r="Y349" s="4"/>
       <c r="Z349" s="4"/>
+      <c r="AA349" s="4"/>
     </row>
     <row r="350">
       <c r="A350" s="4"/>
@@ -10226,6 +10606,7 @@
       <c r="X350" s="4"/>
       <c r="Y350" s="4"/>
       <c r="Z350" s="4"/>
+      <c r="AA350" s="4"/>
     </row>
     <row r="351">
       <c r="A351" s="4"/>
@@ -10254,6 +10635,7 @@
       <c r="X351" s="4"/>
       <c r="Y351" s="4"/>
       <c r="Z351" s="4"/>
+      <c r="AA351" s="4"/>
     </row>
     <row r="352">
       <c r="A352" s="4"/>
@@ -10282,6 +10664,7 @@
       <c r="X352" s="4"/>
       <c r="Y352" s="4"/>
       <c r="Z352" s="4"/>
+      <c r="AA352" s="4"/>
     </row>
     <row r="353">
       <c r="A353" s="4"/>
@@ -10310,6 +10693,7 @@
       <c r="X353" s="4"/>
       <c r="Y353" s="4"/>
       <c r="Z353" s="4"/>
+      <c r="AA353" s="4"/>
     </row>
     <row r="354">
       <c r="A354" s="4"/>
@@ -10338,6 +10722,7 @@
       <c r="X354" s="4"/>
       <c r="Y354" s="4"/>
       <c r="Z354" s="4"/>
+      <c r="AA354" s="4"/>
     </row>
     <row r="355">
       <c r="A355" s="4"/>
@@ -10366,6 +10751,7 @@
       <c r="X355" s="4"/>
       <c r="Y355" s="4"/>
       <c r="Z355" s="4"/>
+      <c r="AA355" s="4"/>
     </row>
     <row r="356">
       <c r="A356" s="4"/>
@@ -10394,6 +10780,7 @@
       <c r="X356" s="4"/>
       <c r="Y356" s="4"/>
       <c r="Z356" s="4"/>
+      <c r="AA356" s="4"/>
     </row>
     <row r="357">
       <c r="A357" s="4"/>
@@ -10422,6 +10809,7 @@
       <c r="X357" s="4"/>
       <c r="Y357" s="4"/>
       <c r="Z357" s="4"/>
+      <c r="AA357" s="4"/>
     </row>
     <row r="358">
       <c r="A358" s="4"/>
@@ -10450,6 +10838,7 @@
       <c r="X358" s="4"/>
       <c r="Y358" s="4"/>
       <c r="Z358" s="4"/>
+      <c r="AA358" s="4"/>
     </row>
     <row r="359">
       <c r="A359" s="4"/>
@@ -10478,6 +10867,7 @@
       <c r="X359" s="4"/>
       <c r="Y359" s="4"/>
       <c r="Z359" s="4"/>
+      <c r="AA359" s="4"/>
     </row>
     <row r="360">
       <c r="A360" s="4"/>
@@ -10506,6 +10896,7 @@
       <c r="X360" s="4"/>
       <c r="Y360" s="4"/>
       <c r="Z360" s="4"/>
+      <c r="AA360" s="4"/>
     </row>
     <row r="361">
       <c r="A361" s="4"/>
@@ -10534,6 +10925,7 @@
       <c r="X361" s="4"/>
       <c r="Y361" s="4"/>
       <c r="Z361" s="4"/>
+      <c r="AA361" s="4"/>
     </row>
     <row r="362">
       <c r="A362" s="4"/>
@@ -10562,6 +10954,7 @@
       <c r="X362" s="4"/>
       <c r="Y362" s="4"/>
       <c r="Z362" s="4"/>
+      <c r="AA362" s="4"/>
     </row>
     <row r="363">
       <c r="A363" s="4"/>
@@ -10590,6 +10983,7 @@
       <c r="X363" s="4"/>
       <c r="Y363" s="4"/>
       <c r="Z363" s="4"/>
+      <c r="AA363" s="4"/>
     </row>
     <row r="364">
       <c r="A364" s="4"/>
@@ -10618,6 +11012,7 @@
       <c r="X364" s="4"/>
       <c r="Y364" s="4"/>
       <c r="Z364" s="4"/>
+      <c r="AA364" s="4"/>
     </row>
     <row r="365">
       <c r="A365" s="4"/>
@@ -10646,6 +11041,7 @@
       <c r="X365" s="4"/>
       <c r="Y365" s="4"/>
       <c r="Z365" s="4"/>
+      <c r="AA365" s="4"/>
     </row>
     <row r="366">
       <c r="A366" s="4"/>
@@ -10674,6 +11070,7 @@
       <c r="X366" s="4"/>
       <c r="Y366" s="4"/>
       <c r="Z366" s="4"/>
+      <c r="AA366" s="4"/>
     </row>
     <row r="367">
       <c r="A367" s="4"/>
@@ -10702,6 +11099,7 @@
       <c r="X367" s="4"/>
       <c r="Y367" s="4"/>
       <c r="Z367" s="4"/>
+      <c r="AA367" s="4"/>
     </row>
     <row r="368">
       <c r="A368" s="4"/>
@@ -10730,6 +11128,7 @@
       <c r="X368" s="4"/>
       <c r="Y368" s="4"/>
       <c r="Z368" s="4"/>
+      <c r="AA368" s="4"/>
     </row>
     <row r="369">
       <c r="A369" s="4"/>
@@ -10758,6 +11157,7 @@
       <c r="X369" s="4"/>
       <c r="Y369" s="4"/>
       <c r="Z369" s="4"/>
+      <c r="AA369" s="4"/>
     </row>
     <row r="370">
       <c r="A370" s="4"/>
@@ -10786,6 +11186,7 @@
       <c r="X370" s="4"/>
       <c r="Y370" s="4"/>
       <c r="Z370" s="4"/>
+      <c r="AA370" s="4"/>
     </row>
     <row r="371">
       <c r="A371" s="4"/>
@@ -10814,6 +11215,7 @@
       <c r="X371" s="4"/>
       <c r="Y371" s="4"/>
       <c r="Z371" s="4"/>
+      <c r="AA371" s="4"/>
     </row>
     <row r="372">
       <c r="A372" s="4"/>
@@ -10842,6 +11244,7 @@
       <c r="X372" s="4"/>
       <c r="Y372" s="4"/>
       <c r="Z372" s="4"/>
+      <c r="AA372" s="4"/>
     </row>
     <row r="373">
       <c r="A373" s="4"/>
@@ -10870,6 +11273,7 @@
       <c r="X373" s="4"/>
       <c r="Y373" s="4"/>
       <c r="Z373" s="4"/>
+      <c r="AA373" s="4"/>
     </row>
     <row r="374">
       <c r="A374" s="4"/>
@@ -10898,6 +11302,7 @@
       <c r="X374" s="4"/>
       <c r="Y374" s="4"/>
       <c r="Z374" s="4"/>
+      <c r="AA374" s="4"/>
     </row>
     <row r="375">
       <c r="A375" s="4"/>
@@ -10926,6 +11331,7 @@
       <c r="X375" s="4"/>
       <c r="Y375" s="4"/>
       <c r="Z375" s="4"/>
+      <c r="AA375" s="4"/>
     </row>
     <row r="376">
       <c r="A376" s="4"/>
@@ -10954,6 +11360,7 @@
       <c r="X376" s="4"/>
       <c r="Y376" s="4"/>
       <c r="Z376" s="4"/>
+      <c r="AA376" s="4"/>
     </row>
     <row r="377">
       <c r="A377" s="4"/>
@@ -10982,6 +11389,7 @@
       <c r="X377" s="4"/>
       <c r="Y377" s="4"/>
       <c r="Z377" s="4"/>
+      <c r="AA377" s="4"/>
     </row>
     <row r="378">
       <c r="A378" s="4"/>
@@ -11010,6 +11418,7 @@
       <c r="X378" s="4"/>
       <c r="Y378" s="4"/>
       <c r="Z378" s="4"/>
+      <c r="AA378" s="4"/>
     </row>
     <row r="379">
       <c r="A379" s="4"/>
@@ -11038,6 +11447,7 @@
       <c r="X379" s="4"/>
       <c r="Y379" s="4"/>
       <c r="Z379" s="4"/>
+      <c r="AA379" s="4"/>
     </row>
     <row r="380">
       <c r="A380" s="4"/>
@@ -11066,6 +11476,7 @@
       <c r="X380" s="4"/>
       <c r="Y380" s="4"/>
       <c r="Z380" s="4"/>
+      <c r="AA380" s="4"/>
     </row>
     <row r="381">
       <c r="A381" s="4"/>
@@ -11094,6 +11505,7 @@
       <c r="X381" s="4"/>
       <c r="Y381" s="4"/>
       <c r="Z381" s="4"/>
+      <c r="AA381" s="4"/>
     </row>
     <row r="382">
       <c r="A382" s="4"/>
@@ -11122,6 +11534,7 @@
       <c r="X382" s="4"/>
       <c r="Y382" s="4"/>
       <c r="Z382" s="4"/>
+      <c r="AA382" s="4"/>
     </row>
     <row r="383">
       <c r="A383" s="4"/>
@@ -11150,6 +11563,7 @@
       <c r="X383" s="4"/>
       <c r="Y383" s="4"/>
       <c r="Z383" s="4"/>
+      <c r="AA383" s="4"/>
     </row>
     <row r="384">
       <c r="A384" s="4"/>
@@ -11178,6 +11592,7 @@
       <c r="X384" s="4"/>
       <c r="Y384" s="4"/>
       <c r="Z384" s="4"/>
+      <c r="AA384" s="4"/>
     </row>
     <row r="385">
       <c r="A385" s="4"/>
@@ -11206,6 +11621,7 @@
       <c r="X385" s="4"/>
       <c r="Y385" s="4"/>
       <c r="Z385" s="4"/>
+      <c r="AA385" s="4"/>
     </row>
     <row r="386">
       <c r="A386" s="4"/>
@@ -11234,6 +11650,7 @@
       <c r="X386" s="4"/>
       <c r="Y386" s="4"/>
       <c r="Z386" s="4"/>
+      <c r="AA386" s="4"/>
     </row>
     <row r="387">
       <c r="A387" s="4"/>
@@ -11262,6 +11679,7 @@
       <c r="X387" s="4"/>
       <c r="Y387" s="4"/>
       <c r="Z387" s="4"/>
+      <c r="AA387" s="4"/>
     </row>
     <row r="388">
       <c r="A388" s="4"/>
@@ -11290,6 +11708,7 @@
       <c r="X388" s="4"/>
       <c r="Y388" s="4"/>
       <c r="Z388" s="4"/>
+      <c r="AA388" s="4"/>
     </row>
     <row r="389">
       <c r="A389" s="4"/>
@@ -11318,6 +11737,7 @@
       <c r="X389" s="4"/>
       <c r="Y389" s="4"/>
       <c r="Z389" s="4"/>
+      <c r="AA389" s="4"/>
     </row>
     <row r="390">
       <c r="A390" s="4"/>
@@ -11346,6 +11766,7 @@
       <c r="X390" s="4"/>
       <c r="Y390" s="4"/>
       <c r="Z390" s="4"/>
+      <c r="AA390" s="4"/>
     </row>
     <row r="391">
       <c r="A391" s="4"/>
@@ -11374,6 +11795,7 @@
       <c r="X391" s="4"/>
       <c r="Y391" s="4"/>
       <c r="Z391" s="4"/>
+      <c r="AA391" s="4"/>
     </row>
     <row r="392">
       <c r="A392" s="4"/>
@@ -11402,6 +11824,7 @@
       <c r="X392" s="4"/>
       <c r="Y392" s="4"/>
       <c r="Z392" s="4"/>
+      <c r="AA392" s="4"/>
     </row>
     <row r="393">
       <c r="A393" s="4"/>
@@ -11430,6 +11853,7 @@
       <c r="X393" s="4"/>
       <c r="Y393" s="4"/>
       <c r="Z393" s="4"/>
+      <c r="AA393" s="4"/>
     </row>
     <row r="394">
       <c r="A394" s="4"/>
@@ -11458,6 +11882,7 @@
       <c r="X394" s="4"/>
       <c r="Y394" s="4"/>
       <c r="Z394" s="4"/>
+      <c r="AA394" s="4"/>
     </row>
     <row r="395">
       <c r="A395" s="4"/>
@@ -11486,6 +11911,7 @@
       <c r="X395" s="4"/>
       <c r="Y395" s="4"/>
       <c r="Z395" s="4"/>
+      <c r="AA395" s="4"/>
     </row>
     <row r="396">
       <c r="A396" s="4"/>
@@ -11514,6 +11940,7 @@
       <c r="X396" s="4"/>
       <c r="Y396" s="4"/>
       <c r="Z396" s="4"/>
+      <c r="AA396" s="4"/>
     </row>
     <row r="397">
       <c r="A397" s="4"/>
@@ -11542,6 +11969,7 @@
       <c r="X397" s="4"/>
       <c r="Y397" s="4"/>
       <c r="Z397" s="4"/>
+      <c r="AA397" s="4"/>
     </row>
     <row r="398">
       <c r="A398" s="4"/>
@@ -11570,6 +11998,7 @@
       <c r="X398" s="4"/>
       <c r="Y398" s="4"/>
       <c r="Z398" s="4"/>
+      <c r="AA398" s="4"/>
     </row>
     <row r="399">
       <c r="A399" s="4"/>
@@ -11598,6 +12027,7 @@
       <c r="X399" s="4"/>
       <c r="Y399" s="4"/>
       <c r="Z399" s="4"/>
+      <c r="AA399" s="4"/>
     </row>
     <row r="400">
       <c r="A400" s="4"/>
@@ -11626,6 +12056,7 @@
       <c r="X400" s="4"/>
       <c r="Y400" s="4"/>
       <c r="Z400" s="4"/>
+      <c r="AA400" s="4"/>
     </row>
     <row r="401">
       <c r="A401" s="4"/>
@@ -11654,6 +12085,7 @@
       <c r="X401" s="4"/>
       <c r="Y401" s="4"/>
       <c r="Z401" s="4"/>
+      <c r="AA401" s="4"/>
     </row>
     <row r="402">
       <c r="A402" s="4"/>
@@ -11682,6 +12114,7 @@
       <c r="X402" s="4"/>
       <c r="Y402" s="4"/>
       <c r="Z402" s="4"/>
+      <c r="AA402" s="4"/>
     </row>
     <row r="403">
       <c r="A403" s="4"/>
@@ -11710,6 +12143,7 @@
       <c r="X403" s="4"/>
       <c r="Y403" s="4"/>
       <c r="Z403" s="4"/>
+      <c r="AA403" s="4"/>
     </row>
     <row r="404">
       <c r="A404" s="4"/>
@@ -11738,6 +12172,7 @@
       <c r="X404" s="4"/>
       <c r="Y404" s="4"/>
       <c r="Z404" s="4"/>
+      <c r="AA404" s="4"/>
     </row>
     <row r="405">
       <c r="A405" s="4"/>
@@ -11766,6 +12201,7 @@
       <c r="X405" s="4"/>
       <c r="Y405" s="4"/>
       <c r="Z405" s="4"/>
+      <c r="AA405" s="4"/>
     </row>
     <row r="406">
       <c r="A406" s="4"/>
@@ -11794,6 +12230,7 @@
       <c r="X406" s="4"/>
       <c r="Y406" s="4"/>
       <c r="Z406" s="4"/>
+      <c r="AA406" s="4"/>
     </row>
     <row r="407">
       <c r="A407" s="4"/>
@@ -11822,6 +12259,7 @@
       <c r="X407" s="4"/>
       <c r="Y407" s="4"/>
       <c r="Z407" s="4"/>
+      <c r="AA407" s="4"/>
     </row>
     <row r="408">
       <c r="A408" s="4"/>
@@ -11850,6 +12288,7 @@
       <c r="X408" s="4"/>
       <c r="Y408" s="4"/>
       <c r="Z408" s="4"/>
+      <c r="AA408" s="4"/>
     </row>
     <row r="409">
       <c r="A409" s="4"/>
@@ -11878,6 +12317,7 @@
       <c r="X409" s="4"/>
       <c r="Y409" s="4"/>
       <c r="Z409" s="4"/>
+      <c r="AA409" s="4"/>
     </row>
     <row r="410">
       <c r="A410" s="4"/>
@@ -11906,6 +12346,7 @@
       <c r="X410" s="4"/>
       <c r="Y410" s="4"/>
       <c r="Z410" s="4"/>
+      <c r="AA410" s="4"/>
     </row>
     <row r="411">
       <c r="A411" s="4"/>
@@ -11934,6 +12375,7 @@
       <c r="X411" s="4"/>
       <c r="Y411" s="4"/>
       <c r="Z411" s="4"/>
+      <c r="AA411" s="4"/>
     </row>
     <row r="412">
       <c r="A412" s="4"/>
@@ -11962,6 +12404,7 @@
       <c r="X412" s="4"/>
       <c r="Y412" s="4"/>
       <c r="Z412" s="4"/>
+      <c r="AA412" s="4"/>
     </row>
     <row r="413">
       <c r="A413" s="4"/>
@@ -11990,6 +12433,7 @@
       <c r="X413" s="4"/>
       <c r="Y413" s="4"/>
       <c r="Z413" s="4"/>
+      <c r="AA413" s="4"/>
     </row>
     <row r="414">
       <c r="A414" s="4"/>
@@ -12018,6 +12462,7 @@
       <c r="X414" s="4"/>
       <c r="Y414" s="4"/>
       <c r="Z414" s="4"/>
+      <c r="AA414" s="4"/>
     </row>
     <row r="415">
       <c r="A415" s="4"/>
@@ -12046,6 +12491,7 @@
       <c r="X415" s="4"/>
       <c r="Y415" s="4"/>
       <c r="Z415" s="4"/>
+      <c r="AA415" s="4"/>
     </row>
     <row r="416">
       <c r="A416" s="4"/>
@@ -12074,6 +12520,7 @@
       <c r="X416" s="4"/>
       <c r="Y416" s="4"/>
       <c r="Z416" s="4"/>
+      <c r="AA416" s="4"/>
     </row>
     <row r="417">
       <c r="A417" s="4"/>
@@ -12102,6 +12549,7 @@
       <c r="X417" s="4"/>
       <c r="Y417" s="4"/>
       <c r="Z417" s="4"/>
+      <c r="AA417" s="4"/>
     </row>
     <row r="418">
       <c r="A418" s="4"/>
@@ -12130,6 +12578,7 @@
       <c r="X418" s="4"/>
       <c r="Y418" s="4"/>
       <c r="Z418" s="4"/>
+      <c r="AA418" s="4"/>
     </row>
     <row r="419">
       <c r="A419" s="4"/>
@@ -12158,6 +12607,7 @@
       <c r="X419" s="4"/>
       <c r="Y419" s="4"/>
       <c r="Z419" s="4"/>
+      <c r="AA419" s="4"/>
     </row>
     <row r="420">
       <c r="A420" s="4"/>
@@ -12186,6 +12636,7 @@
       <c r="X420" s="4"/>
       <c r="Y420" s="4"/>
       <c r="Z420" s="4"/>
+      <c r="AA420" s="4"/>
     </row>
     <row r="421">
       <c r="A421" s="4"/>
@@ -12214,6 +12665,7 @@
       <c r="X421" s="4"/>
       <c r="Y421" s="4"/>
       <c r="Z421" s="4"/>
+      <c r="AA421" s="4"/>
     </row>
     <row r="422">
       <c r="A422" s="4"/>
@@ -12242,6 +12694,7 @@
       <c r="X422" s="4"/>
       <c r="Y422" s="4"/>
       <c r="Z422" s="4"/>
+      <c r="AA422" s="4"/>
     </row>
     <row r="423">
       <c r="A423" s="4"/>
@@ -12270,6 +12723,7 @@
       <c r="X423" s="4"/>
       <c r="Y423" s="4"/>
       <c r="Z423" s="4"/>
+      <c r="AA423" s="4"/>
     </row>
     <row r="424">
       <c r="A424" s="4"/>
@@ -12298,6 +12752,7 @@
       <c r="X424" s="4"/>
       <c r="Y424" s="4"/>
       <c r="Z424" s="4"/>
+      <c r="AA424" s="4"/>
     </row>
     <row r="425">
       <c r="A425" s="4"/>
@@ -12326,6 +12781,7 @@
       <c r="X425" s="4"/>
       <c r="Y425" s="4"/>
       <c r="Z425" s="4"/>
+      <c r="AA425" s="4"/>
     </row>
     <row r="426">
       <c r="A426" s="4"/>
@@ -12354,6 +12810,7 @@
       <c r="X426" s="4"/>
       <c r="Y426" s="4"/>
       <c r="Z426" s="4"/>
+      <c r="AA426" s="4"/>
     </row>
     <row r="427">
       <c r="A427" s="4"/>
@@ -12382,6 +12839,7 @@
       <c r="X427" s="4"/>
       <c r="Y427" s="4"/>
       <c r="Z427" s="4"/>
+      <c r="AA427" s="4"/>
     </row>
     <row r="428">
       <c r="A428" s="4"/>
@@ -12410,6 +12868,7 @@
       <c r="X428" s="4"/>
       <c r="Y428" s="4"/>
       <c r="Z428" s="4"/>
+      <c r="AA428" s="4"/>
     </row>
     <row r="429">
       <c r="A429" s="4"/>
@@ -12438,6 +12897,7 @@
       <c r="X429" s="4"/>
       <c r="Y429" s="4"/>
       <c r="Z429" s="4"/>
+      <c r="AA429" s="4"/>
     </row>
     <row r="430">
       <c r="A430" s="4"/>
@@ -12466,6 +12926,7 @@
       <c r="X430" s="4"/>
       <c r="Y430" s="4"/>
       <c r="Z430" s="4"/>
+      <c r="AA430" s="4"/>
     </row>
     <row r="431">
       <c r="A431" s="4"/>
@@ -12494,6 +12955,7 @@
       <c r="X431" s="4"/>
       <c r="Y431" s="4"/>
       <c r="Z431" s="4"/>
+      <c r="AA431" s="4"/>
     </row>
     <row r="432">
       <c r="A432" s="4"/>
@@ -12522,6 +12984,7 @@
       <c r="X432" s="4"/>
       <c r="Y432" s="4"/>
       <c r="Z432" s="4"/>
+      <c r="AA432" s="4"/>
     </row>
     <row r="433">
       <c r="A433" s="4"/>
@@ -12550,6 +13013,7 @@
       <c r="X433" s="4"/>
       <c r="Y433" s="4"/>
       <c r="Z433" s="4"/>
+      <c r="AA433" s="4"/>
     </row>
     <row r="434">
       <c r="A434" s="4"/>
@@ -12578,6 +13042,7 @@
       <c r="X434" s="4"/>
       <c r="Y434" s="4"/>
       <c r="Z434" s="4"/>
+      <c r="AA434" s="4"/>
     </row>
     <row r="435">
       <c r="A435" s="4"/>
@@ -12606,6 +13071,7 @@
       <c r="X435" s="4"/>
       <c r="Y435" s="4"/>
       <c r="Z435" s="4"/>
+      <c r="AA435" s="4"/>
     </row>
     <row r="436">
       <c r="A436" s="4"/>
@@ -12634,6 +13100,7 @@
       <c r="X436" s="4"/>
       <c r="Y436" s="4"/>
       <c r="Z436" s="4"/>
+      <c r="AA436" s="4"/>
     </row>
     <row r="437">
       <c r="A437" s="4"/>
@@ -12662,6 +13129,7 @@
       <c r="X437" s="4"/>
       <c r="Y437" s="4"/>
       <c r="Z437" s="4"/>
+      <c r="AA437" s="4"/>
     </row>
     <row r="438">
       <c r="A438" s="4"/>
@@ -12690,6 +13158,7 @@
       <c r="X438" s="4"/>
       <c r="Y438" s="4"/>
       <c r="Z438" s="4"/>
+      <c r="AA438" s="4"/>
     </row>
     <row r="439">
       <c r="A439" s="4"/>
@@ -12718,6 +13187,7 @@
       <c r="X439" s="4"/>
       <c r="Y439" s="4"/>
       <c r="Z439" s="4"/>
+      <c r="AA439" s="4"/>
     </row>
     <row r="440">
       <c r="A440" s="4"/>
@@ -12746,6 +13216,7 @@
       <c r="X440" s="4"/>
       <c r="Y440" s="4"/>
       <c r="Z440" s="4"/>
+      <c r="AA440" s="4"/>
     </row>
     <row r="441">
       <c r="A441" s="4"/>
@@ -12774,6 +13245,7 @@
       <c r="X441" s="4"/>
       <c r="Y441" s="4"/>
       <c r="Z441" s="4"/>
+      <c r="AA441" s="4"/>
     </row>
     <row r="442">
       <c r="A442" s="4"/>
@@ -12802,6 +13274,7 @@
       <c r="X442" s="4"/>
       <c r="Y442" s="4"/>
       <c r="Z442" s="4"/>
+      <c r="AA442" s="4"/>
     </row>
     <row r="443">
       <c r="A443" s="4"/>
@@ -12830,6 +13303,7 @@
       <c r="X443" s="4"/>
       <c r="Y443" s="4"/>
       <c r="Z443" s="4"/>
+      <c r="AA443" s="4"/>
     </row>
     <row r="444">
       <c r="A444" s="4"/>
@@ -12858,6 +13332,7 @@
       <c r="X444" s="4"/>
       <c r="Y444" s="4"/>
       <c r="Z444" s="4"/>
+      <c r="AA444" s="4"/>
     </row>
     <row r="445">
       <c r="A445" s="4"/>
@@ -12886,6 +13361,7 @@
       <c r="X445" s="4"/>
       <c r="Y445" s="4"/>
       <c r="Z445" s="4"/>
+      <c r="AA445" s="4"/>
     </row>
     <row r="446">
       <c r="A446" s="4"/>
@@ -12914,6 +13390,7 @@
       <c r="X446" s="4"/>
       <c r="Y446" s="4"/>
       <c r="Z446" s="4"/>
+      <c r="AA446" s="4"/>
     </row>
     <row r="447">
       <c r="A447" s="4"/>
@@ -12942,6 +13419,7 @@
       <c r="X447" s="4"/>
       <c r="Y447" s="4"/>
       <c r="Z447" s="4"/>
+      <c r="AA447" s="4"/>
     </row>
     <row r="448">
       <c r="A448" s="4"/>
@@ -12970,6 +13448,7 @@
       <c r="X448" s="4"/>
       <c r="Y448" s="4"/>
       <c r="Z448" s="4"/>
+      <c r="AA448" s="4"/>
     </row>
     <row r="449">
       <c r="A449" s="4"/>
@@ -12998,6 +13477,7 @@
       <c r="X449" s="4"/>
       <c r="Y449" s="4"/>
       <c r="Z449" s="4"/>
+      <c r="AA449" s="4"/>
     </row>
     <row r="450">
       <c r="A450" s="4"/>
@@ -13026,6 +13506,7 @@
       <c r="X450" s="4"/>
       <c r="Y450" s="4"/>
       <c r="Z450" s="4"/>
+      <c r="AA450" s="4"/>
     </row>
     <row r="451">
       <c r="A451" s="4"/>
@@ -13054,6 +13535,7 @@
       <c r="X451" s="4"/>
       <c r="Y451" s="4"/>
       <c r="Z451" s="4"/>
+      <c r="AA451" s="4"/>
     </row>
     <row r="452">
       <c r="A452" s="4"/>
@@ -13082,6 +13564,7 @@
       <c r="X452" s="4"/>
       <c r="Y452" s="4"/>
       <c r="Z452" s="4"/>
+      <c r="AA452" s="4"/>
     </row>
     <row r="453">
       <c r="A453" s="4"/>
@@ -13110,6 +13593,7 @@
       <c r="X453" s="4"/>
       <c r="Y453" s="4"/>
       <c r="Z453" s="4"/>
+      <c r="AA453" s="4"/>
     </row>
     <row r="454">
       <c r="A454" s="4"/>
@@ -13138,6 +13622,7 @@
       <c r="X454" s="4"/>
       <c r="Y454" s="4"/>
       <c r="Z454" s="4"/>
+      <c r="AA454" s="4"/>
     </row>
     <row r="455">
       <c r="A455" s="4"/>
@@ -13166,6 +13651,7 @@
       <c r="X455" s="4"/>
       <c r="Y455" s="4"/>
       <c r="Z455" s="4"/>
+      <c r="AA455" s="4"/>
     </row>
     <row r="456">
       <c r="A456" s="4"/>
@@ -13194,6 +13680,7 @@
       <c r="X456" s="4"/>
       <c r="Y456" s="4"/>
       <c r="Z456" s="4"/>
+      <c r="AA456" s="4"/>
     </row>
     <row r="457">
       <c r="A457" s="4"/>
@@ -13222,6 +13709,7 @@
       <c r="X457" s="4"/>
       <c r="Y457" s="4"/>
       <c r="Z457" s="4"/>
+      <c r="AA457" s="4"/>
     </row>
     <row r="458">
       <c r="A458" s="4"/>
@@ -13250,6 +13738,7 @@
       <c r="X458" s="4"/>
       <c r="Y458" s="4"/>
       <c r="Z458" s="4"/>
+      <c r="AA458" s="4"/>
     </row>
     <row r="459">
       <c r="A459" s="4"/>
@@ -13278,6 +13767,7 @@
       <c r="X459" s="4"/>
       <c r="Y459" s="4"/>
       <c r="Z459" s="4"/>
+      <c r="AA459" s="4"/>
     </row>
     <row r="460">
       <c r="A460" s="4"/>
@@ -13306,6 +13796,7 @@
       <c r="X460" s="4"/>
       <c r="Y460" s="4"/>
       <c r="Z460" s="4"/>
+      <c r="AA460" s="4"/>
     </row>
     <row r="461">
       <c r="A461" s="4"/>
@@ -13334,6 +13825,7 @@
       <c r="X461" s="4"/>
       <c r="Y461" s="4"/>
       <c r="Z461" s="4"/>
+      <c r="AA461" s="4"/>
     </row>
     <row r="462">
       <c r="A462" s="4"/>
@@ -13362,6 +13854,7 @@
       <c r="X462" s="4"/>
       <c r="Y462" s="4"/>
       <c r="Z462" s="4"/>
+      <c r="AA462" s="4"/>
     </row>
     <row r="463">
       <c r="A463" s="4"/>
@@ -13390,6 +13883,7 @@
       <c r="X463" s="4"/>
       <c r="Y463" s="4"/>
       <c r="Z463" s="4"/>
+      <c r="AA463" s="4"/>
     </row>
     <row r="464">
       <c r="A464" s="4"/>
@@ -13418,6 +13912,7 @@
       <c r="X464" s="4"/>
       <c r="Y464" s="4"/>
       <c r="Z464" s="4"/>
+      <c r="AA464" s="4"/>
     </row>
     <row r="465">
       <c r="A465" s="4"/>
@@ -13446,6 +13941,7 @@
       <c r="X465" s="4"/>
       <c r="Y465" s="4"/>
       <c r="Z465" s="4"/>
+      <c r="AA465" s="4"/>
     </row>
     <row r="466">
       <c r="A466" s="4"/>
@@ -13474,6 +13970,7 @@
       <c r="X466" s="4"/>
       <c r="Y466" s="4"/>
       <c r="Z466" s="4"/>
+      <c r="AA466" s="4"/>
     </row>
     <row r="467">
       <c r="A467" s="4"/>
@@ -13502,6 +13999,7 @@
       <c r="X467" s="4"/>
       <c r="Y467" s="4"/>
       <c r="Z467" s="4"/>
+      <c r="AA467" s="4"/>
     </row>
     <row r="468">
       <c r="A468" s="4"/>
@@ -13530,6 +14028,7 @@
       <c r="X468" s="4"/>
       <c r="Y468" s="4"/>
       <c r="Z468" s="4"/>
+      <c r="AA468" s="4"/>
     </row>
     <row r="469">
       <c r="A469" s="4"/>
@@ -13558,6 +14057,7 @@
       <c r="X469" s="4"/>
       <c r="Y469" s="4"/>
       <c r="Z469" s="4"/>
+      <c r="AA469" s="4"/>
     </row>
     <row r="470">
       <c r="A470" s="4"/>
@@ -13586,6 +14086,7 @@
       <c r="X470" s="4"/>
       <c r="Y470" s="4"/>
       <c r="Z470" s="4"/>
+      <c r="AA470" s="4"/>
     </row>
     <row r="471">
       <c r="A471" s="4"/>
@@ -13614,6 +14115,7 @@
       <c r="X471" s="4"/>
       <c r="Y471" s="4"/>
       <c r="Z471" s="4"/>
+      <c r="AA471" s="4"/>
     </row>
     <row r="472">
       <c r="A472" s="4"/>
@@ -13642,6 +14144,7 @@
       <c r="X472" s="4"/>
       <c r="Y472" s="4"/>
       <c r="Z472" s="4"/>
+      <c r="AA472" s="4"/>
     </row>
     <row r="473">
       <c r="A473" s="4"/>
@@ -13670,6 +14173,7 @@
       <c r="X473" s="4"/>
       <c r="Y473" s="4"/>
       <c r="Z473" s="4"/>
+      <c r="AA473" s="4"/>
     </row>
     <row r="474">
       <c r="A474" s="4"/>
@@ -13698,6 +14202,7 @@
       <c r="X474" s="4"/>
       <c r="Y474" s="4"/>
       <c r="Z474" s="4"/>
+      <c r="AA474" s="4"/>
     </row>
     <row r="475">
       <c r="A475" s="4"/>
@@ -13726,6 +14231,7 @@
       <c r="X475" s="4"/>
       <c r="Y475" s="4"/>
       <c r="Z475" s="4"/>
+      <c r="AA475" s="4"/>
     </row>
     <row r="476">
       <c r="A476" s="4"/>
@@ -13754,6 +14260,7 @@
       <c r="X476" s="4"/>
       <c r="Y476" s="4"/>
       <c r="Z476" s="4"/>
+      <c r="AA476" s="4"/>
     </row>
     <row r="477">
       <c r="A477" s="4"/>
@@ -13782,6 +14289,7 @@
       <c r="X477" s="4"/>
       <c r="Y477" s="4"/>
       <c r="Z477" s="4"/>
+      <c r="AA477" s="4"/>
     </row>
     <row r="478">
       <c r="A478" s="4"/>
@@ -13810,6 +14318,7 @@
       <c r="X478" s="4"/>
       <c r="Y478" s="4"/>
       <c r="Z478" s="4"/>
+      <c r="AA478" s="4"/>
     </row>
     <row r="479">
       <c r="A479" s="4"/>
@@ -13838,6 +14347,7 @@
       <c r="X479" s="4"/>
       <c r="Y479" s="4"/>
       <c r="Z479" s="4"/>
+      <c r="AA479" s="4"/>
     </row>
     <row r="480">
       <c r="A480" s="4"/>
@@ -13866,6 +14376,7 @@
       <c r="X480" s="4"/>
       <c r="Y480" s="4"/>
       <c r="Z480" s="4"/>
+      <c r="AA480" s="4"/>
     </row>
     <row r="481">
       <c r="A481" s="4"/>
@@ -13894,6 +14405,7 @@
       <c r="X481" s="4"/>
       <c r="Y481" s="4"/>
       <c r="Z481" s="4"/>
+      <c r="AA481" s="4"/>
     </row>
     <row r="482">
       <c r="A482" s="4"/>
@@ -13922,6 +14434,7 @@
       <c r="X482" s="4"/>
       <c r="Y482" s="4"/>
       <c r="Z482" s="4"/>
+      <c r="AA482" s="4"/>
     </row>
     <row r="483">
       <c r="A483" s="4"/>
@@ -13950,6 +14463,7 @@
       <c r="X483" s="4"/>
       <c r="Y483" s="4"/>
       <c r="Z483" s="4"/>
+      <c r="AA483" s="4"/>
     </row>
     <row r="484">
       <c r="A484" s="4"/>
@@ -13978,6 +14492,7 @@
       <c r="X484" s="4"/>
       <c r="Y484" s="4"/>
       <c r="Z484" s="4"/>
+      <c r="AA484" s="4"/>
     </row>
     <row r="485">
       <c r="A485" s="4"/>
@@ -14006,6 +14521,7 @@
       <c r="X485" s="4"/>
       <c r="Y485" s="4"/>
       <c r="Z485" s="4"/>
+      <c r="AA485" s="4"/>
     </row>
     <row r="486">
       <c r="A486" s="4"/>
@@ -14034,6 +14550,7 @@
       <c r="X486" s="4"/>
       <c r="Y486" s="4"/>
       <c r="Z486" s="4"/>
+      <c r="AA486" s="4"/>
     </row>
     <row r="487">
       <c r="A487" s="4"/>
@@ -14062,6 +14579,7 @@
       <c r="X487" s="4"/>
       <c r="Y487" s="4"/>
       <c r="Z487" s="4"/>
+      <c r="AA487" s="4"/>
     </row>
     <row r="488">
       <c r="A488" s="4"/>
@@ -14090,6 +14608,7 @@
       <c r="X488" s="4"/>
       <c r="Y488" s="4"/>
       <c r="Z488" s="4"/>
+      <c r="AA488" s="4"/>
     </row>
     <row r="489">
       <c r="A489" s="4"/>
@@ -14118,6 +14637,7 @@
       <c r="X489" s="4"/>
       <c r="Y489" s="4"/>
       <c r="Z489" s="4"/>
+      <c r="AA489" s="4"/>
     </row>
     <row r="490">
       <c r="A490" s="4"/>
@@ -14146,6 +14666,7 @@
       <c r="X490" s="4"/>
       <c r="Y490" s="4"/>
       <c r="Z490" s="4"/>
+      <c r="AA490" s="4"/>
     </row>
     <row r="491">
       <c r="A491" s="4"/>
@@ -14174,6 +14695,7 @@
       <c r="X491" s="4"/>
       <c r="Y491" s="4"/>
       <c r="Z491" s="4"/>
+      <c r="AA491" s="4"/>
     </row>
     <row r="492">
       <c r="A492" s="4"/>
@@ -14202,6 +14724,7 @@
       <c r="X492" s="4"/>
       <c r="Y492" s="4"/>
       <c r="Z492" s="4"/>
+      <c r="AA492" s="4"/>
     </row>
     <row r="493">
       <c r="A493" s="4"/>
@@ -14230,6 +14753,7 @@
       <c r="X493" s="4"/>
       <c r="Y493" s="4"/>
       <c r="Z493" s="4"/>
+      <c r="AA493" s="4"/>
     </row>
     <row r="494">
       <c r="A494" s="4"/>
@@ -14258,6 +14782,7 @@
       <c r="X494" s="4"/>
       <c r="Y494" s="4"/>
       <c r="Z494" s="4"/>
+      <c r="AA494" s="4"/>
     </row>
     <row r="495">
       <c r="A495" s="4"/>
@@ -14286,6 +14811,7 @@
       <c r="X495" s="4"/>
       <c r="Y495" s="4"/>
       <c r="Z495" s="4"/>
+      <c r="AA495" s="4"/>
     </row>
     <row r="496">
       <c r="A496" s="4"/>
@@ -14314,6 +14840,7 @@
       <c r="X496" s="4"/>
       <c r="Y496" s="4"/>
       <c r="Z496" s="4"/>
+      <c r="AA496" s="4"/>
     </row>
     <row r="497">
       <c r="A497" s="4"/>
@@ -14342,6 +14869,7 @@
       <c r="X497" s="4"/>
       <c r="Y497" s="4"/>
       <c r="Z497" s="4"/>
+      <c r="AA497" s="4"/>
     </row>
     <row r="498">
       <c r="A498" s="4"/>
@@ -14370,6 +14898,7 @@
       <c r="X498" s="4"/>
       <c r="Y498" s="4"/>
       <c r="Z498" s="4"/>
+      <c r="AA498" s="4"/>
     </row>
     <row r="499">
       <c r="A499" s="4"/>
@@ -14398,6 +14927,7 @@
       <c r="X499" s="4"/>
       <c r="Y499" s="4"/>
       <c r="Z499" s="4"/>
+      <c r="AA499" s="4"/>
     </row>
     <row r="500">
       <c r="A500" s="4"/>
@@ -14426,6 +14956,7 @@
       <c r="X500" s="4"/>
       <c r="Y500" s="4"/>
       <c r="Z500" s="4"/>
+      <c r="AA500" s="4"/>
     </row>
     <row r="501">
       <c r="A501" s="4"/>
@@ -14454,6 +14985,7 @@
       <c r="X501" s="4"/>
       <c r="Y501" s="4"/>
       <c r="Z501" s="4"/>
+      <c r="AA501" s="4"/>
     </row>
     <row r="502">
       <c r="A502" s="4"/>
@@ -14482,6 +15014,7 @@
       <c r="X502" s="4"/>
       <c r="Y502" s="4"/>
       <c r="Z502" s="4"/>
+      <c r="AA502" s="4"/>
     </row>
     <row r="503">
       <c r="A503" s="4"/>
@@ -14510,6 +15043,7 @@
       <c r="X503" s="4"/>
       <c r="Y503" s="4"/>
       <c r="Z503" s="4"/>
+      <c r="AA503" s="4"/>
     </row>
     <row r="504">
       <c r="A504" s="4"/>
@@ -14538,6 +15072,7 @@
       <c r="X504" s="4"/>
       <c r="Y504" s="4"/>
       <c r="Z504" s="4"/>
+      <c r="AA504" s="4"/>
     </row>
     <row r="505">
       <c r="A505" s="4"/>
@@ -14566,6 +15101,7 @@
       <c r="X505" s="4"/>
       <c r="Y505" s="4"/>
       <c r="Z505" s="4"/>
+      <c r="AA505" s="4"/>
     </row>
     <row r="506">
       <c r="A506" s="4"/>
@@ -14594,6 +15130,7 @@
       <c r="X506" s="4"/>
       <c r="Y506" s="4"/>
       <c r="Z506" s="4"/>
+      <c r="AA506" s="4"/>
     </row>
     <row r="507">
       <c r="A507" s="4"/>
@@ -14622,6 +15159,7 @@
       <c r="X507" s="4"/>
       <c r="Y507" s="4"/>
       <c r="Z507" s="4"/>
+      <c r="AA507" s="4"/>
     </row>
     <row r="508">
       <c r="A508" s="4"/>
@@ -14650,6 +15188,7 @@
       <c r="X508" s="4"/>
       <c r="Y508" s="4"/>
       <c r="Z508" s="4"/>
+      <c r="AA508" s="4"/>
     </row>
     <row r="509">
       <c r="A509" s="4"/>
@@ -14678,6 +15217,7 @@
       <c r="X509" s="4"/>
       <c r="Y509" s="4"/>
       <c r="Z509" s="4"/>
+      <c r="AA509" s="4"/>
     </row>
     <row r="510">
       <c r="A510" s="4"/>
@@ -14706,6 +15246,7 @@
       <c r="X510" s="4"/>
       <c r="Y510" s="4"/>
       <c r="Z510" s="4"/>
+      <c r="AA510" s="4"/>
     </row>
     <row r="511">
       <c r="A511" s="4"/>
@@ -14734,6 +15275,7 @@
       <c r="X511" s="4"/>
       <c r="Y511" s="4"/>
       <c r="Z511" s="4"/>
+      <c r="AA511" s="4"/>
     </row>
     <row r="512">
       <c r="A512" s="4"/>
@@ -14762,6 +15304,7 @@
       <c r="X512" s="4"/>
       <c r="Y512" s="4"/>
       <c r="Z512" s="4"/>
+      <c r="AA512" s="4"/>
     </row>
     <row r="513">
       <c r="A513" s="4"/>
@@ -14790,6 +15333,7 @@
       <c r="X513" s="4"/>
       <c r="Y513" s="4"/>
       <c r="Z513" s="4"/>
+      <c r="AA513" s="4"/>
     </row>
     <row r="514">
       <c r="A514" s="4"/>
@@ -14818,6 +15362,7 @@
       <c r="X514" s="4"/>
       <c r="Y514" s="4"/>
       <c r="Z514" s="4"/>
+      <c r="AA514" s="4"/>
     </row>
     <row r="515">
       <c r="A515" s="4"/>
@@ -14846,6 +15391,7 @@
       <c r="X515" s="4"/>
       <c r="Y515" s="4"/>
       <c r="Z515" s="4"/>
+      <c r="AA515" s="4"/>
     </row>
     <row r="516">
       <c r="A516" s="4"/>
@@ -14874,6 +15420,7 @@
       <c r="X516" s="4"/>
       <c r="Y516" s="4"/>
       <c r="Z516" s="4"/>
+      <c r="AA516" s="4"/>
     </row>
     <row r="517">
       <c r="A517" s="4"/>
@@ -14902,6 +15449,7 @@
       <c r="X517" s="4"/>
       <c r="Y517" s="4"/>
       <c r="Z517" s="4"/>
+      <c r="AA517" s="4"/>
     </row>
     <row r="518">
       <c r="A518" s="4"/>
@@ -14930,6 +15478,7 @@
       <c r="X518" s="4"/>
       <c r="Y518" s="4"/>
       <c r="Z518" s="4"/>
+      <c r="AA518" s="4"/>
     </row>
     <row r="519">
       <c r="A519" s="4"/>
@@ -14958,6 +15507,7 @@
       <c r="X519" s="4"/>
       <c r="Y519" s="4"/>
       <c r="Z519" s="4"/>
+      <c r="AA519" s="4"/>
     </row>
     <row r="520">
       <c r="A520" s="4"/>
@@ -14986,6 +15536,7 @@
       <c r="X520" s="4"/>
       <c r="Y520" s="4"/>
       <c r="Z520" s="4"/>
+      <c r="AA520" s="4"/>
     </row>
     <row r="521">
       <c r="A521" s="4"/>
@@ -15014,6 +15565,7 @@
       <c r="X521" s="4"/>
       <c r="Y521" s="4"/>
       <c r="Z521" s="4"/>
+      <c r="AA521" s="4"/>
     </row>
     <row r="522">
       <c r="A522" s="4"/>
@@ -15042,6 +15594,7 @@
       <c r="X522" s="4"/>
       <c r="Y522" s="4"/>
       <c r="Z522" s="4"/>
+      <c r="AA522" s="4"/>
     </row>
     <row r="523">
       <c r="A523" s="4"/>
@@ -15070,6 +15623,7 @@
       <c r="X523" s="4"/>
       <c r="Y523" s="4"/>
       <c r="Z523" s="4"/>
+      <c r="AA523" s="4"/>
     </row>
     <row r="524">
       <c r="A524" s="4"/>
@@ -15098,6 +15652,7 @@
       <c r="X524" s="4"/>
       <c r="Y524" s="4"/>
       <c r="Z524" s="4"/>
+      <c r="AA524" s="4"/>
     </row>
     <row r="525">
       <c r="A525" s="4"/>
@@ -15126,6 +15681,7 @@
       <c r="X525" s="4"/>
       <c r="Y525" s="4"/>
       <c r="Z525" s="4"/>
+      <c r="AA525" s="4"/>
     </row>
     <row r="526">
       <c r="A526" s="4"/>
@@ -15154,6 +15710,7 @@
       <c r="X526" s="4"/>
       <c r="Y526" s="4"/>
       <c r="Z526" s="4"/>
+      <c r="AA526" s="4"/>
     </row>
     <row r="527">
       <c r="A527" s="4"/>
@@ -15182,6 +15739,7 @@
       <c r="X527" s="4"/>
       <c r="Y527" s="4"/>
       <c r="Z527" s="4"/>
+      <c r="AA527" s="4"/>
     </row>
     <row r="528">
       <c r="A528" s="4"/>
@@ -15210,6 +15768,7 @@
       <c r="X528" s="4"/>
       <c r="Y528" s="4"/>
       <c r="Z528" s="4"/>
+      <c r="AA528" s="4"/>
     </row>
     <row r="529">
       <c r="A529" s="4"/>
@@ -15238,6 +15797,7 @@
       <c r="X529" s="4"/>
       <c r="Y529" s="4"/>
       <c r="Z529" s="4"/>
+      <c r="AA529" s="4"/>
     </row>
     <row r="530">
       <c r="A530" s="4"/>
@@ -15266,6 +15826,7 @@
       <c r="X530" s="4"/>
       <c r="Y530" s="4"/>
       <c r="Z530" s="4"/>
+      <c r="AA530" s="4"/>
     </row>
     <row r="531">
       <c r="A531" s="4"/>
@@ -15294,6 +15855,7 @@
       <c r="X531" s="4"/>
       <c r="Y531" s="4"/>
       <c r="Z531" s="4"/>
+      <c r="AA531" s="4"/>
     </row>
     <row r="532">
       <c r="A532" s="4"/>
@@ -15322,6 +15884,7 @@
       <c r="X532" s="4"/>
       <c r="Y532" s="4"/>
       <c r="Z532" s="4"/>
+      <c r="AA532" s="4"/>
     </row>
     <row r="533">
       <c r="A533" s="4"/>
@@ -15350,6 +15913,7 @@
       <c r="X533" s="4"/>
       <c r="Y533" s="4"/>
       <c r="Z533" s="4"/>
+      <c r="AA533" s="4"/>
     </row>
     <row r="534">
       <c r="A534" s="4"/>
@@ -15378,6 +15942,7 @@
       <c r="X534" s="4"/>
       <c r="Y534" s="4"/>
       <c r="Z534" s="4"/>
+      <c r="AA534" s="4"/>
     </row>
     <row r="535">
       <c r="A535" s="4"/>
@@ -15406,6 +15971,7 @@
       <c r="X535" s="4"/>
       <c r="Y535" s="4"/>
       <c r="Z535" s="4"/>
+      <c r="AA535" s="4"/>
     </row>
     <row r="536">
       <c r="A536" s="4"/>
@@ -15434,6 +16000,7 @@
       <c r="X536" s="4"/>
       <c r="Y536" s="4"/>
       <c r="Z536" s="4"/>
+      <c r="AA536" s="4"/>
     </row>
     <row r="537">
       <c r="A537" s="4"/>
@@ -15462,6 +16029,7 @@
       <c r="X537" s="4"/>
       <c r="Y537" s="4"/>
       <c r="Z537" s="4"/>
+      <c r="AA537" s="4"/>
     </row>
     <row r="538">
       <c r="A538" s="4"/>
@@ -15490,6 +16058,7 @@
       <c r="X538" s="4"/>
       <c r="Y538" s="4"/>
       <c r="Z538" s="4"/>
+      <c r="AA538" s="4"/>
     </row>
     <row r="539">
       <c r="A539" s="4"/>
@@ -15518,6 +16087,7 @@
       <c r="X539" s="4"/>
       <c r="Y539" s="4"/>
       <c r="Z539" s="4"/>
+      <c r="AA539" s="4"/>
     </row>
     <row r="540">
       <c r="A540" s="4"/>
@@ -15546,6 +16116,7 @@
       <c r="X540" s="4"/>
       <c r="Y540" s="4"/>
       <c r="Z540" s="4"/>
+      <c r="AA540" s="4"/>
     </row>
     <row r="541">
       <c r="A541" s="4"/>
@@ -15574,6 +16145,7 @@
       <c r="X541" s="4"/>
       <c r="Y541" s="4"/>
       <c r="Z541" s="4"/>
+      <c r="AA541" s="4"/>
     </row>
     <row r="542">
       <c r="A542" s="4"/>
@@ -15602,6 +16174,7 @@
       <c r="X542" s="4"/>
       <c r="Y542" s="4"/>
       <c r="Z542" s="4"/>
+      <c r="AA542" s="4"/>
     </row>
     <row r="543">
       <c r="A543" s="4"/>
@@ -15630,6 +16203,7 @@
       <c r="X543" s="4"/>
       <c r="Y543" s="4"/>
       <c r="Z543" s="4"/>
+      <c r="AA543" s="4"/>
     </row>
     <row r="544">
       <c r="A544" s="4"/>
@@ -15658,6 +16232,7 @@
       <c r="X544" s="4"/>
       <c r="Y544" s="4"/>
       <c r="Z544" s="4"/>
+      <c r="AA544" s="4"/>
     </row>
     <row r="545">
       <c r="A545" s="4"/>
@@ -15686,6 +16261,7 @@
       <c r="X545" s="4"/>
       <c r="Y545" s="4"/>
       <c r="Z545" s="4"/>
+      <c r="AA545" s="4"/>
     </row>
     <row r="546">
       <c r="A546" s="4"/>
@@ -15714,6 +16290,7 @@
       <c r="X546" s="4"/>
       <c r="Y546" s="4"/>
       <c r="Z546" s="4"/>
+      <c r="AA546" s="4"/>
     </row>
     <row r="547">
       <c r="A547" s="4"/>
@@ -15742,6 +16319,7 @@
       <c r="X547" s="4"/>
       <c r="Y547" s="4"/>
       <c r="Z547" s="4"/>
+      <c r="AA547" s="4"/>
     </row>
     <row r="548">
       <c r="A548" s="4"/>
@@ -15770,6 +16348,7 @@
       <c r="X548" s="4"/>
       <c r="Y548" s="4"/>
       <c r="Z548" s="4"/>
+      <c r="AA548" s="4"/>
     </row>
     <row r="549">
       <c r="A549" s="4"/>
@@ -15798,6 +16377,7 @@
       <c r="X549" s="4"/>
       <c r="Y549" s="4"/>
       <c r="Z549" s="4"/>
+      <c r="AA549" s="4"/>
     </row>
     <row r="550">
       <c r="A550" s="4"/>
@@ -15826,6 +16406,7 @@
       <c r="X550" s="4"/>
       <c r="Y550" s="4"/>
       <c r="Z550" s="4"/>
+      <c r="AA550" s="4"/>
     </row>
     <row r="551">
       <c r="A551" s="4"/>
@@ -15854,6 +16435,7 @@
       <c r="X551" s="4"/>
       <c r="Y551" s="4"/>
       <c r="Z551" s="4"/>
+      <c r="AA551" s="4"/>
     </row>
     <row r="552">
       <c r="A552" s="4"/>
@@ -15882,6 +16464,7 @@
       <c r="X552" s="4"/>
       <c r="Y552" s="4"/>
       <c r="Z552" s="4"/>
+      <c r="AA552" s="4"/>
     </row>
     <row r="553">
       <c r="A553" s="4"/>
@@ -15910,6 +16493,7 @@
       <c r="X553" s="4"/>
       <c r="Y553" s="4"/>
       <c r="Z553" s="4"/>
+      <c r="AA553" s="4"/>
     </row>
     <row r="554">
       <c r="A554" s="4"/>
@@ -15938,6 +16522,7 @@
       <c r="X554" s="4"/>
       <c r="Y554" s="4"/>
       <c r="Z554" s="4"/>
+      <c r="AA554" s="4"/>
     </row>
     <row r="555">
       <c r="A555" s="4"/>
@@ -15966,6 +16551,7 @@
       <c r="X555" s="4"/>
       <c r="Y555" s="4"/>
       <c r="Z555" s="4"/>
+      <c r="AA555" s="4"/>
     </row>
     <row r="556">
       <c r="A556" s="4"/>
@@ -15994,6 +16580,7 @@
       <c r="X556" s="4"/>
       <c r="Y556" s="4"/>
       <c r="Z556" s="4"/>
+      <c r="AA556" s="4"/>
     </row>
     <row r="557">
       <c r="A557" s="4"/>
@@ -16022,6 +16609,7 @@
       <c r="X557" s="4"/>
       <c r="Y557" s="4"/>
       <c r="Z557" s="4"/>
+      <c r="AA557" s="4"/>
     </row>
     <row r="558">
       <c r="A558" s="4"/>
@@ -16050,6 +16638,7 @@
       <c r="X558" s="4"/>
       <c r="Y558" s="4"/>
       <c r="Z558" s="4"/>
+      <c r="AA558" s="4"/>
     </row>
     <row r="559">
       <c r="A559" s="4"/>
@@ -16078,6 +16667,7 @@
       <c r="X559" s="4"/>
       <c r="Y559" s="4"/>
       <c r="Z559" s="4"/>
+      <c r="AA559" s="4"/>
     </row>
     <row r="560">
       <c r="A560" s="4"/>
@@ -16106,6 +16696,7 @@
       <c r="X560" s="4"/>
       <c r="Y560" s="4"/>
       <c r="Z560" s="4"/>
+      <c r="AA560" s="4"/>
     </row>
     <row r="561">
       <c r="A561" s="4"/>
@@ -16134,6 +16725,7 @@
       <c r="X561" s="4"/>
       <c r="Y561" s="4"/>
       <c r="Z561" s="4"/>
+      <c r="AA561" s="4"/>
     </row>
     <row r="562">
       <c r="A562" s="4"/>
@@ -16162,6 +16754,7 @@
       <c r="X562" s="4"/>
       <c r="Y562" s="4"/>
       <c r="Z562" s="4"/>
+      <c r="AA562" s="4"/>
     </row>
     <row r="563">
       <c r="A563" s="4"/>
@@ -16190,6 +16783,7 @@
       <c r="X563" s="4"/>
       <c r="Y563" s="4"/>
       <c r="Z563" s="4"/>
+      <c r="AA563" s="4"/>
     </row>
     <row r="564">
       <c r="A564" s="4"/>
@@ -16218,6 +16812,7 @@
       <c r="X564" s="4"/>
       <c r="Y564" s="4"/>
       <c r="Z564" s="4"/>
+      <c r="AA564" s="4"/>
     </row>
     <row r="565">
       <c r="A565" s="4"/>
@@ -16246,6 +16841,7 @@
       <c r="X565" s="4"/>
       <c r="Y565" s="4"/>
       <c r="Z565" s="4"/>
+      <c r="AA565" s="4"/>
     </row>
     <row r="566">
       <c r="A566" s="4"/>
@@ -16274,6 +16870,7 @@
       <c r="X566" s="4"/>
       <c r="Y566" s="4"/>
       <c r="Z566" s="4"/>
+      <c r="AA566" s="4"/>
     </row>
     <row r="567">
       <c r="A567" s="4"/>
@@ -16302,6 +16899,7 @@
       <c r="X567" s="4"/>
       <c r="Y567" s="4"/>
       <c r="Z567" s="4"/>
+      <c r="AA567" s="4"/>
     </row>
     <row r="568">
       <c r="A568" s="4"/>
@@ -16330,6 +16928,7 @@
       <c r="X568" s="4"/>
       <c r="Y568" s="4"/>
       <c r="Z568" s="4"/>
+      <c r="AA568" s="4"/>
     </row>
     <row r="569">
       <c r="A569" s="4"/>
@@ -16358,6 +16957,7 @@
       <c r="X569" s="4"/>
       <c r="Y569" s="4"/>
       <c r="Z569" s="4"/>
+      <c r="AA569" s="4"/>
     </row>
     <row r="570">
       <c r="A570" s="4"/>
@@ -16386,6 +16986,7 @@
       <c r="X570" s="4"/>
       <c r="Y570" s="4"/>
       <c r="Z570" s="4"/>
+      <c r="AA570" s="4"/>
     </row>
     <row r="571">
       <c r="A571" s="4"/>
@@ -16414,6 +17015,7 @@
       <c r="X571" s="4"/>
       <c r="Y571" s="4"/>
       <c r="Z571" s="4"/>
+      <c r="AA571" s="4"/>
     </row>
     <row r="572">
       <c r="A572" s="4"/>
@@ -16442,6 +17044,7 @@
       <c r="X572" s="4"/>
       <c r="Y572" s="4"/>
       <c r="Z572" s="4"/>
+      <c r="AA572" s="4"/>
     </row>
     <row r="573">
       <c r="A573" s="4"/>
@@ -16470,6 +17073,7 @@
       <c r="X573" s="4"/>
       <c r="Y573" s="4"/>
       <c r="Z573" s="4"/>
+      <c r="AA573" s="4"/>
     </row>
     <row r="574">
       <c r="A574" s="4"/>
@@ -16498,6 +17102,7 @@
       <c r="X574" s="4"/>
       <c r="Y574" s="4"/>
       <c r="Z574" s="4"/>
+      <c r="AA574" s="4"/>
     </row>
     <row r="575">
       <c r="A575" s="4"/>
@@ -16526,6 +17131,7 @@
       <c r="X575" s="4"/>
       <c r="Y575" s="4"/>
       <c r="Z575" s="4"/>
+      <c r="AA575" s="4"/>
     </row>
     <row r="576">
       <c r="A576" s="4"/>
@@ -16554,6 +17160,7 @@
       <c r="X576" s="4"/>
       <c r="Y576" s="4"/>
       <c r="Z576" s="4"/>
+      <c r="AA576" s="4"/>
     </row>
     <row r="577">
       <c r="A577" s="4"/>
@@ -16582,6 +17189,7 @@
       <c r="X577" s="4"/>
       <c r="Y577" s="4"/>
       <c r="Z577" s="4"/>
+      <c r="AA577" s="4"/>
     </row>
     <row r="578">
       <c r="A578" s="4"/>
@@ -16610,6 +17218,7 @@
       <c r="X578" s="4"/>
       <c r="Y578" s="4"/>
       <c r="Z578" s="4"/>
+      <c r="AA578" s="4"/>
     </row>
     <row r="579">
       <c r="A579" s="4"/>
@@ -16638,6 +17247,7 @@
       <c r="X579" s="4"/>
       <c r="Y579" s="4"/>
       <c r="Z579" s="4"/>
+      <c r="AA579" s="4"/>
     </row>
     <row r="580">
       <c r="A580" s="4"/>
@@ -16666,6 +17276,7 @@
       <c r="X580" s="4"/>
       <c r="Y580" s="4"/>
       <c r="Z580" s="4"/>
+      <c r="AA580" s="4"/>
     </row>
     <row r="581">
       <c r="A581" s="4"/>
@@ -16694,6 +17305,7 @@
       <c r="X581" s="4"/>
       <c r="Y581" s="4"/>
       <c r="Z581" s="4"/>
+      <c r="AA581" s="4"/>
     </row>
     <row r="582">
       <c r="A582" s="4"/>
@@ -16722,6 +17334,7 @@
       <c r="X582" s="4"/>
       <c r="Y582" s="4"/>
       <c r="Z582" s="4"/>
+      <c r="AA582" s="4"/>
     </row>
     <row r="583">
       <c r="A583" s="4"/>
@@ -16750,6 +17363,7 @@
       <c r="X583" s="4"/>
       <c r="Y583" s="4"/>
       <c r="Z583" s="4"/>
+      <c r="AA583" s="4"/>
     </row>
     <row r="584">
       <c r="A584" s="4"/>
@@ -16778,6 +17392,7 @@
       <c r="X584" s="4"/>
       <c r="Y584" s="4"/>
       <c r="Z584" s="4"/>
+      <c r="AA584" s="4"/>
     </row>
     <row r="585">
       <c r="A585" s="4"/>
@@ -16806,6 +17421,7 @@
       <c r="X585" s="4"/>
       <c r="Y585" s="4"/>
       <c r="Z585" s="4"/>
+      <c r="AA585" s="4"/>
     </row>
     <row r="586">
       <c r="A586" s="4"/>
@@ -16834,6 +17450,7 @@
       <c r="X586" s="4"/>
       <c r="Y586" s="4"/>
       <c r="Z586" s="4"/>
+      <c r="AA586" s="4"/>
     </row>
     <row r="587">
       <c r="A587" s="4"/>
@@ -16862,6 +17479,7 @@
       <c r="X587" s="4"/>
       <c r="Y587" s="4"/>
       <c r="Z587" s="4"/>
+      <c r="AA587" s="4"/>
     </row>
     <row r="588">
       <c r="A588" s="4"/>
@@ -16890,6 +17508,7 @@
       <c r="X588" s="4"/>
       <c r="Y588" s="4"/>
       <c r="Z588" s="4"/>
+      <c r="AA588" s="4"/>
     </row>
     <row r="589">
       <c r="A589" s="4"/>
@@ -16918,6 +17537,7 @@
       <c r="X589" s="4"/>
       <c r="Y589" s="4"/>
       <c r="Z589" s="4"/>
+      <c r="AA589" s="4"/>
     </row>
     <row r="590">
       <c r="A590" s="4"/>
@@ -16946,6 +17566,7 @@
       <c r="X590" s="4"/>
       <c r="Y590" s="4"/>
       <c r="Z590" s="4"/>
+      <c r="AA590" s="4"/>
     </row>
     <row r="591">
       <c r="A591" s="4"/>
@@ -16974,6 +17595,7 @@
       <c r="X591" s="4"/>
       <c r="Y591" s="4"/>
       <c r="Z591" s="4"/>
+      <c r="AA591" s="4"/>
     </row>
     <row r="592">
       <c r="A592" s="4"/>
@@ -17002,6 +17624,7 @@
       <c r="X592" s="4"/>
       <c r="Y592" s="4"/>
       <c r="Z592" s="4"/>
+      <c r="AA592" s="4"/>
     </row>
     <row r="593">
       <c r="A593" s="4"/>
@@ -17030,6 +17653,7 @@
       <c r="X593" s="4"/>
       <c r="Y593" s="4"/>
       <c r="Z593" s="4"/>
+      <c r="AA593" s="4"/>
     </row>
     <row r="594">
       <c r="A594" s="4"/>
@@ -17058,6 +17682,7 @@
       <c r="X594" s="4"/>
       <c r="Y594" s="4"/>
       <c r="Z594" s="4"/>
+      <c r="AA594" s="4"/>
     </row>
     <row r="595">
       <c r="A595" s="4"/>
@@ -17086,6 +17711,7 @@
       <c r="X595" s="4"/>
       <c r="Y595" s="4"/>
       <c r="Z595" s="4"/>
+      <c r="AA595" s="4"/>
     </row>
     <row r="596">
       <c r="A596" s="4"/>
@@ -17114,6 +17740,7 @@
       <c r="X596" s="4"/>
       <c r="Y596" s="4"/>
       <c r="Z596" s="4"/>
+      <c r="AA596" s="4"/>
     </row>
     <row r="597">
       <c r="A597" s="4"/>
@@ -17142,6 +17769,7 @@
       <c r="X597" s="4"/>
       <c r="Y597" s="4"/>
       <c r="Z597" s="4"/>
+      <c r="AA597" s="4"/>
     </row>
     <row r="598">
       <c r="A598" s="4"/>
@@ -17170,6 +17798,7 @@
       <c r="X598" s="4"/>
       <c r="Y598" s="4"/>
       <c r="Z598" s="4"/>
+      <c r="AA598" s="4"/>
     </row>
     <row r="599">
       <c r="A599" s="4"/>
@@ -17198,6 +17827,7 @@
       <c r="X599" s="4"/>
       <c r="Y599" s="4"/>
       <c r="Z599" s="4"/>
+      <c r="AA599" s="4"/>
     </row>
     <row r="600">
       <c r="A600" s="4"/>
@@ -17226,6 +17856,7 @@
       <c r="X600" s="4"/>
       <c r="Y600" s="4"/>
       <c r="Z600" s="4"/>
+      <c r="AA600" s="4"/>
     </row>
     <row r="601">
       <c r="A601" s="4"/>
@@ -17254,6 +17885,7 @@
       <c r="X601" s="4"/>
       <c r="Y601" s="4"/>
       <c r="Z601" s="4"/>
+      <c r="AA601" s="4"/>
     </row>
     <row r="602">
       <c r="A602" s="4"/>
@@ -17282,6 +17914,7 @@
       <c r="X602" s="4"/>
       <c r="Y602" s="4"/>
       <c r="Z602" s="4"/>
+      <c r="AA602" s="4"/>
     </row>
     <row r="603">
       <c r="A603" s="4"/>
@@ -17310,6 +17943,7 @@
       <c r="X603" s="4"/>
       <c r="Y603" s="4"/>
       <c r="Z603" s="4"/>
+      <c r="AA603" s="4"/>
     </row>
     <row r="604">
       <c r="A604" s="4"/>
@@ -17338,6 +17972,7 @@
       <c r="X604" s="4"/>
       <c r="Y604" s="4"/>
       <c r="Z604" s="4"/>
+      <c r="AA604" s="4"/>
     </row>
     <row r="605">
       <c r="A605" s="4"/>
@@ -17366,6 +18001,7 @@
       <c r="X605" s="4"/>
       <c r="Y605" s="4"/>
       <c r="Z605" s="4"/>
+      <c r="AA605" s="4"/>
     </row>
     <row r="606">
       <c r="A606" s="4"/>
@@ -17394,6 +18030,7 @@
       <c r="X606" s="4"/>
       <c r="Y606" s="4"/>
       <c r="Z606" s="4"/>
+      <c r="AA606" s="4"/>
     </row>
     <row r="607">
       <c r="A607" s="4"/>
@@ -17422,6 +18059,7 @@
       <c r="X607" s="4"/>
       <c r="Y607" s="4"/>
       <c r="Z607" s="4"/>
+      <c r="AA607" s="4"/>
     </row>
     <row r="608">
       <c r="A608" s="4"/>
@@ -17450,6 +18088,7 @@
       <c r="X608" s="4"/>
       <c r="Y608" s="4"/>
       <c r="Z608" s="4"/>
+      <c r="AA608" s="4"/>
     </row>
     <row r="609">
       <c r="A609" s="4"/>
@@ -17478,6 +18117,7 @@
       <c r="X609" s="4"/>
       <c r="Y609" s="4"/>
       <c r="Z609" s="4"/>
+      <c r="AA609" s="4"/>
     </row>
     <row r="610">
       <c r="A610" s="4"/>
@@ -17506,6 +18146,7 @@
       <c r="X610" s="4"/>
       <c r="Y610" s="4"/>
       <c r="Z610" s="4"/>
+      <c r="AA610" s="4"/>
     </row>
     <row r="611">
       <c r="A611" s="4"/>
@@ -17534,6 +18175,7 @@
       <c r="X611" s="4"/>
       <c r="Y611" s="4"/>
       <c r="Z611" s="4"/>
+      <c r="AA611" s="4"/>
     </row>
     <row r="612">
       <c r="A612" s="4"/>
@@ -17562,6 +18204,7 @@
       <c r="X612" s="4"/>
       <c r="Y612" s="4"/>
       <c r="Z612" s="4"/>
+      <c r="AA612" s="4"/>
     </row>
     <row r="613">
       <c r="A613" s="4"/>
@@ -17590,6 +18233,7 @@
       <c r="X613" s="4"/>
       <c r="Y613" s="4"/>
       <c r="Z613" s="4"/>
+      <c r="AA613" s="4"/>
     </row>
     <row r="614">
       <c r="A614" s="4"/>
@@ -17618,6 +18262,7 @@
       <c r="X614" s="4"/>
       <c r="Y614" s="4"/>
       <c r="Z614" s="4"/>
+      <c r="AA614" s="4"/>
     </row>
     <row r="615">
       <c r="A615" s="4"/>
@@ -17646,6 +18291,7 @@
       <c r="X615" s="4"/>
       <c r="Y615" s="4"/>
       <c r="Z615" s="4"/>
+      <c r="AA615" s="4"/>
     </row>
     <row r="616">
       <c r="A616" s="4"/>
@@ -17674,6 +18320,7 @@
       <c r="X616" s="4"/>
       <c r="Y616" s="4"/>
       <c r="Z616" s="4"/>
+      <c r="AA616" s="4"/>
     </row>
     <row r="617">
       <c r="A617" s="4"/>
@@ -17702,6 +18349,7 @@
       <c r="X617" s="4"/>
       <c r="Y617" s="4"/>
       <c r="Z617" s="4"/>
+      <c r="AA617" s="4"/>
     </row>
     <row r="618">
       <c r="A618" s="4"/>
@@ -17730,6 +18378,7 @@
       <c r="X618" s="4"/>
       <c r="Y618" s="4"/>
       <c r="Z618" s="4"/>
+      <c r="AA618" s="4"/>
     </row>
     <row r="619">
       <c r="A619" s="4"/>
@@ -17758,6 +18407,7 @@
       <c r="X619" s="4"/>
       <c r="Y619" s="4"/>
       <c r="Z619" s="4"/>
+      <c r="AA619" s="4"/>
     </row>
     <row r="620">
       <c r="A620" s="4"/>
@@ -17786,6 +18436,7 @@
       <c r="X620" s="4"/>
       <c r="Y620" s="4"/>
       <c r="Z620" s="4"/>
+      <c r="AA620" s="4"/>
     </row>
     <row r="621">
       <c r="A621" s="4"/>
@@ -17814,6 +18465,7 @@
       <c r="X621" s="4"/>
       <c r="Y621" s="4"/>
       <c r="Z621" s="4"/>
+      <c r="AA621" s="4"/>
     </row>
     <row r="622">
       <c r="A622" s="4"/>
@@ -17842,6 +18494,7 @@
       <c r="X622" s="4"/>
       <c r="Y622" s="4"/>
       <c r="Z622" s="4"/>
+      <c r="AA622" s="4"/>
     </row>
     <row r="623">
       <c r="A623" s="4"/>
@@ -17870,6 +18523,7 @@
       <c r="X623" s="4"/>
       <c r="Y623" s="4"/>
       <c r="Z623" s="4"/>
+      <c r="AA623" s="4"/>
     </row>
     <row r="624">
       <c r="A624" s="4"/>
@@ -17898,6 +18552,7 @@
       <c r="X624" s="4"/>
       <c r="Y624" s="4"/>
       <c r="Z624" s="4"/>
+      <c r="AA624" s="4"/>
     </row>
     <row r="625">
       <c r="A625" s="4"/>
@@ -17926,6 +18581,7 @@
       <c r="X625" s="4"/>
       <c r="Y625" s="4"/>
       <c r="Z625" s="4"/>
+      <c r="AA625" s="4"/>
     </row>
     <row r="626">
       <c r="A626" s="4"/>
@@ -17954,6 +18610,7 @@
       <c r="X626" s="4"/>
       <c r="Y626" s="4"/>
       <c r="Z626" s="4"/>
+      <c r="AA626" s="4"/>
     </row>
     <row r="627">
       <c r="A627" s="4"/>
@@ -17982,6 +18639,7 @@
       <c r="X627" s="4"/>
       <c r="Y627" s="4"/>
       <c r="Z627" s="4"/>
+      <c r="AA627" s="4"/>
     </row>
     <row r="628">
       <c r="A628" s="4"/>
@@ -18010,6 +18668,7 @@
       <c r="X628" s="4"/>
       <c r="Y628" s="4"/>
       <c r="Z628" s="4"/>
+      <c r="AA628" s="4"/>
     </row>
     <row r="629">
       <c r="A629" s="4"/>
@@ -18038,6 +18697,7 @@
       <c r="X629" s="4"/>
       <c r="Y629" s="4"/>
       <c r="Z629" s="4"/>
+      <c r="AA629" s="4"/>
     </row>
     <row r="630">
       <c r="A630" s="4"/>
@@ -18066,6 +18726,7 @@
       <c r="X630" s="4"/>
       <c r="Y630" s="4"/>
       <c r="Z630" s="4"/>
+      <c r="AA630" s="4"/>
     </row>
     <row r="631">
       <c r="A631" s="4"/>
@@ -18094,6 +18755,7 @@
       <c r="X631" s="4"/>
       <c r="Y631" s="4"/>
       <c r="Z631" s="4"/>
+      <c r="AA631" s="4"/>
     </row>
     <row r="632">
       <c r="A632" s="4"/>
@@ -18122,6 +18784,7 @@
       <c r="X632" s="4"/>
       <c r="Y632" s="4"/>
       <c r="Z632" s="4"/>
+      <c r="AA632" s="4"/>
     </row>
     <row r="633">
       <c r="A633" s="4"/>
@@ -18150,6 +18813,7 @@
       <c r="X633" s="4"/>
       <c r="Y633" s="4"/>
       <c r="Z633" s="4"/>
+      <c r="AA633" s="4"/>
     </row>
     <row r="634">
       <c r="A634" s="4"/>
@@ -18178,6 +18842,7 @@
       <c r="X634" s="4"/>
       <c r="Y634" s="4"/>
       <c r="Z634" s="4"/>
+      <c r="AA634" s="4"/>
     </row>
     <row r="635">
       <c r="A635" s="4"/>
@@ -18206,6 +18871,7 @@
       <c r="X635" s="4"/>
       <c r="Y635" s="4"/>
       <c r="Z635" s="4"/>
+      <c r="AA635" s="4"/>
     </row>
     <row r="636">
       <c r="A636" s="4"/>
@@ -18234,6 +18900,7 @@
       <c r="X636" s="4"/>
       <c r="Y636" s="4"/>
       <c r="Z636" s="4"/>
+      <c r="AA636" s="4"/>
     </row>
     <row r="637">
       <c r="A637" s="4"/>
@@ -18262,6 +18929,7 @@
       <c r="X637" s="4"/>
       <c r="Y637" s="4"/>
       <c r="Z637" s="4"/>
+      <c r="AA637" s="4"/>
     </row>
     <row r="638">
       <c r="A638" s="4"/>
@@ -18290,6 +18958,7 @@
       <c r="X638" s="4"/>
       <c r="Y638" s="4"/>
       <c r="Z638" s="4"/>
+      <c r="AA638" s="4"/>
     </row>
     <row r="639">
       <c r="A639" s="4"/>
@@ -18318,6 +18987,7 @@
       <c r="X639" s="4"/>
       <c r="Y639" s="4"/>
       <c r="Z639" s="4"/>
+      <c r="AA639" s="4"/>
     </row>
     <row r="640">
       <c r="A640" s="4"/>
@@ -18346,6 +19016,7 @@
       <c r="X640" s="4"/>
       <c r="Y640" s="4"/>
       <c r="Z640" s="4"/>
+      <c r="AA640" s="4"/>
     </row>
     <row r="641">
       <c r="A641" s="4"/>
@@ -18374,6 +19045,7 @@
       <c r="X641" s="4"/>
       <c r="Y641" s="4"/>
       <c r="Z641" s="4"/>
+      <c r="AA641" s="4"/>
     </row>
     <row r="642">
       <c r="A642" s="4"/>
@@ -18402,6 +19074,7 @@
       <c r="X642" s="4"/>
       <c r="Y642" s="4"/>
       <c r="Z642" s="4"/>
+      <c r="AA642" s="4"/>
     </row>
     <row r="643">
       <c r="A643" s="4"/>
@@ -18430,6 +19103,7 @@
       <c r="X643" s="4"/>
       <c r="Y643" s="4"/>
       <c r="Z643" s="4"/>
+      <c r="AA643" s="4"/>
     </row>
     <row r="644">
       <c r="A644" s="4"/>
@@ -18458,6 +19132,7 @@
       <c r="X644" s="4"/>
       <c r="Y644" s="4"/>
       <c r="Z644" s="4"/>
+      <c r="AA644" s="4"/>
     </row>
     <row r="645">
       <c r="A645" s="4"/>
@@ -18486,6 +19161,7 @@
       <c r="X645" s="4"/>
       <c r="Y645" s="4"/>
       <c r="Z645" s="4"/>
+      <c r="AA645" s="4"/>
     </row>
     <row r="646">
       <c r="A646" s="4"/>
@@ -18514,6 +19190,7 @@
       <c r="X646" s="4"/>
       <c r="Y646" s="4"/>
       <c r="Z646" s="4"/>
+      <c r="AA646" s="4"/>
     </row>
     <row r="647">
       <c r="A647" s="4"/>
@@ -18542,6 +19219,7 @@
       <c r="X647" s="4"/>
       <c r="Y647" s="4"/>
       <c r="Z647" s="4"/>
+      <c r="AA647" s="4"/>
     </row>
     <row r="648">
       <c r="A648" s="4"/>
@@ -18570,6 +19248,7 @@
       <c r="X648" s="4"/>
       <c r="Y648" s="4"/>
       <c r="Z648" s="4"/>
+      <c r="AA648" s="4"/>
     </row>
     <row r="649">
       <c r="A649" s="4"/>
@@ -18598,6 +19277,7 @@
       <c r="X649" s="4"/>
       <c r="Y649" s="4"/>
       <c r="Z649" s="4"/>
+      <c r="AA649" s="4"/>
     </row>
     <row r="650">
       <c r="A650" s="4"/>
@@ -18626,6 +19306,7 @@
       <c r="X650" s="4"/>
       <c r="Y650" s="4"/>
       <c r="Z650" s="4"/>
+      <c r="AA650" s="4"/>
     </row>
     <row r="651">
       <c r="A651" s="4"/>
@@ -18654,6 +19335,7 @@
       <c r="X651" s="4"/>
       <c r="Y651" s="4"/>
       <c r="Z651" s="4"/>
+      <c r="AA651" s="4"/>
     </row>
     <row r="652">
       <c r="A652" s="4"/>
@@ -18682,6 +19364,7 @@
       <c r="X652" s="4"/>
       <c r="Y652" s="4"/>
       <c r="Z652" s="4"/>
+      <c r="AA652" s="4"/>
     </row>
     <row r="653">
       <c r="A653" s="4"/>
@@ -18710,6 +19393,7 @@
       <c r="X653" s="4"/>
       <c r="Y653" s="4"/>
       <c r="Z653" s="4"/>
+      <c r="AA653" s="4"/>
     </row>
     <row r="654">
       <c r="A654" s="4"/>
@@ -18738,6 +19422,7 @@
       <c r="X654" s="4"/>
       <c r="Y654" s="4"/>
       <c r="Z654" s="4"/>
+      <c r="AA654" s="4"/>
     </row>
     <row r="655">
       <c r="A655" s="4"/>
@@ -18766,6 +19451,7 @@
       <c r="X655" s="4"/>
       <c r="Y655" s="4"/>
       <c r="Z655" s="4"/>
+      <c r="AA655" s="4"/>
     </row>
     <row r="656">
       <c r="A656" s="4"/>
@@ -18794,6 +19480,7 @@
       <c r="X656" s="4"/>
       <c r="Y656" s="4"/>
       <c r="Z656" s="4"/>
+      <c r="AA656" s="4"/>
     </row>
     <row r="657">
       <c r="A657" s="4"/>
@@ -18822,6 +19509,7 @@
       <c r="X657" s="4"/>
       <c r="Y657" s="4"/>
       <c r="Z657" s="4"/>
+      <c r="AA657" s="4"/>
     </row>
     <row r="658">
       <c r="A658" s="4"/>
@@ -18850,6 +19538,7 @@
       <c r="X658" s="4"/>
       <c r="Y658" s="4"/>
       <c r="Z658" s="4"/>
+      <c r="AA658" s="4"/>
     </row>
     <row r="659">
       <c r="A659" s="4"/>
@@ -18878,6 +19567,7 @@
       <c r="X659" s="4"/>
       <c r="Y659" s="4"/>
       <c r="Z659" s="4"/>
+      <c r="AA659" s="4"/>
     </row>
     <row r="660">
       <c r="A660" s="4"/>
@@ -18906,6 +19596,7 @@
       <c r="X660" s="4"/>
       <c r="Y660" s="4"/>
       <c r="Z660" s="4"/>
+      <c r="AA660" s="4"/>
     </row>
     <row r="661">
       <c r="A661" s="4"/>
@@ -18934,6 +19625,7 @@
       <c r="X661" s="4"/>
       <c r="Y661" s="4"/>
       <c r="Z661" s="4"/>
+      <c r="AA661" s="4"/>
     </row>
     <row r="662">
       <c r="A662" s="4"/>
@@ -18962,6 +19654,7 @@
       <c r="X662" s="4"/>
       <c r="Y662" s="4"/>
       <c r="Z662" s="4"/>
+      <c r="AA662" s="4"/>
     </row>
     <row r="663">
       <c r="A663" s="4"/>
@@ -18990,6 +19683,7 @@
       <c r="X663" s="4"/>
       <c r="Y663" s="4"/>
       <c r="Z663" s="4"/>
+      <c r="AA663" s="4"/>
     </row>
     <row r="664">
       <c r="A664" s="4"/>
@@ -19018,6 +19712,7 @@
       <c r="X664" s="4"/>
       <c r="Y664" s="4"/>
       <c r="Z664" s="4"/>
+      <c r="AA664" s="4"/>
     </row>
     <row r="665">
       <c r="A665" s="4"/>
@@ -19046,6 +19741,7 @@
       <c r="X665" s="4"/>
       <c r="Y665" s="4"/>
       <c r="Z665" s="4"/>
+      <c r="AA665" s="4"/>
     </row>
     <row r="666">
       <c r="A666" s="4"/>
@@ -19074,6 +19770,7 @@
       <c r="X666" s="4"/>
       <c r="Y666" s="4"/>
       <c r="Z666" s="4"/>
+      <c r="AA666" s="4"/>
     </row>
     <row r="667">
       <c r="A667" s="4"/>
@@ -19102,6 +19799,7 @@
       <c r="X667" s="4"/>
       <c r="Y667" s="4"/>
       <c r="Z667" s="4"/>
+      <c r="AA667" s="4"/>
     </row>
     <row r="668">
       <c r="A668" s="4"/>
@@ -19130,6 +19828,7 @@
       <c r="X668" s="4"/>
       <c r="Y668" s="4"/>
       <c r="Z668" s="4"/>
+      <c r="AA668" s="4"/>
     </row>
     <row r="669">
       <c r="A669" s="4"/>
@@ -19158,6 +19857,7 @@
       <c r="X669" s="4"/>
       <c r="Y669" s="4"/>
       <c r="Z669" s="4"/>
+      <c r="AA669" s="4"/>
     </row>
     <row r="670">
       <c r="A670" s="4"/>
@@ -19186,6 +19886,7 @@
       <c r="X670" s="4"/>
       <c r="Y670" s="4"/>
       <c r="Z670" s="4"/>
+      <c r="AA670" s="4"/>
     </row>
     <row r="671">
       <c r="A671" s="4"/>
@@ -19214,6 +19915,7 @@
       <c r="X671" s="4"/>
       <c r="Y671" s="4"/>
       <c r="Z671" s="4"/>
+      <c r="AA671" s="4"/>
     </row>
     <row r="672">
       <c r="A672" s="4"/>
@@ -19242,6 +19944,7 @@
       <c r="X672" s="4"/>
       <c r="Y672" s="4"/>
       <c r="Z672" s="4"/>
+      <c r="AA672" s="4"/>
     </row>
     <row r="673">
       <c r="A673" s="4"/>
@@ -19270,6 +19973,7 @@
       <c r="X673" s="4"/>
       <c r="Y673" s="4"/>
       <c r="Z673" s="4"/>
+      <c r="AA673" s="4"/>
     </row>
     <row r="674">
       <c r="A674" s="4"/>
@@ -19298,6 +20002,7 @@
       <c r="X674" s="4"/>
       <c r="Y674" s="4"/>
       <c r="Z674" s="4"/>
+      <c r="AA674" s="4"/>
     </row>
     <row r="675">
       <c r="A675" s="4"/>
@@ -19326,6 +20031,7 @@
       <c r="X675" s="4"/>
       <c r="Y675" s="4"/>
       <c r="Z675" s="4"/>
+      <c r="AA675" s="4"/>
     </row>
     <row r="676">
       <c r="A676" s="4"/>
@@ -19354,6 +20060,7 @@
       <c r="X676" s="4"/>
       <c r="Y676" s="4"/>
       <c r="Z676" s="4"/>
+      <c r="AA676" s="4"/>
     </row>
     <row r="677">
       <c r="A677" s="4"/>
@@ -19382,6 +20089,7 @@
       <c r="X677" s="4"/>
       <c r="Y677" s="4"/>
       <c r="Z677" s="4"/>
+      <c r="AA677" s="4"/>
     </row>
     <row r="678">
       <c r="A678" s="4"/>
@@ -19410,6 +20118,7 @@
       <c r="X678" s="4"/>
       <c r="Y678" s="4"/>
       <c r="Z678" s="4"/>
+      <c r="AA678" s="4"/>
     </row>
     <row r="679">
       <c r="A679" s="4"/>
@@ -19438,6 +20147,7 @@
       <c r="X679" s="4"/>
       <c r="Y679" s="4"/>
       <c r="Z679" s="4"/>
+      <c r="AA679" s="4"/>
     </row>
     <row r="680">
       <c r="A680" s="4"/>
@@ -19466,6 +20176,7 @@
       <c r="X680" s="4"/>
       <c r="Y680" s="4"/>
       <c r="Z680" s="4"/>
+      <c r="AA680" s="4"/>
     </row>
     <row r="681">
       <c r="A681" s="4"/>
@@ -19494,6 +20205,7 @@
       <c r="X681" s="4"/>
       <c r="Y681" s="4"/>
       <c r="Z681" s="4"/>
+      <c r="AA681" s="4"/>
     </row>
     <row r="682">
       <c r="A682" s="4"/>
@@ -19522,6 +20234,7 @@
       <c r="X682" s="4"/>
       <c r="Y682" s="4"/>
       <c r="Z682" s="4"/>
+      <c r="AA682" s="4"/>
     </row>
     <row r="683">
       <c r="A683" s="4"/>
@@ -19550,6 +20263,7 @@
       <c r="X683" s="4"/>
       <c r="Y683" s="4"/>
       <c r="Z683" s="4"/>
+      <c r="AA683" s="4"/>
     </row>
     <row r="684">
       <c r="A684" s="4"/>
@@ -19578,6 +20292,7 @@
       <c r="X684" s="4"/>
       <c r="Y684" s="4"/>
       <c r="Z684" s="4"/>
+      <c r="AA684" s="4"/>
     </row>
     <row r="685">
       <c r="A685" s="4"/>
@@ -19606,6 +20321,7 @@
       <c r="X685" s="4"/>
       <c r="Y685" s="4"/>
       <c r="Z685" s="4"/>
+      <c r="AA685" s="4"/>
     </row>
     <row r="686">
       <c r="A686" s="4"/>
@@ -19634,6 +20350,7 @@
       <c r="X686" s="4"/>
       <c r="Y686" s="4"/>
       <c r="Z686" s="4"/>
+      <c r="AA686" s="4"/>
     </row>
     <row r="687">
       <c r="A687" s="4"/>
@@ -19662,6 +20379,7 @@
       <c r="X687" s="4"/>
       <c r="Y687" s="4"/>
       <c r="Z687" s="4"/>
+      <c r="AA687" s="4"/>
     </row>
     <row r="688">
       <c r="A688" s="4"/>
@@ -19690,6 +20408,7 @@
       <c r="X688" s="4"/>
       <c r="Y688" s="4"/>
       <c r="Z688" s="4"/>
+      <c r="AA688" s="4"/>
     </row>
     <row r="689">
       <c r="A689" s="4"/>
@@ -19718,6 +20437,7 @@
       <c r="X689" s="4"/>
       <c r="Y689" s="4"/>
       <c r="Z689" s="4"/>
+      <c r="AA689" s="4"/>
     </row>
     <row r="690">
       <c r="A690" s="4"/>
@@ -19746,6 +20466,7 @@
       <c r="X690" s="4"/>
       <c r="Y690" s="4"/>
       <c r="Z690" s="4"/>
+      <c r="AA690" s="4"/>
     </row>
     <row r="691">
       <c r="A691" s="4"/>
@@ -19774,6 +20495,7 @@
       <c r="X691" s="4"/>
       <c r="Y691" s="4"/>
       <c r="Z691" s="4"/>
+      <c r="AA691" s="4"/>
     </row>
     <row r="692">
       <c r="A692" s="4"/>
@@ -19802,6 +20524,7 @@
       <c r="X692" s="4"/>
       <c r="Y692" s="4"/>
       <c r="Z692" s="4"/>
+      <c r="AA692" s="4"/>
     </row>
     <row r="693">
       <c r="A693" s="4"/>
@@ -19830,6 +20553,7 @@
       <c r="X693" s="4"/>
       <c r="Y693" s="4"/>
       <c r="Z693" s="4"/>
+      <c r="AA693" s="4"/>
     </row>
     <row r="694">
       <c r="A694" s="4"/>
@@ -19858,6 +20582,7 @@
       <c r="X694" s="4"/>
       <c r="Y694" s="4"/>
       <c r="Z694" s="4"/>
+      <c r="AA694" s="4"/>
     </row>
     <row r="695">
       <c r="A695" s="4"/>
@@ -19886,6 +20611,7 @@
       <c r="X695" s="4"/>
       <c r="Y695" s="4"/>
       <c r="Z695" s="4"/>
+      <c r="AA695" s="4"/>
     </row>
     <row r="696">
       <c r="A696" s="4"/>
@@ -19914,6 +20640,7 @@
       <c r="X696" s="4"/>
       <c r="Y696" s="4"/>
       <c r="Z696" s="4"/>
+      <c r="AA696" s="4"/>
     </row>
     <row r="697">
       <c r="A697" s="4"/>
@@ -19942,6 +20669,7 @@
       <c r="X697" s="4"/>
       <c r="Y697" s="4"/>
       <c r="Z697" s="4"/>
+      <c r="AA697" s="4"/>
     </row>
     <row r="698">
       <c r="A698" s="4"/>
@@ -19970,6 +20698,7 @@
       <c r="X698" s="4"/>
       <c r="Y698" s="4"/>
       <c r="Z698" s="4"/>
+      <c r="AA698" s="4"/>
     </row>
     <row r="699">
       <c r="A699" s="4"/>
@@ -19998,6 +20727,7 @@
       <c r="X699" s="4"/>
       <c r="Y699" s="4"/>
       <c r="Z699" s="4"/>
+      <c r="AA699" s="4"/>
     </row>
     <row r="700">
       <c r="A700" s="4"/>
@@ -20026,6 +20756,7 @@
       <c r="X700" s="4"/>
       <c r="Y700" s="4"/>
       <c r="Z700" s="4"/>
+      <c r="AA700" s="4"/>
     </row>
     <row r="701">
       <c r="A701" s="4"/>
@@ -20054,6 +20785,7 @@
       <c r="X701" s="4"/>
       <c r="Y701" s="4"/>
       <c r="Z701" s="4"/>
+      <c r="AA701" s="4"/>
     </row>
     <row r="702">
       <c r="A702" s="4"/>
@@ -20082,6 +20814,7 @@
       <c r="X702" s="4"/>
       <c r="Y702" s="4"/>
       <c r="Z702" s="4"/>
+      <c r="AA702" s="4"/>
     </row>
     <row r="703">
       <c r="A703" s="4"/>
@@ -20110,6 +20843,7 @@
       <c r="X703" s="4"/>
       <c r="Y703" s="4"/>
       <c r="Z703" s="4"/>
+      <c r="AA703" s="4"/>
     </row>
     <row r="704">
       <c r="A704" s="4"/>
@@ -20138,6 +20872,7 @@
       <c r="X704" s="4"/>
       <c r="Y704" s="4"/>
       <c r="Z704" s="4"/>
+      <c r="AA704" s="4"/>
     </row>
     <row r="705">
       <c r="A705" s="4"/>
@@ -20166,6 +20901,7 @@
       <c r="X705" s="4"/>
       <c r="Y705" s="4"/>
       <c r="Z705" s="4"/>
+      <c r="AA705" s="4"/>
     </row>
     <row r="706">
       <c r="A706" s="4"/>
@@ -20194,6 +20930,7 @@
       <c r="X706" s="4"/>
       <c r="Y706" s="4"/>
       <c r="Z706" s="4"/>
+      <c r="AA706" s="4"/>
     </row>
     <row r="707">
       <c r="A707" s="4"/>
@@ -20222,6 +20959,7 @@
       <c r="X707" s="4"/>
       <c r="Y707" s="4"/>
       <c r="Z707" s="4"/>
+      <c r="AA707" s="4"/>
     </row>
     <row r="708">
       <c r="A708" s="4"/>
@@ -20250,6 +20988,7 @@
       <c r="X708" s="4"/>
       <c r="Y708" s="4"/>
       <c r="Z708" s="4"/>
+      <c r="AA708" s="4"/>
     </row>
     <row r="709">
       <c r="A709" s="4"/>
@@ -20278,6 +21017,7 @@
       <c r="X709" s="4"/>
       <c r="Y709" s="4"/>
       <c r="Z709" s="4"/>
+      <c r="AA709" s="4"/>
     </row>
     <row r="710">
       <c r="A710" s="4"/>
@@ -20306,6 +21046,7 @@
       <c r="X710" s="4"/>
       <c r="Y710" s="4"/>
       <c r="Z710" s="4"/>
+      <c r="AA710" s="4"/>
     </row>
     <row r="711">
       <c r="A711" s="4"/>
@@ -20334,6 +21075,7 @@
       <c r="X711" s="4"/>
       <c r="Y711" s="4"/>
       <c r="Z711" s="4"/>
+      <c r="AA711" s="4"/>
     </row>
     <row r="712">
       <c r="A712" s="4"/>
@@ -20362,6 +21104,7 @@
       <c r="X712" s="4"/>
       <c r="Y712" s="4"/>
       <c r="Z712" s="4"/>
+      <c r="AA712" s="4"/>
     </row>
     <row r="713">
       <c r="A713" s="4"/>
@@ -20390,6 +21133,7 @@
       <c r="X713" s="4"/>
       <c r="Y713" s="4"/>
       <c r="Z713" s="4"/>
+      <c r="AA713" s="4"/>
     </row>
     <row r="714">
       <c r="A714" s="4"/>
@@ -20418,6 +21162,7 @@
       <c r="X714" s="4"/>
       <c r="Y714" s="4"/>
       <c r="Z714" s="4"/>
+      <c r="AA714" s="4"/>
     </row>
     <row r="715">
       <c r="A715" s="4"/>
@@ -20446,6 +21191,7 @@
       <c r="X715" s="4"/>
       <c r="Y715" s="4"/>
       <c r="Z715" s="4"/>
+      <c r="AA715" s="4"/>
     </row>
     <row r="716">
       <c r="A716" s="4"/>
@@ -20474,6 +21220,7 @@
       <c r="X716" s="4"/>
       <c r="Y716" s="4"/>
       <c r="Z716" s="4"/>
+      <c r="AA716" s="4"/>
     </row>
     <row r="717">
       <c r="A717" s="4"/>
@@ -20502,6 +21249,7 @@
       <c r="X717" s="4"/>
       <c r="Y717" s="4"/>
       <c r="Z717" s="4"/>
+      <c r="AA717" s="4"/>
     </row>
     <row r="718">
       <c r="A718" s="4"/>
@@ -20530,6 +21278,7 @@
       <c r="X718" s="4"/>
       <c r="Y718" s="4"/>
       <c r="Z718" s="4"/>
+      <c r="AA718" s="4"/>
     </row>
     <row r="719">
       <c r="A719" s="4"/>
@@ -20558,6 +21307,7 @@
       <c r="X719" s="4"/>
       <c r="Y719" s="4"/>
       <c r="Z719" s="4"/>
+      <c r="AA719" s="4"/>
     </row>
     <row r="720">
       <c r="A720" s="4"/>
@@ -20586,6 +21336,7 @@
       <c r="X720" s="4"/>
       <c r="Y720" s="4"/>
       <c r="Z720" s="4"/>
+      <c r="AA720" s="4"/>
     </row>
     <row r="721">
       <c r="A721" s="4"/>
@@ -20614,6 +21365,7 @@
       <c r="X721" s="4"/>
       <c r="Y721" s="4"/>
       <c r="Z721" s="4"/>
+      <c r="AA721" s="4"/>
     </row>
     <row r="722">
       <c r="A722" s="4"/>
@@ -20642,6 +21394,7 @@
       <c r="X722" s="4"/>
       <c r="Y722" s="4"/>
       <c r="Z722" s="4"/>
+      <c r="AA722" s="4"/>
     </row>
     <row r="723">
       <c r="A723" s="4"/>
@@ -20670,6 +21423,7 @@
       <c r="X723" s="4"/>
       <c r="Y723" s="4"/>
       <c r="Z723" s="4"/>
+      <c r="AA723" s="4"/>
     </row>
     <row r="724">
       <c r="A724" s="4"/>
@@ -20698,6 +21452,7 @@
       <c r="X724" s="4"/>
       <c r="Y724" s="4"/>
       <c r="Z724" s="4"/>
+      <c r="AA724" s="4"/>
     </row>
     <row r="725">
       <c r="A725" s="4"/>
@@ -20726,6 +21481,7 @@
       <c r="X725" s="4"/>
       <c r="Y725" s="4"/>
       <c r="Z725" s="4"/>
+      <c r="AA725" s="4"/>
     </row>
     <row r="726">
       <c r="A726" s="4"/>
@@ -20754,6 +21510,7 @@
       <c r="X726" s="4"/>
       <c r="Y726" s="4"/>
       <c r="Z726" s="4"/>
+      <c r="AA726" s="4"/>
     </row>
     <row r="727">
       <c r="A727" s="4"/>
@@ -20782,6 +21539,7 @@
       <c r="X727" s="4"/>
       <c r="Y727" s="4"/>
       <c r="Z727" s="4"/>
+      <c r="AA727" s="4"/>
     </row>
     <row r="728">
       <c r="A728" s="4"/>
@@ -20810,6 +21568,7 @@
       <c r="X728" s="4"/>
       <c r="Y728" s="4"/>
       <c r="Z728" s="4"/>
+      <c r="AA728" s="4"/>
     </row>
     <row r="729">
       <c r="A729" s="4"/>
@@ -20838,6 +21597,7 @@
       <c r="X729" s="4"/>
       <c r="Y729" s="4"/>
       <c r="Z729" s="4"/>
+      <c r="AA729" s="4"/>
     </row>
     <row r="730">
       <c r="A730" s="4"/>
@@ -20866,6 +21626,7 @@
       <c r="X730" s="4"/>
       <c r="Y730" s="4"/>
       <c r="Z730" s="4"/>
+      <c r="AA730" s="4"/>
     </row>
     <row r="731">
       <c r="A731" s="4"/>
@@ -20894,6 +21655,7 @@
       <c r="X731" s="4"/>
       <c r="Y731" s="4"/>
       <c r="Z731" s="4"/>
+      <c r="AA731" s="4"/>
     </row>
     <row r="732">
       <c r="A732" s="4"/>
@@ -20922,6 +21684,7 @@
       <c r="X732" s="4"/>
       <c r="Y732" s="4"/>
       <c r="Z732" s="4"/>
+      <c r="AA732" s="4"/>
     </row>
     <row r="733">
       <c r="A733" s="4"/>
@@ -20950,6 +21713,7 @@
       <c r="X733" s="4"/>
       <c r="Y733" s="4"/>
       <c r="Z733" s="4"/>
+      <c r="AA733" s="4"/>
     </row>
     <row r="734">
       <c r="A734" s="4"/>
@@ -20978,6 +21742,7 @@
       <c r="X734" s="4"/>
       <c r="Y734" s="4"/>
       <c r="Z734" s="4"/>
+      <c r="AA734" s="4"/>
     </row>
     <row r="735">
       <c r="A735" s="4"/>
@@ -21006,6 +21771,7 @@
       <c r="X735" s="4"/>
       <c r="Y735" s="4"/>
       <c r="Z735" s="4"/>
+      <c r="AA735" s="4"/>
     </row>
     <row r="736">
       <c r="A736" s="4"/>
@@ -21034,6 +21800,7 @@
       <c r="X736" s="4"/>
       <c r="Y736" s="4"/>
       <c r="Z736" s="4"/>
+      <c r="AA736" s="4"/>
     </row>
     <row r="737">
       <c r="A737" s="4"/>
@@ -21062,6 +21829,7 @@
       <c r="X737" s="4"/>
       <c r="Y737" s="4"/>
       <c r="Z737" s="4"/>
+      <c r="AA737" s="4"/>
     </row>
     <row r="738">
       <c r="A738" s="4"/>
@@ -21090,6 +21858,7 @@
       <c r="X738" s="4"/>
       <c r="Y738" s="4"/>
       <c r="Z738" s="4"/>
+      <c r="AA738" s="4"/>
     </row>
     <row r="739">
       <c r="A739" s="4"/>
@@ -21118,6 +21887,7 @@
       <c r="X739" s="4"/>
       <c r="Y739" s="4"/>
       <c r="Z739" s="4"/>
+      <c r="AA739" s="4"/>
     </row>
     <row r="740">
       <c r="A740" s="4"/>
@@ -21146,6 +21916,7 @@
       <c r="X740" s="4"/>
       <c r="Y740" s="4"/>
       <c r="Z740" s="4"/>
+      <c r="AA740" s="4"/>
     </row>
     <row r="741">
       <c r="A741" s="4"/>
@@ -21174,6 +21945,7 @@
       <c r="X741" s="4"/>
       <c r="Y741" s="4"/>
       <c r="Z741" s="4"/>
+      <c r="AA741" s="4"/>
     </row>
     <row r="742">
       <c r="A742" s="4"/>
@@ -21202,6 +21974,7 @@
       <c r="X742" s="4"/>
       <c r="Y742" s="4"/>
       <c r="Z742" s="4"/>
+      <c r="AA742" s="4"/>
     </row>
     <row r="743">
       <c r="A743" s="4"/>
@@ -21230,6 +22003,7 @@
       <c r="X743" s="4"/>
       <c r="Y743" s="4"/>
       <c r="Z743" s="4"/>
+      <c r="AA743" s="4"/>
     </row>
     <row r="744">
       <c r="A744" s="4"/>
@@ -21258,6 +22032,7 @@
       <c r="X744" s="4"/>
       <c r="Y744" s="4"/>
       <c r="Z744" s="4"/>
+      <c r="AA744" s="4"/>
     </row>
     <row r="745">
       <c r="A745" s="4"/>
@@ -21286,6 +22061,7 @@
       <c r="X745" s="4"/>
       <c r="Y745" s="4"/>
       <c r="Z745" s="4"/>
+      <c r="AA745" s="4"/>
     </row>
     <row r="746">
       <c r="A746" s="4"/>
@@ -21314,6 +22090,7 @@
       <c r="X746" s="4"/>
       <c r="Y746" s="4"/>
       <c r="Z746" s="4"/>
+      <c r="AA746" s="4"/>
     </row>
     <row r="747">
       <c r="A747" s="4"/>
@@ -21342,6 +22119,7 @@
       <c r="X747" s="4"/>
       <c r="Y747" s="4"/>
       <c r="Z747" s="4"/>
+      <c r="AA747" s="4"/>
     </row>
     <row r="748">
       <c r="A748" s="4"/>
@@ -21370,6 +22148,7 @@
       <c r="X748" s="4"/>
       <c r="Y748" s="4"/>
       <c r="Z748" s="4"/>
+      <c r="AA748" s="4"/>
     </row>
     <row r="749">
       <c r="A749" s="4"/>
@@ -21398,6 +22177,7 @@
       <c r="X749" s="4"/>
       <c r="Y749" s="4"/>
       <c r="Z749" s="4"/>
+      <c r="AA749" s="4"/>
     </row>
     <row r="750">
       <c r="A750" s="4"/>
@@ -21426,6 +22206,7 @@
       <c r="X750" s="4"/>
       <c r="Y750" s="4"/>
       <c r="Z750" s="4"/>
+      <c r="AA750" s="4"/>
     </row>
     <row r="751">
       <c r="A751" s="4"/>
@@ -21454,6 +22235,7 @@
       <c r="X751" s="4"/>
       <c r="Y751" s="4"/>
       <c r="Z751" s="4"/>
+      <c r="AA751" s="4"/>
     </row>
     <row r="752">
       <c r="A752" s="4"/>
@@ -21482,6 +22264,7 @@
       <c r="X752" s="4"/>
       <c r="Y752" s="4"/>
       <c r="Z752" s="4"/>
+      <c r="AA752" s="4"/>
     </row>
     <row r="753">
       <c r="A753" s="4"/>
@@ -21510,6 +22293,7 @@
       <c r="X753" s="4"/>
       <c r="Y753" s="4"/>
       <c r="Z753" s="4"/>
+      <c r="AA753" s="4"/>
     </row>
     <row r="754">
       <c r="A754" s="4"/>
@@ -21538,6 +22322,7 @@
       <c r="X754" s="4"/>
       <c r="Y754" s="4"/>
       <c r="Z754" s="4"/>
+      <c r="AA754" s="4"/>
     </row>
     <row r="755">
       <c r="A755" s="4"/>
@@ -21566,6 +22351,7 @@
       <c r="X755" s="4"/>
       <c r="Y755" s="4"/>
       <c r="Z755" s="4"/>
+      <c r="AA755" s="4"/>
     </row>
     <row r="756">
       <c r="A756" s="4"/>
@@ -21594,6 +22380,7 @@
       <c r="X756" s="4"/>
       <c r="Y756" s="4"/>
       <c r="Z756" s="4"/>
+      <c r="AA756" s="4"/>
     </row>
     <row r="757">
       <c r="A757" s="4"/>
@@ -21622,6 +22409,7 @@
       <c r="X757" s="4"/>
       <c r="Y757" s="4"/>
       <c r="Z757" s="4"/>
+      <c r="AA757" s="4"/>
     </row>
     <row r="758">
       <c r="A758" s="4"/>
@@ -21650,6 +22438,7 @@
       <c r="X758" s="4"/>
       <c r="Y758" s="4"/>
       <c r="Z758" s="4"/>
+      <c r="AA758" s="4"/>
     </row>
     <row r="759">
       <c r="A759" s="4"/>
@@ -21678,6 +22467,7 @@
       <c r="X759" s="4"/>
       <c r="Y759" s="4"/>
       <c r="Z759" s="4"/>
+      <c r="AA759" s="4"/>
     </row>
     <row r="760">
       <c r="A760" s="4"/>
@@ -21706,6 +22496,7 @@
       <c r="X760" s="4"/>
       <c r="Y760" s="4"/>
       <c r="Z760" s="4"/>
+      <c r="AA760" s="4"/>
     </row>
     <row r="761">
       <c r="A761" s="4"/>
@@ -21734,6 +22525,7 @@
       <c r="X761" s="4"/>
       <c r="Y761" s="4"/>
       <c r="Z761" s="4"/>
+      <c r="AA761" s="4"/>
     </row>
     <row r="762">
       <c r="A762" s="4"/>
@@ -21762,6 +22554,7 @@
       <c r="X762" s="4"/>
       <c r="Y762" s="4"/>
       <c r="Z762" s="4"/>
+      <c r="AA762" s="4"/>
     </row>
     <row r="763">
       <c r="A763" s="4"/>
@@ -21790,6 +22583,7 @@
       <c r="X763" s="4"/>
       <c r="Y763" s="4"/>
       <c r="Z763" s="4"/>
+      <c r="AA763" s="4"/>
     </row>
     <row r="764">
       <c r="A764" s="4"/>
@@ -21818,6 +22612,7 @@
       <c r="X764" s="4"/>
       <c r="Y764" s="4"/>
       <c r="Z764" s="4"/>
+      <c r="AA764" s="4"/>
     </row>
     <row r="765">
       <c r="A765" s="4"/>
@@ -21846,6 +22641,7 @@
       <c r="X765" s="4"/>
       <c r="Y765" s="4"/>
       <c r="Z765" s="4"/>
+      <c r="AA765" s="4"/>
     </row>
     <row r="766">
       <c r="A766" s="4"/>
@@ -21874,6 +22670,7 @@
       <c r="X766" s="4"/>
       <c r="Y766" s="4"/>
       <c r="Z766" s="4"/>
+      <c r="AA766" s="4"/>
     </row>
     <row r="767">
       <c r="A767" s="4"/>
@@ -21902,6 +22699,7 @@
       <c r="X767" s="4"/>
       <c r="Y767" s="4"/>
       <c r="Z767" s="4"/>
+      <c r="AA767" s="4"/>
     </row>
     <row r="768">
       <c r="A768" s="4"/>
@@ -21930,6 +22728,7 @@
       <c r="X768" s="4"/>
       <c r="Y768" s="4"/>
       <c r="Z768" s="4"/>
+      <c r="AA768" s="4"/>
     </row>
     <row r="769">
       <c r="A769" s="4"/>
@@ -21958,6 +22757,7 @@
       <c r="X769" s="4"/>
       <c r="Y769" s="4"/>
       <c r="Z769" s="4"/>
+      <c r="AA769" s="4"/>
     </row>
     <row r="770">
       <c r="A770" s="4"/>
@@ -21986,6 +22786,7 @@
       <c r="X770" s="4"/>
       <c r="Y770" s="4"/>
       <c r="Z770" s="4"/>
+      <c r="AA770" s="4"/>
     </row>
     <row r="771">
       <c r="A771" s="4"/>
@@ -22014,6 +22815,7 @@
       <c r="X771" s="4"/>
       <c r="Y771" s="4"/>
       <c r="Z771" s="4"/>
+      <c r="AA771" s="4"/>
     </row>
     <row r="772">
       <c r="A772" s="4"/>
@@ -22042,6 +22844,7 @@
       <c r="X772" s="4"/>
       <c r="Y772" s="4"/>
       <c r="Z772" s="4"/>
+      <c r="AA772" s="4"/>
     </row>
     <row r="773">
       <c r="A773" s="4"/>
@@ -22070,6 +22873,7 @@
       <c r="X773" s="4"/>
       <c r="Y773" s="4"/>
       <c r="Z773" s="4"/>
+      <c r="AA773" s="4"/>
     </row>
     <row r="774">
       <c r="A774" s="4"/>
@@ -22098,6 +22902,7 @@
       <c r="X774" s="4"/>
       <c r="Y774" s="4"/>
       <c r="Z774" s="4"/>
+      <c r="AA774" s="4"/>
     </row>
     <row r="775">
       <c r="A775" s="4"/>
@@ -22126,6 +22931,7 @@
       <c r="X775" s="4"/>
       <c r="Y775" s="4"/>
       <c r="Z775" s="4"/>
+      <c r="AA775" s="4"/>
     </row>
     <row r="776">
       <c r="A776" s="4"/>
@@ -22154,6 +22960,7 @@
       <c r="X776" s="4"/>
       <c r="Y776" s="4"/>
       <c r="Z776" s="4"/>
+      <c r="AA776" s="4"/>
     </row>
     <row r="777">
       <c r="A777" s="4"/>
@@ -22182,6 +22989,7 @@
       <c r="X777" s="4"/>
       <c r="Y777" s="4"/>
       <c r="Z777" s="4"/>
+      <c r="AA777" s="4"/>
     </row>
     <row r="778">
       <c r="A778" s="4"/>
@@ -22210,6 +23018,7 @@
       <c r="X778" s="4"/>
       <c r="Y778" s="4"/>
       <c r="Z778" s="4"/>
+      <c r="AA778" s="4"/>
     </row>
     <row r="779">
       <c r="A779" s="4"/>
@@ -22238,6 +23047,7 @@
       <c r="X779" s="4"/>
       <c r="Y779" s="4"/>
       <c r="Z779" s="4"/>
+      <c r="AA779" s="4"/>
     </row>
     <row r="780">
       <c r="A780" s="4"/>
@@ -22266,6 +23076,7 @@
       <c r="X780" s="4"/>
       <c r="Y780" s="4"/>
       <c r="Z780" s="4"/>
+      <c r="AA780" s="4"/>
     </row>
     <row r="781">
       <c r="A781" s="4"/>
@@ -22294,6 +23105,7 @@
       <c r="X781" s="4"/>
       <c r="Y781" s="4"/>
       <c r="Z781" s="4"/>
+      <c r="AA781" s="4"/>
     </row>
     <row r="782">
       <c r="A782" s="4"/>
@@ -22322,6 +23134,7 @@
       <c r="X782" s="4"/>
       <c r="Y782" s="4"/>
       <c r="Z782" s="4"/>
+      <c r="AA782" s="4"/>
     </row>
     <row r="783">
       <c r="A783" s="4"/>
@@ -22350,6 +23163,7 @@
       <c r="X783" s="4"/>
       <c r="Y783" s="4"/>
       <c r="Z783" s="4"/>
+      <c r="AA783" s="4"/>
     </row>
     <row r="784">
       <c r="A784" s="4"/>
@@ -22378,6 +23192,7 @@
       <c r="X784" s="4"/>
       <c r="Y784" s="4"/>
       <c r="Z784" s="4"/>
+      <c r="AA784" s="4"/>
     </row>
     <row r="785">
       <c r="A785" s="4"/>
@@ -22406,6 +23221,7 @@
       <c r="X785" s="4"/>
       <c r="Y785" s="4"/>
       <c r="Z785" s="4"/>
+      <c r="AA785" s="4"/>
     </row>
     <row r="786">
       <c r="A786" s="4"/>
@@ -22434,6 +23250,7 @@
       <c r="X786" s="4"/>
       <c r="Y786" s="4"/>
       <c r="Z786" s="4"/>
+      <c r="AA786" s="4"/>
     </row>
     <row r="787">
       <c r="A787" s="4"/>
@@ -22462,6 +23279,7 @@
       <c r="X787" s="4"/>
       <c r="Y787" s="4"/>
       <c r="Z787" s="4"/>
+      <c r="AA787" s="4"/>
     </row>
     <row r="788">
       <c r="A788" s="4"/>
@@ -22490,6 +23308,7 @@
       <c r="X788" s="4"/>
       <c r="Y788" s="4"/>
       <c r="Z788" s="4"/>
+      <c r="AA788" s="4"/>
     </row>
     <row r="789">
       <c r="A789" s="4"/>
@@ -22518,6 +23337,7 @@
       <c r="X789" s="4"/>
       <c r="Y789" s="4"/>
       <c r="Z789" s="4"/>
+      <c r="AA789" s="4"/>
     </row>
     <row r="790">
       <c r="A790" s="4"/>
@@ -22546,6 +23366,7 @@
       <c r="X790" s="4"/>
       <c r="Y790" s="4"/>
       <c r="Z790" s="4"/>
+      <c r="AA790" s="4"/>
     </row>
     <row r="791">
       <c r="A791" s="4"/>
@@ -22574,6 +23395,7 @@
       <c r="X791" s="4"/>
       <c r="Y791" s="4"/>
       <c r="Z791" s="4"/>
+      <c r="AA791" s="4"/>
     </row>
     <row r="792">
       <c r="A792" s="4"/>
@@ -22602,6 +23424,7 @@
       <c r="X792" s="4"/>
       <c r="Y792" s="4"/>
       <c r="Z792" s="4"/>
+      <c r="AA792" s="4"/>
     </row>
     <row r="793">
       <c r="A793" s="4"/>
@@ -22630,6 +23453,7 @@
       <c r="X793" s="4"/>
       <c r="Y793" s="4"/>
       <c r="Z793" s="4"/>
+      <c r="AA793" s="4"/>
     </row>
     <row r="794">
       <c r="A794" s="4"/>
@@ -22658,6 +23482,7 @@
       <c r="X794" s="4"/>
       <c r="Y794" s="4"/>
       <c r="Z794" s="4"/>
+      <c r="AA794" s="4"/>
     </row>
     <row r="795">
       <c r="A795" s="4"/>
@@ -22686,6 +23511,7 @@
       <c r="X795" s="4"/>
       <c r="Y795" s="4"/>
       <c r="Z795" s="4"/>
+      <c r="AA795" s="4"/>
     </row>
     <row r="796">
       <c r="A796" s="4"/>
@@ -22714,6 +23540,7 @@
       <c r="X796" s="4"/>
       <c r="Y796" s="4"/>
       <c r="Z796" s="4"/>
+      <c r="AA796" s="4"/>
     </row>
     <row r="797">
       <c r="A797" s="4"/>
@@ -22742,6 +23569,7 @@
       <c r="X797" s="4"/>
       <c r="Y797" s="4"/>
       <c r="Z797" s="4"/>
+      <c r="AA797" s="4"/>
     </row>
     <row r="798">
       <c r="A798" s="4"/>
@@ -22770,6 +23598,7 @@
       <c r="X798" s="4"/>
       <c r="Y798" s="4"/>
       <c r="Z798" s="4"/>
+      <c r="AA798" s="4"/>
     </row>
     <row r="799">
       <c r="A799" s="4"/>
@@ -22798,6 +23627,7 @@
       <c r="X799" s="4"/>
       <c r="Y799" s="4"/>
       <c r="Z799" s="4"/>
+      <c r="AA799" s="4"/>
     </row>
     <row r="800">
       <c r="A800" s="4"/>
@@ -22826,6 +23656,7 @@
       <c r="X800" s="4"/>
       <c r="Y800" s="4"/>
       <c r="Z800" s="4"/>
+      <c r="AA800" s="4"/>
     </row>
     <row r="801">
       <c r="A801" s="4"/>
@@ -22854,6 +23685,7 @@
       <c r="X801" s="4"/>
       <c r="Y801" s="4"/>
       <c r="Z801" s="4"/>
+      <c r="AA801" s="4"/>
     </row>
     <row r="802">
       <c r="A802" s="4"/>
@@ -22882,6 +23714,7 @@
       <c r="X802" s="4"/>
       <c r="Y802" s="4"/>
       <c r="Z802" s="4"/>
+      <c r="AA802" s="4"/>
     </row>
     <row r="803">
       <c r="A803" s="4"/>
@@ -22910,6 +23743,7 @@
       <c r="X803" s="4"/>
       <c r="Y803" s="4"/>
       <c r="Z803" s="4"/>
+      <c r="AA803" s="4"/>
     </row>
     <row r="804">
       <c r="A804" s="4"/>
@@ -22938,6 +23772,7 @@
       <c r="X804" s="4"/>
       <c r="Y804" s="4"/>
       <c r="Z804" s="4"/>
+      <c r="AA804" s="4"/>
     </row>
     <row r="805">
       <c r="A805" s="4"/>
@@ -22966,6 +23801,7 @@
       <c r="X805" s="4"/>
       <c r="Y805" s="4"/>
       <c r="Z805" s="4"/>
+      <c r="AA805" s="4"/>
     </row>
     <row r="806">
       <c r="A806" s="4"/>
@@ -22994,6 +23830,7 @@
       <c r="X806" s="4"/>
       <c r="Y806" s="4"/>
       <c r="Z806" s="4"/>
+      <c r="AA806" s="4"/>
     </row>
     <row r="807">
       <c r="A807" s="4"/>
@@ -23022,6 +23859,7 @@
       <c r="X807" s="4"/>
       <c r="Y807" s="4"/>
       <c r="Z807" s="4"/>
+      <c r="AA807" s="4"/>
     </row>
     <row r="808">
       <c r="A808" s="4"/>
@@ -23050,6 +23888,7 @@
       <c r="X808" s="4"/>
       <c r="Y808" s="4"/>
       <c r="Z808" s="4"/>
+      <c r="AA808" s="4"/>
     </row>
     <row r="809">
       <c r="A809" s="4"/>
@@ -23078,6 +23917,7 @@
       <c r="X809" s="4"/>
       <c r="Y809" s="4"/>
       <c r="Z809" s="4"/>
+      <c r="AA809" s="4"/>
     </row>
     <row r="810">
       <c r="A810" s="4"/>
@@ -23106,6 +23946,7 @@
       <c r="X810" s="4"/>
       <c r="Y810" s="4"/>
       <c r="Z810" s="4"/>
+      <c r="AA810" s="4"/>
     </row>
     <row r="811">
       <c r="A811" s="4"/>
@@ -23134,6 +23975,7 @@
       <c r="X811" s="4"/>
       <c r="Y811" s="4"/>
       <c r="Z811" s="4"/>
+      <c r="AA811" s="4"/>
     </row>
     <row r="812">
       <c r="A812" s="4"/>
@@ -23162,6 +24004,7 @@
       <c r="X812" s="4"/>
       <c r="Y812" s="4"/>
       <c r="Z812" s="4"/>
+      <c r="AA812" s="4"/>
     </row>
     <row r="813">
       <c r="A813" s="4"/>
@@ -23190,6 +24033,7 @@
       <c r="X813" s="4"/>
       <c r="Y813" s="4"/>
       <c r="Z813" s="4"/>
+      <c r="AA813" s="4"/>
     </row>
     <row r="814">
       <c r="A814" s="4"/>
@@ -23218,6 +24062,7 @@
       <c r="X814" s="4"/>
       <c r="Y814" s="4"/>
       <c r="Z814" s="4"/>
+      <c r="AA814" s="4"/>
     </row>
     <row r="815">
       <c r="A815" s="4"/>
@@ -23246,6 +24091,7 @@
       <c r="X815" s="4"/>
       <c r="Y815" s="4"/>
       <c r="Z815" s="4"/>
+      <c r="AA815" s="4"/>
     </row>
     <row r="816">
       <c r="A816" s="4"/>
@@ -23274,6 +24120,7 @@
       <c r="X816" s="4"/>
       <c r="Y816" s="4"/>
       <c r="Z816" s="4"/>
+      <c r="AA816" s="4"/>
     </row>
     <row r="817">
       <c r="A817" s="4"/>
@@ -23302,6 +24149,7 @@
       <c r="X817" s="4"/>
       <c r="Y817" s="4"/>
       <c r="Z817" s="4"/>
+      <c r="AA817" s="4"/>
     </row>
     <row r="818">
       <c r="A818" s="4"/>
@@ -23330,6 +24178,7 @@
       <c r="X818" s="4"/>
       <c r="Y818" s="4"/>
       <c r="Z818" s="4"/>
+      <c r="AA818" s="4"/>
     </row>
     <row r="819">
       <c r="A819" s="4"/>
@@ -23358,6 +24207,7 @@
       <c r="X819" s="4"/>
       <c r="Y819" s="4"/>
       <c r="Z819" s="4"/>
+      <c r="AA819" s="4"/>
     </row>
     <row r="820">
       <c r="A820" s="4"/>
@@ -23386,6 +24236,7 @@
       <c r="X820" s="4"/>
       <c r="Y820" s="4"/>
       <c r="Z820" s="4"/>
+      <c r="AA820" s="4"/>
     </row>
     <row r="821">
       <c r="A821" s="4"/>
@@ -23414,6 +24265,7 @@
       <c r="X821" s="4"/>
       <c r="Y821" s="4"/>
       <c r="Z821" s="4"/>
+      <c r="AA821" s="4"/>
     </row>
     <row r="822">
       <c r="A822" s="4"/>
@@ -23442,6 +24294,7 @@
       <c r="X822" s="4"/>
       <c r="Y822" s="4"/>
       <c r="Z822" s="4"/>
+      <c r="AA822" s="4"/>
     </row>
     <row r="823">
       <c r="A823" s="4"/>
@@ -23470,6 +24323,7 @@
       <c r="X823" s="4"/>
       <c r="Y823" s="4"/>
       <c r="Z823" s="4"/>
+      <c r="AA823" s="4"/>
     </row>
     <row r="824">
       <c r="A824" s="4"/>
@@ -23498,6 +24352,7 @@
       <c r="X824" s="4"/>
       <c r="Y824" s="4"/>
       <c r="Z824" s="4"/>
+      <c r="AA824" s="4"/>
     </row>
     <row r="825">
       <c r="A825" s="4"/>
@@ -23526,6 +24381,7 @@
       <c r="X825" s="4"/>
       <c r="Y825" s="4"/>
       <c r="Z825" s="4"/>
+      <c r="AA825" s="4"/>
     </row>
     <row r="826">
       <c r="A826" s="4"/>
@@ -23554,6 +24410,7 @@
       <c r="X826" s="4"/>
       <c r="Y826" s="4"/>
       <c r="Z826" s="4"/>
+      <c r="AA826" s="4"/>
     </row>
     <row r="827">
       <c r="A827" s="4"/>
@@ -23582,6 +24439,7 @@
       <c r="X827" s="4"/>
       <c r="Y827" s="4"/>
       <c r="Z827" s="4"/>
+      <c r="AA827" s="4"/>
     </row>
     <row r="828">
       <c r="A828" s="4"/>
@@ -23610,6 +24468,7 @@
       <c r="X828" s="4"/>
       <c r="Y828" s="4"/>
       <c r="Z828" s="4"/>
+      <c r="AA828" s="4"/>
     </row>
     <row r="829">
       <c r="A829" s="4"/>
@@ -23638,6 +24497,7 @@
       <c r="X829" s="4"/>
       <c r="Y829" s="4"/>
       <c r="Z829" s="4"/>
+      <c r="AA829" s="4"/>
     </row>
     <row r="830">
       <c r="A830" s="4"/>
@@ -23666,6 +24526,7 @@
       <c r="X830" s="4"/>
       <c r="Y830" s="4"/>
       <c r="Z830" s="4"/>
+      <c r="AA830" s="4"/>
     </row>
     <row r="831">
       <c r="A831" s="4"/>
@@ -23694,6 +24555,7 @@
       <c r="X831" s="4"/>
       <c r="Y831" s="4"/>
       <c r="Z831" s="4"/>
+      <c r="AA831" s="4"/>
     </row>
     <row r="832">
       <c r="A832" s="4"/>
@@ -23722,6 +24584,7 @@
       <c r="X832" s="4"/>
       <c r="Y832" s="4"/>
       <c r="Z832" s="4"/>
+      <c r="AA832" s="4"/>
     </row>
     <row r="833">
       <c r="A833" s="4"/>
@@ -23750,6 +24613,7 @@
       <c r="X833" s="4"/>
       <c r="Y833" s="4"/>
       <c r="Z833" s="4"/>
+      <c r="AA833" s="4"/>
     </row>
     <row r="834">
       <c r="A834" s="4"/>
@@ -23778,6 +24642,7 @@
       <c r="X834" s="4"/>
       <c r="Y834" s="4"/>
       <c r="Z834" s="4"/>
+      <c r="AA834" s="4"/>
     </row>
     <row r="835">
       <c r="A835" s="4"/>
@@ -23806,6 +24671,7 @@
       <c r="X835" s="4"/>
       <c r="Y835" s="4"/>
       <c r="Z835" s="4"/>
+      <c r="AA835" s="4"/>
     </row>
     <row r="836">
       <c r="A836" s="4"/>
@@ -23834,6 +24700,7 @@
       <c r="X836" s="4"/>
       <c r="Y836" s="4"/>
       <c r="Z836" s="4"/>
+      <c r="AA836" s="4"/>
     </row>
     <row r="837">
       <c r="A837" s="4"/>
@@ -23862,6 +24729,7 @@
       <c r="X837" s="4"/>
       <c r="Y837" s="4"/>
       <c r="Z837" s="4"/>
+      <c r="AA837" s="4"/>
     </row>
     <row r="838">
       <c r="A838" s="4"/>
@@ -23890,6 +24758,7 @@
       <c r="X838" s="4"/>
       <c r="Y838" s="4"/>
       <c r="Z838" s="4"/>
+      <c r="AA838" s="4"/>
     </row>
     <row r="839">
       <c r="A839" s="4"/>
@@ -23918,6 +24787,7 @@
       <c r="X839" s="4"/>
       <c r="Y839" s="4"/>
       <c r="Z839" s="4"/>
+      <c r="AA839" s="4"/>
     </row>
     <row r="840">
       <c r="A840" s="4"/>
@@ -23946,6 +24816,7 @@
       <c r="X840" s="4"/>
       <c r="Y840" s="4"/>
       <c r="Z840" s="4"/>
+      <c r="AA840" s="4"/>
     </row>
     <row r="841">
       <c r="A841" s="4"/>
@@ -23974,6 +24845,7 @@
       <c r="X841" s="4"/>
       <c r="Y841" s="4"/>
       <c r="Z841" s="4"/>
+      <c r="AA841" s="4"/>
     </row>
     <row r="842">
       <c r="A842" s="4"/>
@@ -24002,6 +24874,7 @@
       <c r="X842" s="4"/>
       <c r="Y842" s="4"/>
       <c r="Z842" s="4"/>
+      <c r="AA842" s="4"/>
     </row>
     <row r="843">
       <c r="A843" s="4"/>
@@ -24030,6 +24903,7 @@
       <c r="X843" s="4"/>
       <c r="Y843" s="4"/>
       <c r="Z843" s="4"/>
+      <c r="AA843" s="4"/>
     </row>
     <row r="844">
       <c r="A844" s="4"/>
@@ -24058,6 +24932,7 @@
       <c r="X844" s="4"/>
       <c r="Y844" s="4"/>
       <c r="Z844" s="4"/>
+      <c r="AA844" s="4"/>
     </row>
     <row r="845">
       <c r="A845" s="4"/>
@@ -24086,6 +24961,7 @@
       <c r="X845" s="4"/>
       <c r="Y845" s="4"/>
       <c r="Z845" s="4"/>
+      <c r="AA845" s="4"/>
     </row>
     <row r="846">
       <c r="A846" s="4"/>
@@ -24114,6 +24990,7 @@
       <c r="X846" s="4"/>
       <c r="Y846" s="4"/>
       <c r="Z846" s="4"/>
+      <c r="AA846" s="4"/>
     </row>
     <row r="847">
       <c r="A847" s="4"/>
@@ -24142,6 +25019,7 @@
       <c r="X847" s="4"/>
       <c r="Y847" s="4"/>
       <c r="Z847" s="4"/>
+      <c r="AA847" s="4"/>
     </row>
     <row r="848">
       <c r="A848" s="4"/>
@@ -24170,6 +25048,7 @@
       <c r="X848" s="4"/>
       <c r="Y848" s="4"/>
       <c r="Z848" s="4"/>
+      <c r="AA848" s="4"/>
     </row>
     <row r="849">
       <c r="A849" s="4"/>
@@ -24198,6 +25077,7 @@
       <c r="X849" s="4"/>
       <c r="Y849" s="4"/>
       <c r="Z849" s="4"/>
+      <c r="AA849" s="4"/>
     </row>
     <row r="850">
       <c r="A850" s="4"/>
@@ -24226,6 +25106,7 @@
       <c r="X850" s="4"/>
       <c r="Y850" s="4"/>
       <c r="Z850" s="4"/>
+      <c r="AA850" s="4"/>
     </row>
     <row r="851">
       <c r="A851" s="4"/>
@@ -24254,6 +25135,7 @@
       <c r="X851" s="4"/>
       <c r="Y851" s="4"/>
       <c r="Z851" s="4"/>
+      <c r="AA851" s="4"/>
     </row>
     <row r="852">
       <c r="A852" s="4"/>
@@ -24282,6 +25164,7 @@
       <c r="X852" s="4"/>
       <c r="Y852" s="4"/>
       <c r="Z852" s="4"/>
+      <c r="AA852" s="4"/>
     </row>
     <row r="853">
       <c r="A853" s="4"/>
@@ -24310,6 +25193,7 @@
       <c r="X853" s="4"/>
       <c r="Y853" s="4"/>
       <c r="Z853" s="4"/>
+      <c r="AA853" s="4"/>
     </row>
     <row r="854">
       <c r="A854" s="4"/>
@@ -24338,6 +25222,7 @@
       <c r="X854" s="4"/>
       <c r="Y854" s="4"/>
       <c r="Z854" s="4"/>
+      <c r="AA854" s="4"/>
     </row>
     <row r="855">
       <c r="A855" s="4"/>
@@ -24366,6 +25251,7 @@
       <c r="X855" s="4"/>
       <c r="Y855" s="4"/>
       <c r="Z855" s="4"/>
+      <c r="AA855" s="4"/>
     </row>
     <row r="856">
       <c r="A856" s="4"/>
@@ -24394,6 +25280,7 @@
       <c r="X856" s="4"/>
       <c r="Y856" s="4"/>
       <c r="Z856" s="4"/>
+      <c r="AA856" s="4"/>
     </row>
     <row r="857">
       <c r="A857" s="4"/>
@@ -24422,6 +25309,7 @@
       <c r="X857" s="4"/>
       <c r="Y857" s="4"/>
       <c r="Z857" s="4"/>
+      <c r="AA857" s="4"/>
     </row>
     <row r="858">
       <c r="A858" s="4"/>
@@ -24450,6 +25338,7 @@
       <c r="X858" s="4"/>
       <c r="Y858" s="4"/>
       <c r="Z858" s="4"/>
+      <c r="AA858" s="4"/>
     </row>
     <row r="859">
       <c r="A859" s="4"/>
@@ -24478,6 +25367,7 @@
       <c r="X859" s="4"/>
       <c r="Y859" s="4"/>
       <c r="Z859" s="4"/>
+      <c r="AA859" s="4"/>
     </row>
     <row r="860">
       <c r="A860" s="4"/>
@@ -24506,6 +25396,7 @@
       <c r="X860" s="4"/>
       <c r="Y860" s="4"/>
       <c r="Z860" s="4"/>
+      <c r="AA860" s="4"/>
     </row>
     <row r="861">
       <c r="A861" s="4"/>
@@ -24534,6 +25425,7 @@
       <c r="X861" s="4"/>
       <c r="Y861" s="4"/>
       <c r="Z861" s="4"/>
+      <c r="AA861" s="4"/>
     </row>
     <row r="862">
       <c r="A862" s="4"/>
@@ -24562,6 +25454,7 @@
       <c r="X862" s="4"/>
       <c r="Y862" s="4"/>
       <c r="Z862" s="4"/>
+      <c r="AA862" s="4"/>
     </row>
     <row r="863">
       <c r="A863" s="4"/>
@@ -24590,6 +25483,7 @@
       <c r="X863" s="4"/>
       <c r="Y863" s="4"/>
       <c r="Z863" s="4"/>
+      <c r="AA863" s="4"/>
     </row>
     <row r="864">
       <c r="A864" s="4"/>
@@ -24618,6 +25512,7 @@
       <c r="X864" s="4"/>
       <c r="Y864" s="4"/>
       <c r="Z864" s="4"/>
+      <c r="AA864" s="4"/>
     </row>
     <row r="865">
       <c r="A865" s="4"/>
@@ -24646,6 +25541,7 @@
       <c r="X865" s="4"/>
       <c r="Y865" s="4"/>
       <c r="Z865" s="4"/>
+      <c r="AA865" s="4"/>
     </row>
     <row r="866">
       <c r="A866" s="4"/>
@@ -24674,6 +25570,7 @@
       <c r="X866" s="4"/>
       <c r="Y866" s="4"/>
       <c r="Z866" s="4"/>
+      <c r="AA866" s="4"/>
     </row>
     <row r="867">
       <c r="A867" s="4"/>
@@ -24702,6 +25599,7 @@
       <c r="X867" s="4"/>
       <c r="Y867" s="4"/>
       <c r="Z867" s="4"/>
+      <c r="AA867" s="4"/>
     </row>
     <row r="868">
       <c r="A868" s="4"/>
@@ -24730,6 +25628,7 @@
       <c r="X868" s="4"/>
       <c r="Y868" s="4"/>
       <c r="Z868" s="4"/>
+      <c r="AA868" s="4"/>
     </row>
     <row r="869">
       <c r="A869" s="4"/>
@@ -24758,6 +25657,7 @@
       <c r="X869" s="4"/>
       <c r="Y869" s="4"/>
       <c r="Z869" s="4"/>
+      <c r="AA869" s="4"/>
     </row>
     <row r="870">
       <c r="A870" s="4"/>
@@ -24786,6 +25686,7 @@
       <c r="X870" s="4"/>
       <c r="Y870" s="4"/>
       <c r="Z870" s="4"/>
+      <c r="AA870" s="4"/>
     </row>
     <row r="871">
       <c r="A871" s="4"/>
@@ -24814,6 +25715,7 @@
       <c r="X871" s="4"/>
       <c r="Y871" s="4"/>
       <c r="Z871" s="4"/>
+      <c r="AA871" s="4"/>
     </row>
     <row r="872">
       <c r="A872" s="4"/>
@@ -24842,6 +25744,7 @@
       <c r="X872" s="4"/>
       <c r="Y872" s="4"/>
       <c r="Z872" s="4"/>
+      <c r="AA872" s="4"/>
     </row>
     <row r="873">
       <c r="A873" s="4"/>
@@ -24870,6 +25773,7 @@
       <c r="X873" s="4"/>
       <c r="Y873" s="4"/>
       <c r="Z873" s="4"/>
+      <c r="AA873" s="4"/>
     </row>
     <row r="874">
       <c r="A874" s="4"/>
@@ -24898,6 +25802,7 @@
       <c r="X874" s="4"/>
       <c r="Y874" s="4"/>
       <c r="Z874" s="4"/>
+      <c r="AA874" s="4"/>
     </row>
     <row r="875">
       <c r="A875" s="4"/>
@@ -24926,6 +25831,7 @@
       <c r="X875" s="4"/>
       <c r="Y875" s="4"/>
       <c r="Z875" s="4"/>
+      <c r="AA875" s="4"/>
     </row>
     <row r="876">
       <c r="A876" s="4"/>
@@ -24954,6 +25860,7 @@
       <c r="X876" s="4"/>
       <c r="Y876" s="4"/>
       <c r="Z876" s="4"/>
+      <c r="AA876" s="4"/>
     </row>
     <row r="877">
       <c r="A877" s="4"/>
@@ -24982,6 +25889,7 @@
       <c r="X877" s="4"/>
       <c r="Y877" s="4"/>
       <c r="Z877" s="4"/>
+      <c r="AA877" s="4"/>
     </row>
     <row r="878">
       <c r="A878" s="4"/>
@@ -25010,6 +25918,7 @@
       <c r="X878" s="4"/>
       <c r="Y878" s="4"/>
       <c r="Z878" s="4"/>
+      <c r="AA878" s="4"/>
     </row>
     <row r="879">
       <c r="A879" s="4"/>
@@ -25038,6 +25947,7 @@
       <c r="X879" s="4"/>
       <c r="Y879" s="4"/>
       <c r="Z879" s="4"/>
+      <c r="AA879" s="4"/>
     </row>
     <row r="880">
       <c r="A880" s="4"/>
@@ -25066,6 +25976,7 @@
       <c r="X880" s="4"/>
       <c r="Y880" s="4"/>
       <c r="Z880" s="4"/>
+      <c r="AA880" s="4"/>
     </row>
     <row r="881">
       <c r="A881" s="4"/>
@@ -25094,6 +26005,7 @@
       <c r="X881" s="4"/>
       <c r="Y881" s="4"/>
       <c r="Z881" s="4"/>
+      <c r="AA881" s="4"/>
     </row>
     <row r="882">
       <c r="A882" s="4"/>
@@ -25122,6 +26034,7 @@
       <c r="X882" s="4"/>
       <c r="Y882" s="4"/>
       <c r="Z882" s="4"/>
+      <c r="AA882" s="4"/>
     </row>
     <row r="883">
       <c r="A883" s="4"/>
@@ -25150,6 +26063,7 @@
       <c r="X883" s="4"/>
       <c r="Y883" s="4"/>
       <c r="Z883" s="4"/>
+      <c r="AA883" s="4"/>
     </row>
     <row r="884">
       <c r="A884" s="4"/>
@@ -25178,6 +26092,7 @@
       <c r="X884" s="4"/>
       <c r="Y884" s="4"/>
       <c r="Z884" s="4"/>
+      <c r="AA884" s="4"/>
     </row>
     <row r="885">
       <c r="A885" s="4"/>
@@ -25206,6 +26121,7 @@
       <c r="X885" s="4"/>
       <c r="Y885" s="4"/>
       <c r="Z885" s="4"/>
+      <c r="AA885" s="4"/>
     </row>
     <row r="886">
       <c r="A886" s="4"/>
@@ -25234,6 +26150,7 @@
       <c r="X886" s="4"/>
       <c r="Y886" s="4"/>
       <c r="Z886" s="4"/>
+      <c r="AA886" s="4"/>
     </row>
     <row r="887">
       <c r="A887" s="4"/>
@@ -25262,6 +26179,7 @@
       <c r="X887" s="4"/>
       <c r="Y887" s="4"/>
       <c r="Z887" s="4"/>
+      <c r="AA887" s="4"/>
     </row>
     <row r="888">
       <c r="A888" s="4"/>
@@ -25290,6 +26208,7 @@
       <c r="X888" s="4"/>
       <c r="Y888" s="4"/>
       <c r="Z888" s="4"/>
+      <c r="AA888" s="4"/>
     </row>
     <row r="889">
       <c r="A889" s="4"/>
@@ -25318,6 +26237,7 @@
       <c r="X889" s="4"/>
       <c r="Y889" s="4"/>
       <c r="Z889" s="4"/>
+      <c r="AA889" s="4"/>
     </row>
     <row r="890">
       <c r="A890" s="4"/>
@@ -25346,6 +26266,7 @@
       <c r="X890" s="4"/>
       <c r="Y890" s="4"/>
       <c r="Z890" s="4"/>
+      <c r="AA890" s="4"/>
     </row>
     <row r="891">
       <c r="A891" s="4"/>
@@ -25374,6 +26295,7 @@
       <c r="X891" s="4"/>
       <c r="Y891" s="4"/>
       <c r="Z891" s="4"/>
+      <c r="AA891" s="4"/>
     </row>
     <row r="892">
       <c r="A892" s="4"/>
@@ -25402,6 +26324,7 @@
       <c r="X892" s="4"/>
       <c r="Y892" s="4"/>
       <c r="Z892" s="4"/>
+      <c r="AA892" s="4"/>
     </row>
     <row r="893">
       <c r="A893" s="4"/>
@@ -25430,6 +26353,7 @@
       <c r="X893" s="4"/>
       <c r="Y893" s="4"/>
       <c r="Z893" s="4"/>
+      <c r="AA893" s="4"/>
     </row>
     <row r="894">
       <c r="A894" s="4"/>
@@ -25458,6 +26382,7 @@
       <c r="X894" s="4"/>
       <c r="Y894" s="4"/>
       <c r="Z894" s="4"/>
+      <c r="AA894" s="4"/>
     </row>
     <row r="895">
       <c r="A895" s="4"/>
@@ -25486,6 +26411,7 @@
       <c r="X895" s="4"/>
       <c r="Y895" s="4"/>
       <c r="Z895" s="4"/>
+      <c r="AA895" s="4"/>
     </row>
     <row r="896">
       <c r="A896" s="4"/>
@@ -25514,6 +26440,7 @@
       <c r="X896" s="4"/>
       <c r="Y896" s="4"/>
       <c r="Z896" s="4"/>
+      <c r="AA896" s="4"/>
     </row>
     <row r="897">
       <c r="A897" s="4"/>
@@ -25542,6 +26469,7 @@
       <c r="X897" s="4"/>
       <c r="Y897" s="4"/>
       <c r="Z897" s="4"/>
+      <c r="AA897" s="4"/>
     </row>
     <row r="898">
       <c r="A898" s="4"/>
@@ -25570,6 +26498,7 @@
       <c r="X898" s="4"/>
       <c r="Y898" s="4"/>
       <c r="Z898" s="4"/>
+      <c r="AA898" s="4"/>
     </row>
     <row r="899">
       <c r="A899" s="4"/>
@@ -25598,6 +26527,7 @@
       <c r="X899" s="4"/>
       <c r="Y899" s="4"/>
       <c r="Z899" s="4"/>
+      <c r="AA899" s="4"/>
     </row>
     <row r="900">
       <c r="A900" s="4"/>
@@ -25626,6 +26556,7 @@
       <c r="X900" s="4"/>
       <c r="Y900" s="4"/>
       <c r="Z900" s="4"/>
+      <c r="AA900" s="4"/>
     </row>
     <row r="901">
       <c r="A901" s="4"/>
@@ -25654,6 +26585,7 @@
       <c r="X901" s="4"/>
       <c r="Y901" s="4"/>
       <c r="Z901" s="4"/>
+      <c r="AA901" s="4"/>
     </row>
     <row r="902">
       <c r="A902" s="4"/>
@@ -25682,6 +26614,7 @@
       <c r="X902" s="4"/>
       <c r="Y902" s="4"/>
       <c r="Z902" s="4"/>
+      <c r="AA902" s="4"/>
     </row>
     <row r="903">
       <c r="A903" s="4"/>
@@ -25710,6 +26643,7 @@
       <c r="X903" s="4"/>
       <c r="Y903" s="4"/>
       <c r="Z903" s="4"/>
+      <c r="AA903" s="4"/>
     </row>
     <row r="904">
       <c r="A904" s="4"/>
@@ -25738,6 +26672,7 @@
       <c r="X904" s="4"/>
       <c r="Y904" s="4"/>
       <c r="Z904" s="4"/>
+      <c r="AA904" s="4"/>
     </row>
     <row r="905">
       <c r="A905" s="4"/>
@@ -25766,6 +26701,7 @@
       <c r="X905" s="4"/>
       <c r="Y905" s="4"/>
       <c r="Z905" s="4"/>
+      <c r="AA905" s="4"/>
     </row>
     <row r="906">
       <c r="A906" s="4"/>
@@ -25794,6 +26730,7 @@
       <c r="X906" s="4"/>
       <c r="Y906" s="4"/>
       <c r="Z906" s="4"/>
+      <c r="AA906" s="4"/>
     </row>
     <row r="907">
       <c r="A907" s="4"/>
@@ -25822,6 +26759,7 @@
       <c r="X907" s="4"/>
       <c r="Y907" s="4"/>
       <c r="Z907" s="4"/>
+      <c r="AA907" s="4"/>
     </row>
     <row r="908">
       <c r="A908" s="4"/>
@@ -25850,6 +26788,7 @@
       <c r="X908" s="4"/>
       <c r="Y908" s="4"/>
       <c r="Z908" s="4"/>
+      <c r="AA908" s="4"/>
     </row>
     <row r="909">
       <c r="A909" s="4"/>
@@ -25878,6 +26817,7 @@
       <c r="X909" s="4"/>
       <c r="Y909" s="4"/>
       <c r="Z909" s="4"/>
+      <c r="AA909" s="4"/>
     </row>
     <row r="910">
       <c r="A910" s="4"/>
@@ -25906,6 +26846,7 @@
       <c r="X910" s="4"/>
       <c r="Y910" s="4"/>
       <c r="Z910" s="4"/>
+      <c r="AA910" s="4"/>
     </row>
     <row r="911">
       <c r="A911" s="4"/>
@@ -25934,6 +26875,7 @@
       <c r="X911" s="4"/>
       <c r="Y911" s="4"/>
       <c r="Z911" s="4"/>
+      <c r="AA911" s="4"/>
     </row>
     <row r="912">
       <c r="A912" s="4"/>
@@ -25962,6 +26904,7 @@
       <c r="X912" s="4"/>
       <c r="Y912" s="4"/>
       <c r="Z912" s="4"/>
+      <c r="AA912" s="4"/>
     </row>
     <row r="913">
       <c r="A913" s="4"/>
@@ -25990,6 +26933,7 @@
       <c r="X913" s="4"/>
       <c r="Y913" s="4"/>
       <c r="Z913" s="4"/>
+      <c r="AA913" s="4"/>
     </row>
     <row r="914">
       <c r="A914" s="4"/>
@@ -26018,6 +26962,7 @@
       <c r="X914" s="4"/>
       <c r="Y914" s="4"/>
       <c r="Z914" s="4"/>
+      <c r="AA914" s="4"/>
     </row>
     <row r="915">
       <c r="A915" s="4"/>
@@ -26046,6 +26991,7 @@
       <c r="X915" s="4"/>
       <c r="Y915" s="4"/>
       <c r="Z915" s="4"/>
+      <c r="AA915" s="4"/>
     </row>
     <row r="916">
       <c r="A916" s="4"/>
@@ -26074,6 +27020,7 @@
       <c r="X916" s="4"/>
       <c r="Y916" s="4"/>
       <c r="Z916" s="4"/>
+      <c r="AA916" s="4"/>
     </row>
     <row r="917">
       <c r="A917" s="4"/>
@@ -26102,6 +27049,7 @@
       <c r="X917" s="4"/>
       <c r="Y917" s="4"/>
       <c r="Z917" s="4"/>
+      <c r="AA917" s="4"/>
     </row>
     <row r="918">
       <c r="A918" s="4"/>
@@ -26130,6 +27078,7 @@
       <c r="X918" s="4"/>
       <c r="Y918" s="4"/>
       <c r="Z918" s="4"/>
+      <c r="AA918" s="4"/>
     </row>
     <row r="919">
       <c r="A919" s="4"/>
@@ -26158,6 +27107,7 @@
       <c r="X919" s="4"/>
       <c r="Y919" s="4"/>
       <c r="Z919" s="4"/>
+      <c r="AA919" s="4"/>
     </row>
     <row r="920">
       <c r="A920" s="4"/>
@@ -26186,6 +27136,7 @@
       <c r="X920" s="4"/>
       <c r="Y920" s="4"/>
       <c r="Z920" s="4"/>
+      <c r="AA920" s="4"/>
     </row>
     <row r="921">
       <c r="A921" s="4"/>
@@ -26214,6 +27165,7 @@
       <c r="X921" s="4"/>
       <c r="Y921" s="4"/>
       <c r="Z921" s="4"/>
+      <c r="AA921" s="4"/>
     </row>
     <row r="922">
       <c r="A922" s="4"/>
@@ -26242,6 +27194,7 @@
       <c r="X922" s="4"/>
       <c r="Y922" s="4"/>
       <c r="Z922" s="4"/>
+      <c r="AA922" s="4"/>
     </row>
     <row r="923">
       <c r="A923" s="4"/>
@@ -26270,6 +27223,7 @@
       <c r="X923" s="4"/>
       <c r="Y923" s="4"/>
       <c r="Z923" s="4"/>
+      <c r="AA923" s="4"/>
     </row>
     <row r="924">
       <c r="A924" s="4"/>
@@ -26298,6 +27252,7 @@
       <c r="X924" s="4"/>
       <c r="Y924" s="4"/>
       <c r="Z924" s="4"/>
+      <c r="AA924" s="4"/>
     </row>
     <row r="925">
       <c r="A925" s="4"/>
@@ -26326,6 +27281,7 @@
       <c r="X925" s="4"/>
       <c r="Y925" s="4"/>
       <c r="Z925" s="4"/>
+      <c r="AA925" s="4"/>
     </row>
     <row r="926">
       <c r="A926" s="4"/>
@@ -26354,6 +27310,7 @@
       <c r="X926" s="4"/>
       <c r="Y926" s="4"/>
       <c r="Z926" s="4"/>
+      <c r="AA926" s="4"/>
     </row>
     <row r="927">
       <c r="A927" s="4"/>
@@ -26382,6 +27339,7 @@
       <c r="X927" s="4"/>
       <c r="Y927" s="4"/>
       <c r="Z927" s="4"/>
+      <c r="AA927" s="4"/>
     </row>
     <row r="928">
       <c r="A928" s="4"/>
@@ -26410,6 +27368,7 @@
       <c r="X928" s="4"/>
       <c r="Y928" s="4"/>
       <c r="Z928" s="4"/>
+      <c r="AA928" s="4"/>
     </row>
     <row r="929">
       <c r="A929" s="4"/>
@@ -26438,6 +27397,7 @@
       <c r="X929" s="4"/>
       <c r="Y929" s="4"/>
       <c r="Z929" s="4"/>
+      <c r="AA929" s="4"/>
     </row>
     <row r="930">
       <c r="A930" s="4"/>
@@ -26466,6 +27426,7 @@
       <c r="X930" s="4"/>
       <c r="Y930" s="4"/>
       <c r="Z930" s="4"/>
+      <c r="AA930" s="4"/>
     </row>
     <row r="931">
       <c r="A931" s="4"/>
@@ -26494,6 +27455,7 @@
       <c r="X931" s="4"/>
       <c r="Y931" s="4"/>
       <c r="Z931" s="4"/>
+      <c r="AA931" s="4"/>
     </row>
     <row r="932">
       <c r="A932" s="4"/>
@@ -26522,6 +27484,7 @@
       <c r="X932" s="4"/>
       <c r="Y932" s="4"/>
       <c r="Z932" s="4"/>
+      <c r="AA932" s="4"/>
     </row>
     <row r="933">
       <c r="A933" s="4"/>
@@ -26550,6 +27513,7 @@
       <c r="X933" s="4"/>
       <c r="Y933" s="4"/>
       <c r="Z933" s="4"/>
+      <c r="AA933" s="4"/>
     </row>
     <row r="934">
       <c r="A934" s="4"/>
@@ -26578,6 +27542,7 @@
       <c r="X934" s="4"/>
       <c r="Y934" s="4"/>
       <c r="Z934" s="4"/>
+      <c r="AA934" s="4"/>
     </row>
     <row r="935">
       <c r="A935" s="4"/>
@@ -26606,6 +27571,7 @@
       <c r="X935" s="4"/>
       <c r="Y935" s="4"/>
       <c r="Z935" s="4"/>
+      <c r="AA935" s="4"/>
     </row>
     <row r="936">
       <c r="A936" s="4"/>
@@ -26634,6 +27600,7 @@
       <c r="X936" s="4"/>
       <c r="Y936" s="4"/>
       <c r="Z936" s="4"/>
+      <c r="AA936" s="4"/>
     </row>
     <row r="937">
       <c r="A937" s="4"/>
@@ -26662,6 +27629,7 @@
       <c r="X937" s="4"/>
       <c r="Y937" s="4"/>
       <c r="Z937" s="4"/>
+      <c r="AA937" s="4"/>
     </row>
     <row r="938">
       <c r="A938" s="4"/>
@@ -26690,6 +27658,7 @@
       <c r="X938" s="4"/>
       <c r="Y938" s="4"/>
       <c r="Z938" s="4"/>
+      <c r="AA938" s="4"/>
     </row>
     <row r="939">
       <c r="A939" s="4"/>
@@ -26718,6 +27687,7 @@
       <c r="X939" s="4"/>
       <c r="Y939" s="4"/>
       <c r="Z939" s="4"/>
+      <c r="AA939" s="4"/>
     </row>
     <row r="940">
       <c r="A940" s="4"/>
@@ -26746,6 +27716,7 @@
       <c r="X940" s="4"/>
       <c r="Y940" s="4"/>
       <c r="Z940" s="4"/>
+      <c r="AA940" s="4"/>
     </row>
     <row r="941">
       <c r="A941" s="4"/>
@@ -26774,6 +27745,7 @@
       <c r="X941" s="4"/>
       <c r="Y941" s="4"/>
       <c r="Z941" s="4"/>
+      <c r="AA941" s="4"/>
     </row>
     <row r="942">
       <c r="A942" s="4"/>
@@ -26802,6 +27774,7 @@
       <c r="X942" s="4"/>
       <c r="Y942" s="4"/>
       <c r="Z942" s="4"/>
+      <c r="AA942" s="4"/>
     </row>
     <row r="943">
       <c r="A943" s="4"/>
@@ -26830,6 +27803,7 @@
       <c r="X943" s="4"/>
       <c r="Y943" s="4"/>
       <c r="Z943" s="4"/>
+      <c r="AA943" s="4"/>
     </row>
     <row r="944">
       <c r="A944" s="4"/>
@@ -26858,6 +27832,7 @@
       <c r="X944" s="4"/>
       <c r="Y944" s="4"/>
       <c r="Z944" s="4"/>
+      <c r="AA944" s="4"/>
     </row>
     <row r="945">
       <c r="A945" s="4"/>
@@ -26886,6 +27861,7 @@
       <c r="X945" s="4"/>
       <c r="Y945" s="4"/>
       <c r="Z945" s="4"/>
+      <c r="AA945" s="4"/>
     </row>
     <row r="946">
       <c r="A946" s="4"/>
@@ -26914,6 +27890,7 @@
       <c r="X946" s="4"/>
       <c r="Y946" s="4"/>
       <c r="Z946" s="4"/>
+      <c r="AA946" s="4"/>
     </row>
     <row r="947">
       <c r="A947" s="4"/>
@@ -26942,6 +27919,7 @@
       <c r="X947" s="4"/>
       <c r="Y947" s="4"/>
       <c r="Z947" s="4"/>
+      <c r="AA947" s="4"/>
     </row>
     <row r="948">
       <c r="A948" s="4"/>
@@ -26970,6 +27948,7 @@
       <c r="X948" s="4"/>
       <c r="Y948" s="4"/>
       <c r="Z948" s="4"/>
+      <c r="AA948" s="4"/>
     </row>
     <row r="949">
       <c r="A949" s="4"/>
@@ -26998,6 +27977,7 @@
       <c r="X949" s="4"/>
       <c r="Y949" s="4"/>
       <c r="Z949" s="4"/>
+      <c r="AA949" s="4"/>
     </row>
     <row r="950">
       <c r="A950" s="4"/>
@@ -27026,6 +28006,7 @@
       <c r="X950" s="4"/>
       <c r="Y950" s="4"/>
       <c r="Z950" s="4"/>
+      <c r="AA950" s="4"/>
     </row>
     <row r="951">
       <c r="A951" s="4"/>
@@ -27054,6 +28035,7 @@
       <c r="X951" s="4"/>
       <c r="Y951" s="4"/>
       <c r="Z951" s="4"/>
+      <c r="AA951" s="4"/>
     </row>
     <row r="952">
       <c r="A952" s="4"/>
@@ -27082,6 +28064,7 @@
       <c r="X952" s="4"/>
       <c r="Y952" s="4"/>
       <c r="Z952" s="4"/>
+      <c r="AA952" s="4"/>
     </row>
     <row r="953">
       <c r="A953" s="4"/>
@@ -27110,6 +28093,7 @@
       <c r="X953" s="4"/>
       <c r="Y953" s="4"/>
       <c r="Z953" s="4"/>
+      <c r="AA953" s="4"/>
     </row>
     <row r="954">
       <c r="A954" s="4"/>
@@ -27138,6 +28122,7 @@
       <c r="X954" s="4"/>
       <c r="Y954" s="4"/>
       <c r="Z954" s="4"/>
+      <c r="AA954" s="4"/>
     </row>
     <row r="955">
       <c r="A955" s="4"/>
@@ -27166,6 +28151,7 @@
       <c r="X955" s="4"/>
       <c r="Y955" s="4"/>
       <c r="Z955" s="4"/>
+      <c r="AA955" s="4"/>
     </row>
     <row r="956">
       <c r="A956" s="4"/>
@@ -27194,6 +28180,7 @@
       <c r="X956" s="4"/>
       <c r="Y956" s="4"/>
       <c r="Z956" s="4"/>
+      <c r="AA956" s="4"/>
     </row>
     <row r="957">
       <c r="A957" s="4"/>
@@ -27222,6 +28209,7 @@
       <c r="X957" s="4"/>
       <c r="Y957" s="4"/>
       <c r="Z957" s="4"/>
+      <c r="AA957" s="4"/>
     </row>
     <row r="958">
       <c r="A958" s="4"/>
@@ -27250,6 +28238,7 @@
       <c r="X958" s="4"/>
       <c r="Y958" s="4"/>
       <c r="Z958" s="4"/>
+      <c r="AA958" s="4"/>
     </row>
     <row r="959">
       <c r="A959" s="4"/>
@@ -27278,6 +28267,7 @@
       <c r="X959" s="4"/>
       <c r="Y959" s="4"/>
       <c r="Z959" s="4"/>
+      <c r="AA959" s="4"/>
     </row>
     <row r="960">
       <c r="A960" s="4"/>
@@ -27306,6 +28296,7 @@
       <c r="X960" s="4"/>
       <c r="Y960" s="4"/>
       <c r="Z960" s="4"/>
+      <c r="AA960" s="4"/>
     </row>
     <row r="961">
       <c r="A961" s="4"/>
@@ -27334,6 +28325,7 @@
       <c r="X961" s="4"/>
       <c r="Y961" s="4"/>
       <c r="Z961" s="4"/>
+      <c r="AA961" s="4"/>
     </row>
     <row r="962">
       <c r="A962" s="4"/>
@@ -27362,6 +28354,7 @@
       <c r="X962" s="4"/>
       <c r="Y962" s="4"/>
       <c r="Z962" s="4"/>
+      <c r="AA962" s="4"/>
     </row>
     <row r="963">
       <c r="A963" s="4"/>
@@ -27390,6 +28383,7 @@
       <c r="X963" s="4"/>
       <c r="Y963" s="4"/>
       <c r="Z963" s="4"/>
+      <c r="AA963" s="4"/>
     </row>
     <row r="964">
       <c r="A964" s="4"/>
@@ -27418,6 +28412,7 @@
       <c r="X964" s="4"/>
       <c r="Y964" s="4"/>
       <c r="Z964" s="4"/>
+      <c r="AA964" s="4"/>
     </row>
     <row r="965">
       <c r="A965" s="4"/>
@@ -27446,6 +28441,7 @@
       <c r="X965" s="4"/>
       <c r="Y965" s="4"/>
       <c r="Z965" s="4"/>
+      <c r="AA965" s="4"/>
     </row>
     <row r="966">
       <c r="A966" s="4"/>
@@ -27474,6 +28470,7 @@
       <c r="X966" s="4"/>
       <c r="Y966" s="4"/>
       <c r="Z966" s="4"/>
+      <c r="AA966" s="4"/>
     </row>
     <row r="967">
       <c r="A967" s="4"/>
@@ -27502,6 +28499,7 @@
       <c r="X967" s="4"/>
       <c r="Y967" s="4"/>
       <c r="Z967" s="4"/>
+      <c r="AA967" s="4"/>
     </row>
     <row r="968">
       <c r="A968" s="4"/>
@@ -27530,6 +28528,7 @@
       <c r="X968" s="4"/>
       <c r="Y968" s="4"/>
       <c r="Z968" s="4"/>
+      <c r="AA968" s="4"/>
     </row>
     <row r="969">
       <c r="A969" s="4"/>
@@ -27558,6 +28557,7 @@
       <c r="X969" s="4"/>
       <c r="Y969" s="4"/>
       <c r="Z969" s="4"/>
+      <c r="AA969" s="4"/>
     </row>
     <row r="970">
       <c r="A970" s="4"/>
@@ -27586,6 +28586,7 @@
       <c r="X970" s="4"/>
       <c r="Y970" s="4"/>
       <c r="Z970" s="4"/>
+      <c r="AA970" s="4"/>
     </row>
     <row r="971">
       <c r="A971" s="4"/>
@@ -27614,6 +28615,7 @@
       <c r="X971" s="4"/>
       <c r="Y971" s="4"/>
       <c r="Z971" s="4"/>
+      <c r="AA971" s="4"/>
     </row>
     <row r="972">
       <c r="A972" s="4"/>
@@ -27642,6 +28644,7 @@
       <c r="X972" s="4"/>
       <c r="Y972" s="4"/>
       <c r="Z972" s="4"/>
+      <c r="AA972" s="4"/>
     </row>
     <row r="973">
       <c r="A973" s="4"/>
@@ -27670,6 +28673,7 @@
       <c r="X973" s="4"/>
       <c r="Y973" s="4"/>
       <c r="Z973" s="4"/>
+      <c r="AA973" s="4"/>
     </row>
     <row r="974">
       <c r="A974" s="4"/>
@@ -27698,6 +28702,7 @@
       <c r="X974" s="4"/>
       <c r="Y974" s="4"/>
       <c r="Z974" s="4"/>
+      <c r="AA974" s="4"/>
     </row>
     <row r="975">
       <c r="A975" s="4"/>
@@ -27726,6 +28731,7 @@
       <c r="X975" s="4"/>
       <c r="Y975" s="4"/>
       <c r="Z975" s="4"/>
+      <c r="AA975" s="4"/>
     </row>
     <row r="976">
       <c r="A976" s="4"/>
@@ -27754,6 +28760,7 @@
       <c r="X976" s="4"/>
       <c r="Y976" s="4"/>
       <c r="Z976" s="4"/>
+      <c r="AA976" s="4"/>
     </row>
     <row r="977">
       <c r="A977" s="4"/>
@@ -27782,6 +28789,7 @@
       <c r="X977" s="4"/>
       <c r="Y977" s="4"/>
       <c r="Z977" s="4"/>
+      <c r="AA977" s="4"/>
     </row>
     <row r="978">
       <c r="A978" s="4"/>
@@ -27810,6 +28818,7 @@
       <c r="X978" s="4"/>
       <c r="Y978" s="4"/>
       <c r="Z978" s="4"/>
+      <c r="AA978" s="4"/>
     </row>
     <row r="979">
       <c r="A979" s="4"/>
@@ -27838,6 +28847,7 @@
       <c r="X979" s="4"/>
       <c r="Y979" s="4"/>
       <c r="Z979" s="4"/>
+      <c r="AA979" s="4"/>
     </row>
     <row r="980">
       <c r="A980" s="4"/>
@@ -27866,6 +28876,7 @@
       <c r="X980" s="4"/>
       <c r="Y980" s="4"/>
       <c r="Z980" s="4"/>
+      <c r="AA980" s="4"/>
     </row>
     <row r="981">
       <c r="A981" s="4"/>
@@ -27894,6 +28905,7 @@
       <c r="X981" s="4"/>
       <c r="Y981" s="4"/>
       <c r="Z981" s="4"/>
+      <c r="AA981" s="4"/>
     </row>
     <row r="982">
       <c r="A982" s="4"/>
@@ -27922,6 +28934,7 @@
       <c r="X982" s="4"/>
       <c r="Y982" s="4"/>
       <c r="Z982" s="4"/>
+      <c r="AA982" s="4"/>
     </row>
     <row r="983">
       <c r="A983" s="4"/>
@@ -27950,6 +28963,7 @@
       <c r="X983" s="4"/>
       <c r="Y983" s="4"/>
       <c r="Z983" s="4"/>
+      <c r="AA983" s="4"/>
     </row>
     <row r="984">
       <c r="A984" s="4"/>
@@ -27978,6 +28992,7 @@
       <c r="X984" s="4"/>
       <c r="Y984" s="4"/>
       <c r="Z984" s="4"/>
+      <c r="AA984" s="4"/>
     </row>
     <row r="985">
       <c r="A985" s="4"/>
@@ -28006,6 +29021,7 @@
       <c r="X985" s="4"/>
       <c r="Y985" s="4"/>
       <c r="Z985" s="4"/>
+      <c r="AA985" s="4"/>
     </row>
     <row r="986">
       <c r="A986" s="4"/>
@@ -28034,6 +29050,7 @@
       <c r="X986" s="4"/>
       <c r="Y986" s="4"/>
       <c r="Z986" s="4"/>
+      <c r="AA986" s="4"/>
     </row>
     <row r="987">
       <c r="A987" s="4"/>
@@ -28062,6 +29079,7 @@
       <c r="X987" s="4"/>
       <c r="Y987" s="4"/>
       <c r="Z987" s="4"/>
+      <c r="AA987" s="4"/>
     </row>
     <row r="988">
       <c r="A988" s="4"/>
@@ -28090,6 +29108,7 @@
       <c r="X988" s="4"/>
       <c r="Y988" s="4"/>
       <c r="Z988" s="4"/>
+      <c r="AA988" s="4"/>
     </row>
     <row r="989">
       <c r="A989" s="4"/>
@@ -28118,6 +29137,7 @@
       <c r="X989" s="4"/>
       <c r="Y989" s="4"/>
       <c r="Z989" s="4"/>
+      <c r="AA989" s="4"/>
     </row>
     <row r="990">
       <c r="A990" s="4"/>
@@ -28146,6 +29166,7 @@
       <c r="X990" s="4"/>
       <c r="Y990" s="4"/>
       <c r="Z990" s="4"/>
+      <c r="AA990" s="4"/>
     </row>
     <row r="991">
       <c r="A991" s="4"/>
@@ -28174,6 +29195,7 @@
       <c r="X991" s="4"/>
       <c r="Y991" s="4"/>
       <c r="Z991" s="4"/>
+      <c r="AA991" s="4"/>
     </row>
     <row r="992">
       <c r="A992" s="4"/>
@@ -28202,6 +29224,7 @@
       <c r="X992" s="4"/>
       <c r="Y992" s="4"/>
       <c r="Z992" s="4"/>
+      <c r="AA992" s="4"/>
     </row>
     <row r="993">
       <c r="A993" s="4"/>
@@ -28230,6 +29253,7 @@
       <c r="X993" s="4"/>
       <c r="Y993" s="4"/>
       <c r="Z993" s="4"/>
+      <c r="AA993" s="4"/>
     </row>
     <row r="994">
       <c r="A994" s="4"/>
@@ -28258,6 +29282,7 @@
       <c r="X994" s="4"/>
       <c r="Y994" s="4"/>
       <c r="Z994" s="4"/>
+      <c r="AA994" s="4"/>
     </row>
     <row r="995">
       <c r="A995" s="4"/>
@@ -28286,6 +29311,7 @@
       <c r="X995" s="4"/>
       <c r="Y995" s="4"/>
       <c r="Z995" s="4"/>
+      <c r="AA995" s="4"/>
     </row>
     <row r="996">
       <c r="A996" s="4"/>
@@ -28314,6 +29340,7 @@
       <c r="X996" s="4"/>
       <c r="Y996" s="4"/>
       <c r="Z996" s="4"/>
+      <c r="AA996" s="4"/>
     </row>
     <row r="997">
       <c r="A997" s="4"/>
@@ -28342,6 +29369,7 @@
       <c r="X997" s="4"/>
       <c r="Y997" s="4"/>
       <c r="Z997" s="4"/>
+      <c r="AA997" s="4"/>
     </row>
     <row r="998">
       <c r="A998" s="4"/>
@@ -28370,6 +29398,7 @@
       <c r="X998" s="4"/>
       <c r="Y998" s="4"/>
       <c r="Z998" s="4"/>
+      <c r="AA998" s="4"/>
     </row>
     <row r="999">
       <c r="A999" s="4"/>
@@ -28398,6 +29427,7 @@
       <c r="X999" s="4"/>
       <c r="Y999" s="4"/>
       <c r="Z999" s="4"/>
+      <c r="AA999" s="4"/>
     </row>
     <row r="1000">
       <c r="A1000" s="4"/>
@@ -28426,10 +29456,40 @@
       <c r="X1000" s="4"/>
       <c r="Y1000" s="4"/>
       <c r="Z1000" s="4"/>
+      <c r="AA1000" s="4"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="4"/>
+      <c r="B1001" s="4"/>
+      <c r="C1001" s="4"/>
+      <c r="D1001" s="4"/>
+      <c r="E1001" s="4"/>
+      <c r="F1001" s="4"/>
+      <c r="G1001" s="4"/>
+      <c r="H1001" s="4"/>
+      <c r="I1001" s="4"/>
+      <c r="J1001" s="4"/>
+      <c r="K1001" s="4"/>
+      <c r="L1001" s="4"/>
+      <c r="M1001" s="4"/>
+      <c r="N1001" s="4"/>
+      <c r="O1001" s="4"/>
+      <c r="P1001" s="4"/>
+      <c r="Q1001" s="4"/>
+      <c r="R1001" s="4"/>
+      <c r="S1001" s="4"/>
+      <c r="T1001" s="4"/>
+      <c r="U1001" s="4"/>
+      <c r="V1001" s="4"/>
+      <c r="W1001" s="4"/>
+      <c r="X1001" s="4"/>
+      <c r="Y1001" s="4"/>
+      <c r="Z1001" s="4"/>
+      <c r="AA1001" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/progress-report/110121209_DuongVanHiep_BaoCaoTienDo.xlsx
+++ b/progress-report/110121209_DuongVanHiep_BaoCaoTienDo.xlsx
@@ -40,7 +40,7 @@
     <t>x</t>
   </si>
   <si>
-    <t>Tìm hiểu Laravel Freamwork</t>
+    <t>Tìm hiểu Laravel Framework</t>
   </si>
   <si>
     <t>Tạo Github Repository</t>
@@ -52,10 +52,10 @@
     <t>laragon (webserver), VS Code (code editor), Git</t>
   </si>
   <si>
-    <t>Khởi tạo dự án bằng TVUSMC với Laravel Freamwork</t>
+    <t>Khởi tạo dự án bằng TVUSMC với Laravel Framework</t>
   </si>
   <si>
-    <t>Thiết kế Database</t>
+    <t>Thiết kế Database, tạo DB Diagram</t>
   </si>
 </sst>
 </file>
